--- a/data/zenodo_ivan/trade/CHE_trd_elecsupply.xlsx
+++ b/data/zenodo_ivan/trade/CHE_trd_elecsupply.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/Downloads/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/trade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D68366-9FE6-4243-8E52-0D9D5B667862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC3D9A5-BA12-6349-94B4-CF9B2BEF8323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,12 +113,6 @@
     <t>enable_export</t>
   </si>
   <si>
-    <t>enable_max_inflow_share</t>
-  </si>
-  <si>
-    <t>enable_max_outflow_share</t>
-  </si>
-  <si>
     <t>buildrate</t>
   </si>
   <si>
@@ -576,6 +570,12 @@
   </si>
   <si>
     <t>constant_fxe</t>
+  </si>
+  <si>
+    <t>enable_max_import_share</t>
+  </si>
+  <si>
+    <t>enable_max_export_share</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1001,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1083,7 +1083,7 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -1100,7 +1100,7 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -1117,7 +1117,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
@@ -1134,10 +1134,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -1151,10 +1151,10 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -1168,10 +1168,10 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1180,13 +1180,13 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1194,10 +1194,10 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1206,13 +1206,13 @@
         <v>257.61448541000004</v>
       </c>
       <c r="H12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" t="s">
         <v>118</v>
-      </c>
-      <c r="J12" t="s">
-        <v>119</v>
-      </c>
-      <c r="L12" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1220,22 +1220,22 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" t="s">
+        <v>178</v>
+      </c>
+      <c r="F13" t="s">
         <v>177</v>
-      </c>
-      <c r="D13" t="s">
-        <v>180</v>
-      </c>
-      <c r="F13" t="s">
-        <v>179</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1243,10 +1243,10 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1255,7 +1255,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="I14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1263,10 +1263,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1275,10 +1275,10 @@
         <v>30</v>
       </c>
       <c r="H15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1286,7 +1286,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>23</v>
@@ -1300,10 +1300,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1312,13 +1312,13 @@
         <v>8</v>
       </c>
       <c r="H17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1326,10 +1326,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
@@ -1338,10 +1338,10 @@
         <v>0.4</v>
       </c>
       <c r="J18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1349,10 +1349,10 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1361,10 +1361,10 @@
         <v>0.4</v>
       </c>
       <c r="J19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1372,22 +1372,22 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D20" t="s">
         <v>178</v>
       </c>
-      <c r="D20" t="s">
-        <v>180</v>
-      </c>
       <c r="F20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -1395,10 +1395,10 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
         <v>18</v>
@@ -1410,10 +1410,10 @@
         <v>6540</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -1421,10 +1421,10 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
@@ -1438,10 +1438,10 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s">
         <v>18</v>
@@ -1455,10 +1455,10 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
         <v>18</v>
@@ -1472,10 +1472,10 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
@@ -1489,10 +1489,10 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
         <v>18</v>
@@ -1506,10 +1506,10 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D27" t="s">
         <v>18</v>
@@ -1523,10 +1523,10 @@
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s">
         <v>18</v>
@@ -1540,10 +1540,10 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s">
         <v>18</v>
@@ -1557,10 +1557,10 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D30" t="s">
         <v>18</v>
@@ -1574,10 +1574,10 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D31" t="s">
         <v>18</v>
@@ -1591,10 +1591,10 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D32" t="s">
         <v>18</v>
@@ -1608,10 +1608,10 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D33" t="s">
         <v>18</v>
@@ -1625,10 +1625,10 @@
         <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D34" t="s">
         <v>18</v>
@@ -1642,10 +1642,10 @@
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D35" t="s">
         <v>18</v>
@@ -1659,10 +1659,10 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D36" t="s">
         <v>18</v>
@@ -1676,10 +1676,10 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D37" t="s">
         <v>18</v>
@@ -1693,10 +1693,10 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D38" t="s">
         <v>18</v>
@@ -1710,10 +1710,10 @@
         <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D39" t="s">
         <v>18</v>
@@ -1727,10 +1727,10 @@
         <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D40" t="s">
         <v>18</v>
@@ -1742,16 +1742,16 @@
         <v>6894</v>
       </c>
       <c r="H40" t="s">
+        <v>45</v>
+      </c>
+      <c r="J40" t="s">
+        <v>46</v>
+      </c>
+      <c r="K40" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J40" t="s">
+      <c r="L40" t="s">
         <v>48</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L40" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -1759,10 +1759,10 @@
         <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D41" t="s">
         <v>18</v>
@@ -1774,16 +1774,16 @@
         <v>6971</v>
       </c>
       <c r="H41" t="s">
+        <v>45</v>
+      </c>
+      <c r="J41" t="s">
+        <v>46</v>
+      </c>
+      <c r="K41" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J41" t="s">
+      <c r="L41" t="s">
         <v>48</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L41" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -1791,10 +1791,10 @@
         <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D42" t="s">
         <v>18</v>
@@ -1806,16 +1806,16 @@
         <v>6977</v>
       </c>
       <c r="H42" t="s">
+        <v>45</v>
+      </c>
+      <c r="J42" t="s">
+        <v>46</v>
+      </c>
+      <c r="K42" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J42" t="s">
+      <c r="L42" t="s">
         <v>48</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L42" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -1823,10 +1823,10 @@
         <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D43" t="s">
         <v>18</v>
@@ -1835,13 +1835,13 @@
         <v>2012</v>
       </c>
       <c r="J43" t="s">
+        <v>46</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L43" t="s">
         <v>48</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L43" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -1849,10 +1849,10 @@
         <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D44" t="s">
         <v>18</v>
@@ -1866,10 +1866,10 @@
         <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D45" t="s">
         <v>18</v>
@@ -1883,10 +1883,10 @@
         <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C46" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D46" t="s">
         <v>18</v>
@@ -1898,16 +1898,16 @@
         <v>7233</v>
       </c>
       <c r="H46" t="s">
+        <v>45</v>
+      </c>
+      <c r="J46" t="s">
+        <v>46</v>
+      </c>
+      <c r="K46" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J46" t="s">
+      <c r="L46" t="s">
         <v>48</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L46" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -1915,10 +1915,10 @@
         <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D47" t="s">
         <v>18</v>
@@ -1932,10 +1932,10 @@
         <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C48" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D48" t="s">
         <v>18</v>
@@ -1949,10 +1949,10 @@
         <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D49" t="s">
         <v>18</v>
@@ -1966,10 +1966,10 @@
         <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D50" t="s">
         <v>18</v>
@@ -1981,16 +1981,16 @@
         <v>8446</v>
       </c>
       <c r="H50" t="s">
+        <v>45</v>
+      </c>
+      <c r="J50" t="s">
+        <v>46</v>
+      </c>
+      <c r="K50" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J50" t="s">
+      <c r="L50" t="s">
         <v>48</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L50" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -1998,10 +1998,10 @@
         <v>16</v>
       </c>
       <c r="B51" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C51" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D51" t="s">
         <v>18</v>
@@ -2013,16 +2013,16 @@
         <v>89670</v>
       </c>
       <c r="H51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J51" t="s">
         <v>19</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L51" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -2030,10 +2030,10 @@
         <v>16</v>
       </c>
       <c r="B52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C52" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D52" t="s">
         <v>18</v>
@@ -2045,16 +2045,16 @@
         <v>96480</v>
       </c>
       <c r="H52" t="s">
+        <v>49</v>
+      </c>
+      <c r="J52" t="s">
+        <v>52</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L52" t="s">
         <v>51</v>
-      </c>
-      <c r="J52" t="s">
-        <v>54</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L52" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -2062,10 +2062,10 @@
         <v>16</v>
       </c>
       <c r="B53" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C53" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D53" t="s">
         <v>18</v>
@@ -2077,16 +2077,16 @@
         <v>93770</v>
       </c>
       <c r="H53" t="s">
+        <v>49</v>
+      </c>
+      <c r="J53" t="s">
+        <v>53</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L53" t="s">
         <v>51</v>
-      </c>
-      <c r="J53" t="s">
-        <v>55</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L53" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -2094,10 +2094,10 @@
         <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C54" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D54" t="s">
         <v>18</v>
@@ -2109,16 +2109,16 @@
         <v>111790</v>
       </c>
       <c r="H54" t="s">
+        <v>49</v>
+      </c>
+      <c r="J54" t="s">
+        <v>54</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L54" t="s">
         <v>51</v>
-      </c>
-      <c r="J54" t="s">
-        <v>56</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L54" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -2126,10 +2126,10 @@
         <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C55" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D55" t="s">
         <v>18</v>
@@ -2141,16 +2141,16 @@
         <v>124440</v>
       </c>
       <c r="H55" t="s">
+        <v>49</v>
+      </c>
+      <c r="J55" t="s">
+        <v>55</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L55" t="s">
         <v>51</v>
-      </c>
-      <c r="J55" t="s">
-        <v>57</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L55" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
@@ -2158,10 +2158,10 @@
         <v>16</v>
       </c>
       <c r="B56" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C56" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D56" t="s">
         <v>18</v>
@@ -2173,16 +2173,16 @@
         <v>130390</v>
       </c>
       <c r="H56" t="s">
+        <v>49</v>
+      </c>
+      <c r="J56" t="s">
+        <v>56</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L56" t="s">
         <v>51</v>
-      </c>
-      <c r="J56" t="s">
-        <v>58</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L56" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -2190,10 +2190,10 @@
         <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C57" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D57" t="s">
         <v>18</v>
@@ -2205,16 +2205,16 @@
         <v>123950</v>
       </c>
       <c r="H57" t="s">
+        <v>49</v>
+      </c>
+      <c r="J57" t="s">
+        <v>57</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L57" t="s">
         <v>51</v>
-      </c>
-      <c r="J57" t="s">
-        <v>59</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L57" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
@@ -2222,10 +2222,10 @@
         <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C58" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D58" t="s">
         <v>18</v>
@@ -2237,16 +2237,16 @@
         <v>134670</v>
       </c>
       <c r="H58" t="s">
+        <v>49</v>
+      </c>
+      <c r="J58" t="s">
+        <v>58</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L58" t="s">
         <v>51</v>
-      </c>
-      <c r="J58" t="s">
-        <v>60</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L58" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -2254,10 +2254,10 @@
         <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C59" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D59" t="s">
         <v>18</v>
@@ -2269,16 +2269,16 @@
         <v>156140</v>
       </c>
       <c r="H59" t="s">
+        <v>49</v>
+      </c>
+      <c r="J59" t="s">
+        <v>59</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L59" t="s">
         <v>51</v>
-      </c>
-      <c r="J59" t="s">
-        <v>61</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L59" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
@@ -2286,10 +2286,10 @@
         <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C60" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D60" t="s">
         <v>18</v>
@@ -2301,16 +2301,16 @@
         <v>170250</v>
       </c>
       <c r="H60" t="s">
+        <v>49</v>
+      </c>
+      <c r="J60" t="s">
+        <v>60</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L60" t="s">
         <v>51</v>
-      </c>
-      <c r="J60" t="s">
-        <v>62</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L60" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
@@ -2318,10 +2318,10 @@
         <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C61" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D61" t="s">
         <v>18</v>
@@ -2333,16 +2333,16 @@
         <v>113040</v>
       </c>
       <c r="H61" t="s">
+        <v>49</v>
+      </c>
+      <c r="J61" t="s">
+        <v>61</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L61" t="s">
         <v>51</v>
-      </c>
-      <c r="J61" t="s">
-        <v>63</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L61" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
@@ -2350,10 +2350,10 @@
         <v>16</v>
       </c>
       <c r="B62" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C62" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D62" t="s">
         <v>18</v>
@@ -2365,16 +2365,16 @@
         <v>124340</v>
       </c>
       <c r="H62" t="s">
+        <v>49</v>
+      </c>
+      <c r="J62" t="s">
+        <v>62</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L62" t="s">
         <v>51</v>
-      </c>
-      <c r="J62" t="s">
-        <v>64</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L62" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
@@ -2382,10 +2382,10 @@
         <v>16</v>
       </c>
       <c r="B63" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C63" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D63" t="s">
         <v>18</v>
@@ -2397,16 +2397,16 @@
         <v>116310</v>
       </c>
       <c r="H63" t="s">
+        <v>49</v>
+      </c>
+      <c r="J63" t="s">
+        <v>63</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L63" t="s">
         <v>51</v>
-      </c>
-      <c r="J63" t="s">
-        <v>65</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L63" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
@@ -2414,10 +2414,10 @@
         <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C64" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D64" t="s">
         <v>18</v>
@@ -2429,16 +2429,16 @@
         <v>119510</v>
       </c>
       <c r="H64" t="s">
+        <v>49</v>
+      </c>
+      <c r="J64" t="s">
+        <v>64</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L64" t="s">
         <v>51</v>
-      </c>
-      <c r="J64" t="s">
-        <v>66</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L64" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
@@ -2446,10 +2446,10 @@
         <v>16</v>
       </c>
       <c r="B65" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C65" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D65" t="s">
         <v>18</v>
@@ -2461,16 +2461,16 @@
         <v>99930</v>
       </c>
       <c r="H65" t="s">
+        <v>49</v>
+      </c>
+      <c r="J65" t="s">
+        <v>65</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L65" t="s">
         <v>51</v>
-      </c>
-      <c r="J65" t="s">
-        <v>67</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L65" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
@@ -2478,10 +2478,10 @@
         <v>16</v>
       </c>
       <c r="B66" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C66" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D66" t="s">
         <v>18</v>
@@ -2493,16 +2493,16 @@
         <v>115190</v>
       </c>
       <c r="H66" t="s">
+        <v>49</v>
+      </c>
+      <c r="J66" t="s">
+        <v>66</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L66" t="s">
         <v>51</v>
-      </c>
-      <c r="J66" t="s">
-        <v>68</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L66" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
@@ -2510,10 +2510,10 @@
         <v>16</v>
       </c>
       <c r="B67" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C67" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D67" t="s">
         <v>18</v>
@@ -2525,16 +2525,16 @@
         <v>111960</v>
       </c>
       <c r="H67" t="s">
+        <v>49</v>
+      </c>
+      <c r="J67" t="s">
+        <v>67</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L67" t="s">
         <v>51</v>
-      </c>
-      <c r="J67" t="s">
-        <v>69</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L67" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -2542,10 +2542,10 @@
         <v>16</v>
       </c>
       <c r="B68" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C68" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D68" t="s">
         <v>18</v>
@@ -2557,16 +2557,16 @@
         <v>132770</v>
       </c>
       <c r="H68" t="s">
+        <v>49</v>
+      </c>
+      <c r="J68" t="s">
+        <v>68</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L68" t="s">
         <v>51</v>
-      </c>
-      <c r="J68" t="s">
-        <v>70</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L68" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
@@ -2574,10 +2574,10 @@
         <v>16</v>
       </c>
       <c r="B69" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C69" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D69" t="s">
         <v>18</v>
@@ -2589,16 +2589,16 @@
         <v>117850</v>
       </c>
       <c r="H69" t="s">
+        <v>49</v>
+      </c>
+      <c r="J69" t="s">
+        <v>69</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L69" t="s">
         <v>51</v>
-      </c>
-      <c r="J69" t="s">
-        <v>71</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L69" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
@@ -2606,10 +2606,10 @@
         <v>16</v>
       </c>
       <c r="B70" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C70" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D70" t="s">
         <v>18</v>
@@ -2621,16 +2621,16 @@
         <v>120690</v>
       </c>
       <c r="H70" t="s">
+        <v>49</v>
+      </c>
+      <c r="J70" t="s">
+        <v>70</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L70" t="s">
         <v>51</v>
-      </c>
-      <c r="J70" t="s">
-        <v>72</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L70" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
@@ -2638,10 +2638,10 @@
         <v>16</v>
       </c>
       <c r="B71" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C71" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D71" t="s">
         <v>18</v>
@@ -2653,16 +2653,16 @@
         <v>118370</v>
       </c>
       <c r="H71" t="s">
+        <v>49</v>
+      </c>
+      <c r="J71" t="s">
+        <v>71</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L71" t="s">
         <v>51</v>
-      </c>
-      <c r="J71" t="s">
-        <v>73</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L71" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
@@ -2670,10 +2670,10 @@
         <v>16</v>
       </c>
       <c r="B72" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C72" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D72" t="s">
         <v>18</v>
@@ -2685,16 +2685,16 @@
         <v>116050</v>
       </c>
       <c r="H72" t="s">
+        <v>49</v>
+      </c>
+      <c r="J72" t="s">
+        <v>72</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L72" t="s">
         <v>51</v>
-      </c>
-      <c r="J72" t="s">
-        <v>74</v>
-      </c>
-      <c r="K72" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L72" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
@@ -2702,10 +2702,10 @@
         <v>16</v>
       </c>
       <c r="B73" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C73" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D73" t="s">
         <v>18</v>
@@ -2717,16 +2717,16 @@
         <v>121500</v>
       </c>
       <c r="H73" t="s">
+        <v>49</v>
+      </c>
+      <c r="J73" t="s">
+        <v>73</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L73" t="s">
         <v>51</v>
-      </c>
-      <c r="J73" t="s">
-        <v>75</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L73" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
@@ -2734,10 +2734,10 @@
         <v>16</v>
       </c>
       <c r="B74" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C74" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D74" t="s">
         <v>18</v>
@@ -2749,16 +2749,16 @@
         <v>116170</v>
       </c>
       <c r="H74" t="s">
+        <v>49</v>
+      </c>
+      <c r="J74" t="s">
+        <v>74</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L74" t="s">
         <v>51</v>
-      </c>
-      <c r="J74" t="s">
-        <v>76</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L74" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
@@ -2766,10 +2766,10 @@
         <v>16</v>
       </c>
       <c r="B75" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C75" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D75" t="s">
         <v>18</v>
@@ -2781,16 +2781,16 @@
         <v>122480</v>
       </c>
       <c r="H75" t="s">
+        <v>49</v>
+      </c>
+      <c r="J75" t="s">
+        <v>75</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L75" t="s">
         <v>51</v>
-      </c>
-      <c r="J75" t="s">
-        <v>77</v>
-      </c>
-      <c r="K75" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L75" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
@@ -2798,10 +2798,10 @@
         <v>16</v>
       </c>
       <c r="B76" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C76" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D76" t="s">
         <v>18</v>
@@ -2813,16 +2813,16 @@
         <v>126240</v>
       </c>
       <c r="H76" t="s">
+        <v>49</v>
+      </c>
+      <c r="J76" t="s">
+        <v>76</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L76" t="s">
         <v>51</v>
-      </c>
-      <c r="J76" t="s">
-        <v>78</v>
-      </c>
-      <c r="K76" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L76" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
@@ -2830,10 +2830,10 @@
         <v>16</v>
       </c>
       <c r="B77" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C77" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D77" t="s">
         <v>18</v>
@@ -2845,16 +2845,16 @@
         <v>108620</v>
       </c>
       <c r="H77" t="s">
+        <v>49</v>
+      </c>
+      <c r="J77" t="s">
+        <v>77</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L77" t="s">
         <v>51</v>
-      </c>
-      <c r="J77" t="s">
-        <v>79</v>
-      </c>
-      <c r="K77" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L77" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -2862,10 +2862,10 @@
         <v>16</v>
       </c>
       <c r="B78" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C78" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D78" t="s">
         <v>18</v>
@@ -2877,16 +2877,16 @@
         <v>111410</v>
       </c>
       <c r="H78" t="s">
+        <v>49</v>
+      </c>
+      <c r="J78" t="s">
+        <v>78</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L78" t="s">
         <v>51</v>
-      </c>
-      <c r="J78" t="s">
-        <v>80</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L78" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -2894,10 +2894,10 @@
         <v>16</v>
       </c>
       <c r="B79" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C79" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D79" t="s">
         <v>18</v>
@@ -2909,16 +2909,16 @@
         <v>117390</v>
       </c>
       <c r="H79" t="s">
+        <v>49</v>
+      </c>
+      <c r="J79" t="s">
+        <v>79</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L79" t="s">
         <v>51</v>
-      </c>
-      <c r="J79" t="s">
-        <v>81</v>
-      </c>
-      <c r="K79" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L79" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -2926,10 +2926,10 @@
         <v>16</v>
       </c>
       <c r="B80" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C80" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D80" t="s">
         <v>18</v>
@@ -2941,16 +2941,16 @@
         <v>128750</v>
       </c>
       <c r="H80" t="s">
+        <v>49</v>
+      </c>
+      <c r="J80" t="s">
+        <v>80</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L80" t="s">
         <v>51</v>
-      </c>
-      <c r="J80" t="s">
-        <v>82</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L80" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
@@ -2958,10 +2958,10 @@
         <v>16</v>
       </c>
       <c r="B81" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C81" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D81" t="s">
         <v>18</v>
@@ -2973,16 +2973,16 @@
         <v>82080</v>
       </c>
       <c r="H81" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J81" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L81" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
@@ -2990,10 +2990,10 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C82" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D82" t="s">
         <v>18</v>
@@ -3005,16 +3005,16 @@
         <v>86420</v>
       </c>
       <c r="H82" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J82" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L82" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
@@ -3022,10 +3022,10 @@
         <v>16</v>
       </c>
       <c r="B83" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C83" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D83" t="s">
         <v>18</v>
@@ -3037,16 +3037,16 @@
         <v>78330</v>
       </c>
       <c r="H83" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J83" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L83" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
@@ -3054,10 +3054,10 @@
         <v>16</v>
       </c>
       <c r="B84" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C84" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D84" t="s">
         <v>18</v>
@@ -3069,16 +3069,16 @@
         <v>85870</v>
       </c>
       <c r="H84" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J84" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L84" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
@@ -3086,10 +3086,10 @@
         <v>16</v>
       </c>
       <c r="B85" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C85" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D85" t="s">
         <v>18</v>
@@ -3101,16 +3101,16 @@
         <v>81800</v>
       </c>
       <c r="H85" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J85" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L85" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
@@ -3118,10 +3118,10 @@
         <v>16</v>
       </c>
       <c r="B86" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C86" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D86" t="s">
         <v>18</v>
@@ -3133,16 +3133,16 @@
         <v>104210</v>
       </c>
       <c r="H86" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J86" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L86" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
@@ -3150,10 +3150,10 @@
         <v>16</v>
       </c>
       <c r="B87" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C87" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D87" t="s">
         <v>18</v>
@@ -3165,16 +3165,16 @@
         <v>120550</v>
       </c>
       <c r="H87" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J87" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L87" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
@@ -3182,10 +3182,10 @@
         <v>16</v>
       </c>
       <c r="B88" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C88" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D88" t="s">
         <v>18</v>
@@ -3197,16 +3197,16 @@
         <v>110360</v>
       </c>
       <c r="H88" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J88" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L88" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
@@ -3214,10 +3214,10 @@
         <v>16</v>
       </c>
       <c r="B89" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C89" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D89" t="s">
         <v>18</v>
@@ -3229,16 +3229,16 @@
         <v>134710</v>
       </c>
       <c r="H89" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J89" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L89" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
@@ -3246,10 +3246,10 @@
         <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C90" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D90" t="s">
         <v>18</v>
@@ -3261,16 +3261,16 @@
         <v>133430</v>
       </c>
       <c r="H90" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J90" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L90" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -3278,10 +3278,10 @@
         <v>16</v>
       </c>
       <c r="B91" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D91" t="s">
         <v>18</v>
@@ -3293,16 +3293,16 @@
         <v>87590</v>
       </c>
       <c r="H91" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J91" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L91" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
@@ -3310,10 +3310,10 @@
         <v>16</v>
       </c>
       <c r="B92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D92" t="s">
         <v>18</v>
@@ -3325,16 +3325,16 @@
         <v>86750</v>
       </c>
       <c r="H92" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J92" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L92" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
@@ -3342,10 +3342,10 @@
         <v>16</v>
       </c>
       <c r="B93" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C93" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D93" t="s">
         <v>18</v>
@@ -3357,16 +3357,16 @@
         <v>100080</v>
       </c>
       <c r="H93" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J93" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L93" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
@@ -3374,10 +3374,10 @@
         <v>16</v>
       </c>
       <c r="B94" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C94" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D94" t="s">
         <v>18</v>
@@ -3389,16 +3389,16 @@
         <v>108300</v>
       </c>
       <c r="H94" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J94" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L94" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
@@ -3406,10 +3406,10 @@
         <v>16</v>
       </c>
       <c r="B95" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C95" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D95" t="s">
         <v>18</v>
@@ -3421,16 +3421,16 @@
         <v>97400</v>
       </c>
       <c r="H95" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J95" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L95" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
@@ -3438,10 +3438,10 @@
         <v>16</v>
       </c>
       <c r="B96" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C96" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D96" t="s">
         <v>18</v>
@@ -3453,16 +3453,16 @@
         <v>138050</v>
       </c>
       <c r="H96" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J96" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L96" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
@@ -3470,10 +3470,10 @@
         <v>16</v>
       </c>
       <c r="B97" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C97" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D97" t="s">
         <v>18</v>
@@ -3485,16 +3485,16 @@
         <v>121690</v>
       </c>
       <c r="H97" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J97" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L97" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
@@ -3502,10 +3502,10 @@
         <v>16</v>
       </c>
       <c r="B98" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C98" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D98" t="s">
         <v>18</v>
@@ -3517,16 +3517,16 @@
         <v>125340</v>
       </c>
       <c r="H98" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J98" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L98" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
@@ -3534,10 +3534,10 @@
         <v>16</v>
       </c>
       <c r="B99" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C99" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D99" t="s">
         <v>18</v>
@@ -3549,16 +3549,16 @@
         <v>113760</v>
       </c>
       <c r="H99" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J99" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L99" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
@@ -3566,10 +3566,10 @@
         <v>16</v>
       </c>
       <c r="B100" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C100" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D100" t="s">
         <v>18</v>
@@ -3581,16 +3581,16 @@
         <v>112920</v>
       </c>
       <c r="H100" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J100" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L100" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
@@ -3598,10 +3598,10 @@
         <v>16</v>
       </c>
       <c r="B101" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C101" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D101" t="s">
         <v>18</v>
@@ -3613,16 +3613,16 @@
         <v>120240</v>
       </c>
       <c r="H101" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J101" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L101" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
@@ -3630,10 +3630,10 @@
         <v>16</v>
       </c>
       <c r="B102" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C102" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D102" t="s">
         <v>18</v>
@@ -3645,16 +3645,16 @@
         <v>125370</v>
       </c>
       <c r="H102" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J102" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L102" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
@@ -3662,10 +3662,10 @@
         <v>16</v>
       </c>
       <c r="B103" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C103" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D103" t="s">
         <v>18</v>
@@ -3677,16 +3677,16 @@
         <v>113580</v>
       </c>
       <c r="H103" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J103" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L103" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
@@ -3694,10 +3694,10 @@
         <v>16</v>
       </c>
       <c r="B104" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C104" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D104" t="s">
         <v>18</v>
@@ -3709,16 +3709,16 @@
         <v>107550</v>
       </c>
       <c r="H104" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J104" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L104" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
@@ -3726,10 +3726,10 @@
         <v>16</v>
       </c>
       <c r="B105" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C105" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D105" t="s">
         <v>18</v>
@@ -3741,16 +3741,16 @@
         <v>102710</v>
       </c>
       <c r="H105" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J105" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L105" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
@@ -3758,10 +3758,10 @@
         <v>16</v>
       </c>
       <c r="B106" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C106" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D106" t="s">
         <v>18</v>
@@ -3773,16 +3773,16 @@
         <v>122520</v>
       </c>
       <c r="H106" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J106" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L106" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
@@ -3790,10 +3790,10 @@
         <v>16</v>
       </c>
       <c r="B107" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C107" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D107" t="s">
         <v>18</v>
@@ -3805,16 +3805,16 @@
         <v>122750</v>
       </c>
       <c r="H107" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J107" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L107" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
@@ -3822,10 +3822,10 @@
         <v>16</v>
       </c>
       <c r="B108" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C108" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D108" t="s">
         <v>18</v>
@@ -3837,16 +3837,16 @@
         <v>131390</v>
       </c>
       <c r="H108" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J108" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L108" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
@@ -3854,10 +3854,10 @@
         <v>16</v>
       </c>
       <c r="B109" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C109" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D109" t="s">
         <v>18</v>
@@ -3869,16 +3869,16 @@
         <v>111670</v>
       </c>
       <c r="H109" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J109" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L109" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
@@ -3886,10 +3886,10 @@
         <v>16</v>
       </c>
       <c r="B110" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C110" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D110" t="s">
         <v>18</v>
@@ -3901,16 +3901,16 @@
         <v>106220</v>
       </c>
       <c r="H110" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J110" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L110" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
@@ -3918,10 +3918,10 @@
         <v>16</v>
       </c>
       <c r="B111" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C111" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D111" t="s">
         <v>18</v>
@@ -3933,13 +3933,13 @@
         <v>0</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J111" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L111" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
@@ -3947,10 +3947,10 @@
         <v>16</v>
       </c>
       <c r="B112" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C112" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D112" t="s">
         <v>18</v>
@@ -3962,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
@@ -3970,10 +3970,10 @@
         <v>16</v>
       </c>
       <c r="B113" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C113" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D113" t="s">
         <v>18</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
@@ -3993,10 +3993,10 @@
         <v>16</v>
       </c>
       <c r="B114" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C114" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D114" t="s">
         <v>18</v>
@@ -4008,7 +4008,7 @@
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
@@ -4016,10 +4016,10 @@
         <v>16</v>
       </c>
       <c r="B115" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C115" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D115" t="s">
         <v>18</v>
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
@@ -4039,10 +4039,10 @@
         <v>16</v>
       </c>
       <c r="B116" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C116" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D116" t="s">
         <v>18</v>
@@ -4054,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
@@ -4062,10 +4062,10 @@
         <v>16</v>
       </c>
       <c r="B117" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C117" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D117" t="s">
         <v>18</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
@@ -4085,10 +4085,10 @@
         <v>16</v>
       </c>
       <c r="B118" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C118" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D118" t="s">
         <v>18</v>
@@ -4100,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
@@ -4108,10 +4108,10 @@
         <v>16</v>
       </c>
       <c r="B119" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C119" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D119" t="s">
         <v>18</v>
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
@@ -4131,10 +4131,10 @@
         <v>16</v>
       </c>
       <c r="B120" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C120" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D120" t="s">
         <v>18</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="H120" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
@@ -4154,10 +4154,10 @@
         <v>16</v>
       </c>
       <c r="B121" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C121" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D121" t="s">
         <v>18</v>
@@ -4169,7 +4169,7 @@
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
@@ -4177,10 +4177,10 @@
         <v>16</v>
       </c>
       <c r="B122" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C122" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D122" t="s">
         <v>18</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="H122" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
@@ -4200,10 +4200,10 @@
         <v>16</v>
       </c>
       <c r="B123" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C123" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D123" t="s">
         <v>18</v>
@@ -4215,7 +4215,7 @@
         <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
@@ -4223,10 +4223,10 @@
         <v>16</v>
       </c>
       <c r="B124" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C124" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D124" t="s">
         <v>18</v>
@@ -4238,7 +4238,7 @@
         <v>0</v>
       </c>
       <c r="H124" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
@@ -4246,10 +4246,10 @@
         <v>16</v>
       </c>
       <c r="B125" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C125" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D125" t="s">
         <v>18</v>
@@ -4261,7 +4261,7 @@
         <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
@@ -4269,10 +4269,10 @@
         <v>16</v>
       </c>
       <c r="B126" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C126" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D126" t="s">
         <v>18</v>
@@ -4284,7 +4284,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
@@ -4292,10 +4292,10 @@
         <v>16</v>
       </c>
       <c r="B127" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C127" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D127" t="s">
         <v>18</v>
@@ -4307,7 +4307,7 @@
         <v>0</v>
       </c>
       <c r="H127" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
@@ -4315,10 +4315,10 @@
         <v>16</v>
       </c>
       <c r="B128" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C128" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D128" t="s">
         <v>18</v>
@@ -4330,7 +4330,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
@@ -4338,10 +4338,10 @@
         <v>16</v>
       </c>
       <c r="B129" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C129" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D129" t="s">
         <v>18</v>
@@ -4353,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
@@ -4361,10 +4361,10 @@
         <v>16</v>
       </c>
       <c r="B130" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C130" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D130" t="s">
         <v>18</v>
@@ -4376,14 +4376,14 @@
         <v>354</v>
       </c>
       <c r="H130" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J130" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K130" s="2"/>
       <c r="L130" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
@@ -4391,10 +4391,10 @@
         <v>16</v>
       </c>
       <c r="B131" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C131" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D131" t="s">
         <v>18</v>
@@ -4406,14 +4406,14 @@
         <v>77</v>
       </c>
       <c r="H131" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J131" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K131" s="2"/>
       <c r="L131" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
@@ -4421,10 +4421,10 @@
         <v>16</v>
       </c>
       <c r="B132" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C132" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D132" t="s">
         <v>18</v>
@@ -4436,14 +4436,14 @@
         <v>6</v>
       </c>
       <c r="H132" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J132" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K132" s="2"/>
       <c r="L132" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
@@ -4451,10 +4451,10 @@
         <v>16</v>
       </c>
       <c r="B133" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C133" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D133" t="s">
         <v>18</v>
@@ -4466,14 +4466,14 @@
         <v>0</v>
       </c>
       <c r="H133" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J133" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K133" s="2"/>
       <c r="L133" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
@@ -4481,10 +4481,10 @@
         <v>16</v>
       </c>
       <c r="B134" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C134" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D134" t="s">
         <v>18</v>
@@ -4496,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
@@ -4504,10 +4504,10 @@
         <v>16</v>
       </c>
       <c r="B135" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C135" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D135" t="s">
         <v>18</v>
@@ -4519,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="H135" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
@@ -4527,10 +4527,10 @@
         <v>16</v>
       </c>
       <c r="B136" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C136" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D136" t="s">
         <v>18</v>
@@ -4542,14 +4542,14 @@
         <v>256</v>
       </c>
       <c r="H136" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J136" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K136" s="2"/>
       <c r="L136" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
@@ -4557,10 +4557,10 @@
         <v>16</v>
       </c>
       <c r="B137" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C137" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D137" t="s">
         <v>18</v>
@@ -4572,7 +4572,7 @@
         <v>0</v>
       </c>
       <c r="H137" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
@@ -4580,10 +4580,10 @@
         <v>16</v>
       </c>
       <c r="B138" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C138" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D138" t="s">
         <v>18</v>
@@ -4595,7 +4595,7 @@
         <v>0</v>
       </c>
       <c r="H138" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
@@ -4603,10 +4603,10 @@
         <v>16</v>
       </c>
       <c r="B139" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C139" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D139" t="s">
         <v>18</v>
@@ -4618,7 +4618,7 @@
         <v>0</v>
       </c>
       <c r="H139" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
@@ -4626,10 +4626,10 @@
         <v>16</v>
       </c>
       <c r="B140" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C140" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D140" t="s">
         <v>18</v>
@@ -4641,14 +4641,14 @@
         <v>1213</v>
       </c>
       <c r="H140" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J140" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K140" s="2"/>
       <c r="L140" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
@@ -4656,10 +4656,10 @@
         <v>16</v>
       </c>
       <c r="B141" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C141" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D141" t="s">
         <v>18</v>
@@ -4673,10 +4673,10 @@
         <v>16</v>
       </c>
       <c r="B142" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C142" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D142" t="s">
         <v>18</v>
@@ -4690,10 +4690,10 @@
         <v>16</v>
       </c>
       <c r="B143" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C143" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D143" t="s">
         <v>18</v>
@@ -4707,10 +4707,10 @@
         <v>16</v>
       </c>
       <c r="B144" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C144" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D144" t="s">
         <v>18</v>
@@ -4724,10 +4724,10 @@
         <v>16</v>
       </c>
       <c r="B145" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C145" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D145" t="s">
         <v>18</v>
@@ -4741,10 +4741,10 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C146" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D146" t="s">
         <v>18</v>
@@ -4758,10 +4758,10 @@
         <v>16</v>
       </c>
       <c r="B147" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C147" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D147" t="s">
         <v>18</v>
@@ -4775,10 +4775,10 @@
         <v>16</v>
       </c>
       <c r="B148" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C148" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D148" t="s">
         <v>18</v>
@@ -4792,10 +4792,10 @@
         <v>16</v>
       </c>
       <c r="B149" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C149" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D149" t="s">
         <v>18</v>
@@ -4809,10 +4809,10 @@
         <v>16</v>
       </c>
       <c r="B150" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C150" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D150" t="s">
         <v>18</v>
@@ -4826,10 +4826,10 @@
         <v>16</v>
       </c>
       <c r="B151" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C151" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D151" t="s">
         <v>18</v>
@@ -4843,10 +4843,10 @@
         <v>16</v>
       </c>
       <c r="B152" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C152" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D152" t="s">
         <v>18</v>
@@ -4860,10 +4860,10 @@
         <v>16</v>
       </c>
       <c r="B153" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C153" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D153" t="s">
         <v>18</v>
@@ -4877,10 +4877,10 @@
         <v>16</v>
       </c>
       <c r="B154" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C154" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D154" t="s">
         <v>18</v>
@@ -4894,10 +4894,10 @@
         <v>16</v>
       </c>
       <c r="B155" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C155" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D155" t="s">
         <v>18</v>
@@ -4911,10 +4911,10 @@
         <v>16</v>
       </c>
       <c r="B156" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C156" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D156" t="s">
         <v>18</v>
@@ -4928,10 +4928,10 @@
         <v>16</v>
       </c>
       <c r="B157" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C157" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D157" t="s">
         <v>18</v>
@@ -4945,10 +4945,10 @@
         <v>16</v>
       </c>
       <c r="B158" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C158" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D158" t="s">
         <v>18</v>
@@ -4962,10 +4962,10 @@
         <v>16</v>
       </c>
       <c r="B159" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C159" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D159" t="s">
         <v>18</v>
@@ -4979,10 +4979,10 @@
         <v>16</v>
       </c>
       <c r="B160" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C160" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D160" t="s">
         <v>18</v>
@@ -4996,10 +4996,10 @@
         <v>16</v>
       </c>
       <c r="B161" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C161" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D161" t="s">
         <v>18</v>
@@ -5013,10 +5013,10 @@
         <v>16</v>
       </c>
       <c r="B162" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C162" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D162" t="s">
         <v>18</v>
@@ -5030,10 +5030,10 @@
         <v>16</v>
       </c>
       <c r="B163" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C163" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D163" t="s">
         <v>18</v>
@@ -5047,10 +5047,10 @@
         <v>16</v>
       </c>
       <c r="B164" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C164" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D164" t="s">
         <v>18</v>
@@ -5062,10 +5062,10 @@
         <v>3.2</v>
       </c>
       <c r="H164" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I164" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
@@ -5073,10 +5073,10 @@
         <v>16</v>
       </c>
       <c r="B165" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C165" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D165" t="s">
         <v>18</v>
@@ -5090,10 +5090,10 @@
         <v>16</v>
       </c>
       <c r="B166" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C166" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D166" t="s">
         <v>18</v>
@@ -5107,10 +5107,10 @@
         <v>16</v>
       </c>
       <c r="B167" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C167" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D167" t="s">
         <v>18</v>
@@ -5124,10 +5124,10 @@
         <v>16</v>
       </c>
       <c r="B168" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C168" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D168" t="s">
         <v>18</v>
@@ -5141,10 +5141,10 @@
         <v>16</v>
       </c>
       <c r="B169" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C169" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D169" t="s">
         <v>18</v>
@@ -5158,10 +5158,10 @@
         <v>16</v>
       </c>
       <c r="B170" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C170" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D170" t="s">
         <v>18</v>
@@ -5175,10 +5175,10 @@
         <v>16</v>
       </c>
       <c r="B171" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C171" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D171" t="s">
         <v>18</v>
@@ -5190,7 +5190,7 @@
         <v>37.762500000000003</v>
       </c>
       <c r="H171" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
@@ -5198,10 +5198,10 @@
         <v>16</v>
       </c>
       <c r="B172" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C172" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D172" t="s">
         <v>18</v>
@@ -5213,7 +5213,7 @@
         <v>37.762500000000003</v>
       </c>
       <c r="H172" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
@@ -5221,10 +5221,10 @@
         <v>16</v>
       </c>
       <c r="B173" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C173" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D173" t="s">
         <v>18</v>
@@ -5236,7 +5236,7 @@
         <v>39.137500000000003</v>
       </c>
       <c r="H173" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
@@ -5244,10 +5244,10 @@
         <v>16</v>
       </c>
       <c r="B174" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C174" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D174" t="s">
         <v>18</v>
@@ -5259,7 +5259,7 @@
         <v>38.424999999999997</v>
       </c>
       <c r="H174" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
@@ -5267,10 +5267,10 @@
         <v>16</v>
       </c>
       <c r="B175" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C175" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D175" t="s">
         <v>18</v>
@@ -5282,7 +5282,7 @@
         <v>38.024999999999999</v>
       </c>
       <c r="H175" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
@@ -5290,10 +5290,10 @@
         <v>16</v>
       </c>
       <c r="B176" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C176" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D176" t="s">
         <v>18</v>
@@ -5305,7 +5305,7 @@
         <v>37.9375</v>
       </c>
       <c r="H176" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
@@ -5313,10 +5313,10 @@
         <v>16</v>
       </c>
       <c r="B177" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C177" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D177" t="s">
         <v>18</v>
@@ -5328,7 +5328,7 @@
         <v>37.6</v>
       </c>
       <c r="H177" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
@@ -5336,10 +5336,10 @@
         <v>16</v>
       </c>
       <c r="B178" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C178" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D178" t="s">
         <v>18</v>
@@ -5351,7 +5351,7 @@
         <v>36.975000000000001</v>
       </c>
       <c r="H178" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
@@ -5359,10 +5359,10 @@
         <v>16</v>
       </c>
       <c r="B179" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C179" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D179" t="s">
         <v>18</v>
@@ -5374,7 +5374,7 @@
         <v>36.274999999999999</v>
       </c>
       <c r="H179" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
@@ -5382,10 +5382,10 @@
         <v>16</v>
       </c>
       <c r="B180" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C180" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D180" t="s">
         <v>18</v>
@@ -5397,7 +5397,7 @@
         <v>34.787500000000001</v>
       </c>
       <c r="H180" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
@@ -5405,10 +5405,10 @@
         <v>16</v>
       </c>
       <c r="B181" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C181" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D181" t="s">
         <v>18</v>
@@ -5420,7 +5420,7 @@
         <v>33.200000000000003</v>
       </c>
       <c r="H181" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
@@ -5428,10 +5428,10 @@
         <v>16</v>
       </c>
       <c r="B182" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C182" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D182" t="s">
         <v>18</v>
@@ -5443,7 +5443,7 @@
         <v>35.299999999999997</v>
       </c>
       <c r="H182" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
@@ -5451,10 +5451,10 @@
         <v>16</v>
       </c>
       <c r="B183" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C183" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D183" t="s">
         <v>18</v>
@@ -5466,7 +5466,7 @@
         <v>32.824310609999998</v>
       </c>
       <c r="H183" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
@@ -5474,10 +5474,10 @@
         <v>16</v>
       </c>
       <c r="B184" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C184" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D184" t="s">
         <v>18</v>
@@ -5489,7 +5489,7 @@
         <v>33.427702089999997</v>
       </c>
       <c r="H184" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
@@ -5497,10 +5497,10 @@
         <v>16</v>
       </c>
       <c r="B185" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C185" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D185" t="s">
         <v>18</v>
@@ -5512,7 +5512,7 @@
         <v>35.025917569999997</v>
       </c>
       <c r="H185" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
@@ -5520,10 +5520,10 @@
         <v>16</v>
       </c>
       <c r="B186" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C186" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D186" t="s">
         <v>18</v>
@@ -5535,7 +5535,7 @@
         <v>47.12493869</v>
       </c>
       <c r="H186" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
@@ -5543,10 +5543,10 @@
         <v>16</v>
       </c>
       <c r="B187" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C187" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D187" t="s">
         <v>18</v>
@@ -5558,7 +5558,7 @@
         <v>59.819774850000002</v>
       </c>
       <c r="H187" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
@@ -5566,10 +5566,10 @@
         <v>16</v>
       </c>
       <c r="B188" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C188" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D188" t="s">
         <v>18</v>
@@ -5581,7 +5581,7 @@
         <v>59.752091729999997</v>
       </c>
       <c r="H188" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
@@ -5589,10 +5589,10 @@
         <v>16</v>
       </c>
       <c r="B189" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C189" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D189" t="s">
         <v>18</v>
@@ -5604,7 +5604,7 @@
         <v>66.958622610000006</v>
       </c>
       <c r="H189" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
@@ -5612,10 +5612,10 @@
         <v>16</v>
       </c>
       <c r="B190" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C190" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D190" t="s">
         <v>18</v>
@@ -5627,7 +5627,7 @@
         <v>61.050466499999999</v>
       </c>
       <c r="H190" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
@@ -5635,10 +5635,10 @@
         <v>16</v>
       </c>
       <c r="B191" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C191" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D191" t="s">
         <v>18</v>
@@ -5650,7 +5650,7 @@
         <v>56.049325670000002</v>
       </c>
       <c r="H191" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
@@ -5658,10 +5658,10 @@
         <v>16</v>
       </c>
       <c r="B192" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C192" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D192" t="s">
         <v>18</v>
@@ -5673,7 +5673,7 @@
         <v>56.165710709999999</v>
       </c>
       <c r="H192" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
@@ -5681,10 +5681,10 @@
         <v>16</v>
       </c>
       <c r="B193" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C193" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D193" t="s">
         <v>18</v>
@@ -5696,7 +5696,7 @@
         <v>60.639359579999997</v>
       </c>
       <c r="H193" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
@@ -5704,10 +5704,10 @@
         <v>16</v>
       </c>
       <c r="B194" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C194" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D194" t="s">
         <v>18</v>
@@ -5719,7 +5719,7 @@
         <v>57.100518540000003</v>
       </c>
       <c r="H194" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
@@ -5727,10 +5727,10 @@
         <v>16</v>
       </c>
       <c r="B195" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C195" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D195" t="s">
         <v>18</v>
@@ -5742,7 +5742,7 @@
         <v>49.003774999999997</v>
       </c>
       <c r="H195" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
@@ -5750,10 +5750,10 @@
         <v>16</v>
       </c>
       <c r="B196" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C196" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D196" t="s">
         <v>18</v>
@@ -5765,7 +5765,7 @@
         <v>42.610874199999998</v>
       </c>
       <c r="H196" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
@@ -5773,10 +5773,10 @@
         <v>16</v>
       </c>
       <c r="B197" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C197" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D197" t="s">
         <v>18</v>
@@ -5788,7 +5788,7 @@
         <v>40.431049049999999</v>
       </c>
       <c r="H197" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
@@ -5796,10 +5796,10 @@
         <v>16</v>
       </c>
       <c r="B198" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C198" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D198" t="s">
         <v>18</v>
@@ -5811,7 +5811,7 @@
         <v>31.887499999999999</v>
       </c>
       <c r="H198" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
@@ -5819,10 +5819,10 @@
         <v>16</v>
       </c>
       <c r="B199" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C199" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D199" t="s">
         <v>18</v>
@@ -5834,7 +5834,7 @@
         <v>32.875</v>
       </c>
       <c r="H199" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
@@ -5842,10 +5842,10 @@
         <v>16</v>
       </c>
       <c r="B200" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C200" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D200" t="s">
         <v>18</v>
@@ -5857,7 +5857,7 @@
         <v>37.75</v>
       </c>
       <c r="H200" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
@@ -5865,10 +5865,10 @@
         <v>16</v>
       </c>
       <c r="B201" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C201" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D201" t="s">
         <v>18</v>
@@ -5882,10 +5882,10 @@
         <v>16</v>
       </c>
       <c r="B202" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C202" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D202" t="s">
         <v>18</v>
@@ -5899,10 +5899,10 @@
         <v>16</v>
       </c>
       <c r="B203" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C203" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D203" t="s">
         <v>18</v>
@@ -5916,10 +5916,10 @@
         <v>16</v>
       </c>
       <c r="B204" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C204" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D204" t="s">
         <v>18</v>
@@ -5933,10 +5933,10 @@
         <v>16</v>
       </c>
       <c r="B205" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C205" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D205" t="s">
         <v>18</v>
@@ -5950,10 +5950,10 @@
         <v>16</v>
       </c>
       <c r="B206" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C206" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D206" t="s">
         <v>18</v>
@@ -5967,10 +5967,10 @@
         <v>16</v>
       </c>
       <c r="B207" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C207" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D207" t="s">
         <v>18</v>
@@ -5982,10 +5982,10 @@
         <v>300</v>
       </c>
       <c r="H207" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I207" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
@@ -5993,10 +5993,10 @@
         <v>16</v>
       </c>
       <c r="B208" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C208" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D208" t="s">
         <v>18</v>
@@ -6010,10 +6010,10 @@
         <v>16</v>
       </c>
       <c r="B209" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C209" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D209" t="s">
         <v>18</v>
@@ -6027,10 +6027,10 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C210" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D210" t="s">
         <v>18</v>
@@ -6044,10 +6044,10 @@
         <v>16</v>
       </c>
       <c r="B211" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C211" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D211" t="s">
         <v>18</v>
@@ -6061,10 +6061,10 @@
         <v>16</v>
       </c>
       <c r="B212" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C212" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D212" t="s">
         <v>18</v>
@@ -6078,10 +6078,10 @@
         <v>16</v>
       </c>
       <c r="B213" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C213" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D213" t="s">
         <v>18</v>
@@ -6095,10 +6095,10 @@
         <v>16</v>
       </c>
       <c r="B214" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C214" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D214" t="s">
         <v>18</v>
@@ -6112,10 +6112,10 @@
         <v>16</v>
       </c>
       <c r="B215" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C215" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D215" t="s">
         <v>18</v>
@@ -6129,10 +6129,10 @@
         <v>16</v>
       </c>
       <c r="B216" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C216" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D216" t="s">
         <v>18</v>
@@ -6146,10 +6146,10 @@
         <v>16</v>
       </c>
       <c r="B217" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C217" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D217" t="s">
         <v>18</v>
@@ -6163,10 +6163,10 @@
         <v>16</v>
       </c>
       <c r="B218" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C218" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D218" t="s">
         <v>18</v>
@@ -6180,10 +6180,10 @@
         <v>16</v>
       </c>
       <c r="B219" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C219" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D219" t="s">
         <v>18</v>
@@ -6197,10 +6197,10 @@
         <v>16</v>
       </c>
       <c r="B220" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C220" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D220" t="s">
         <v>18</v>
@@ -6214,10 +6214,10 @@
         <v>16</v>
       </c>
       <c r="B221" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C221" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D221" t="s">
         <v>18</v>
@@ -6231,10 +6231,10 @@
         <v>16</v>
       </c>
       <c r="B222" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C222" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D222" t="s">
         <v>18</v>
@@ -6248,10 +6248,10 @@
         <v>16</v>
       </c>
       <c r="B223" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C223" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D223" t="s">
         <v>18</v>
@@ -6265,10 +6265,10 @@
         <v>16</v>
       </c>
       <c r="B224" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C224" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D224" t="s">
         <v>18</v>
@@ -6282,10 +6282,10 @@
         <v>16</v>
       </c>
       <c r="B225" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C225" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D225" t="s">
         <v>18</v>
@@ -6299,10 +6299,10 @@
         <v>16</v>
       </c>
       <c r="B226" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C226" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D226" t="s">
         <v>18</v>
@@ -6316,10 +6316,10 @@
         <v>16</v>
       </c>
       <c r="B227" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C227" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D227" t="s">
         <v>18</v>
@@ -6333,10 +6333,10 @@
         <v>16</v>
       </c>
       <c r="B228" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C228" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D228" t="s">
         <v>18</v>
@@ -6350,10 +6350,10 @@
         <v>16</v>
       </c>
       <c r="B229" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C229" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D229" t="s">
         <v>18</v>
@@ -6367,10 +6367,10 @@
         <v>16</v>
       </c>
       <c r="B230" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C230" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D230" t="s">
         <v>18</v>
@@ -6384,10 +6384,10 @@
         <v>16</v>
       </c>
       <c r="B231" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C231" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D231" t="s">
         <v>18</v>
@@ -6399,7 +6399,7 @@
         <v>1</v>
       </c>
       <c r="I231" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.2">
@@ -6407,10 +6407,10 @@
         <v>16</v>
       </c>
       <c r="B232" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C232" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D232" t="s">
         <v>18</v>
@@ -6422,7 +6422,7 @@
         <v>1</v>
       </c>
       <c r="I232" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.2">
@@ -6430,10 +6430,10 @@
         <v>16</v>
       </c>
       <c r="B233" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C233" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D233" t="s">
         <v>18</v>
@@ -6445,7 +6445,7 @@
         <v>1</v>
       </c>
       <c r="I233" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.2">
@@ -6453,10 +6453,10 @@
         <v>16</v>
       </c>
       <c r="B234" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C234" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D234" t="s">
         <v>18</v>
@@ -6468,7 +6468,7 @@
         <v>1</v>
       </c>
       <c r="I234" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.2">
@@ -6476,10 +6476,10 @@
         <v>16</v>
       </c>
       <c r="B235" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C235" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D235" t="s">
         <v>18</v>
@@ -6491,7 +6491,7 @@
         <v>1</v>
       </c>
       <c r="I235" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.2">
@@ -6499,10 +6499,10 @@
         <v>16</v>
       </c>
       <c r="B236" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C236" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D236" t="s">
         <v>18</v>
@@ -6514,7 +6514,7 @@
         <v>1</v>
       </c>
       <c r="I236" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.2">
@@ -6522,10 +6522,10 @@
         <v>16</v>
       </c>
       <c r="B237" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C237" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D237" t="s">
         <v>18</v>
@@ -6537,7 +6537,7 @@
         <v>1</v>
       </c>
       <c r="I237" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.2">
@@ -6545,10 +6545,10 @@
         <v>16</v>
       </c>
       <c r="B238" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C238" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D238" t="s">
         <v>18</v>
@@ -6560,7 +6560,7 @@
         <v>1</v>
       </c>
       <c r="I238" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.2">
@@ -6568,10 +6568,10 @@
         <v>16</v>
       </c>
       <c r="B239" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C239" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D239" t="s">
         <v>18</v>
@@ -6583,7 +6583,7 @@
         <v>1</v>
       </c>
       <c r="I239" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.2">
@@ -6591,10 +6591,10 @@
         <v>16</v>
       </c>
       <c r="B240" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C240" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D240" t="s">
         <v>18</v>
@@ -6606,7 +6606,7 @@
         <v>1</v>
       </c>
       <c r="I240" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
@@ -6614,10 +6614,10 @@
         <v>16</v>
       </c>
       <c r="B241" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C241" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D241" t="s">
         <v>18</v>
@@ -6629,7 +6629,7 @@
         <v>1</v>
       </c>
       <c r="I241" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
@@ -6637,10 +6637,10 @@
         <v>16</v>
       </c>
       <c r="B242" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C242" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D242" t="s">
         <v>18</v>
@@ -6652,7 +6652,7 @@
         <v>1</v>
       </c>
       <c r="I242" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
@@ -6660,10 +6660,10 @@
         <v>16</v>
       </c>
       <c r="B243" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C243" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D243" t="s">
         <v>18</v>
@@ -6675,7 +6675,7 @@
         <v>1</v>
       </c>
       <c r="I243" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
@@ -6683,10 +6683,10 @@
         <v>16</v>
       </c>
       <c r="B244" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C244" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D244" t="s">
         <v>18</v>
@@ -6698,7 +6698,7 @@
         <v>1</v>
       </c>
       <c r="I244" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.2">
@@ -6706,10 +6706,10 @@
         <v>16</v>
       </c>
       <c r="B245" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C245" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D245" t="s">
         <v>18</v>
@@ -6721,7 +6721,7 @@
         <v>1</v>
       </c>
       <c r="I245" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.2">
@@ -6729,10 +6729,10 @@
         <v>16</v>
       </c>
       <c r="B246" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C246" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D246" t="s">
         <v>18</v>
@@ -6744,7 +6744,7 @@
         <v>1</v>
       </c>
       <c r="I246" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.2">
@@ -6752,10 +6752,10 @@
         <v>16</v>
       </c>
       <c r="B247" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C247" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D247" t="s">
         <v>18</v>
@@ -6767,7 +6767,7 @@
         <v>1</v>
       </c>
       <c r="I247" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.2">
@@ -6775,10 +6775,10 @@
         <v>16</v>
       </c>
       <c r="B248" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C248" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D248" t="s">
         <v>18</v>
@@ -6790,7 +6790,7 @@
         <v>1</v>
       </c>
       <c r="I248" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.2">
@@ -6798,10 +6798,10 @@
         <v>16</v>
       </c>
       <c r="B249" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C249" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D249" t="s">
         <v>18</v>
@@ -6813,7 +6813,7 @@
         <v>1</v>
       </c>
       <c r="I249" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
@@ -6821,10 +6821,10 @@
         <v>16</v>
       </c>
       <c r="B250" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C250" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D250" t="s">
         <v>18</v>
@@ -6836,7 +6836,7 @@
         <v>1</v>
       </c>
       <c r="I250" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.2">
@@ -6844,10 +6844,10 @@
         <v>16</v>
       </c>
       <c r="B251" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C251" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D251" t="s">
         <v>18</v>
@@ -6859,7 +6859,7 @@
         <v>1</v>
       </c>
       <c r="I251" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.2">
@@ -6867,10 +6867,10 @@
         <v>16</v>
       </c>
       <c r="B252" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C252" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D252" t="s">
         <v>18</v>
@@ -6882,7 +6882,7 @@
         <v>1</v>
       </c>
       <c r="I252" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.2">
@@ -6890,10 +6890,10 @@
         <v>16</v>
       </c>
       <c r="B253" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C253" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D253" t="s">
         <v>18</v>
@@ -6905,7 +6905,7 @@
         <v>1</v>
       </c>
       <c r="I253" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
@@ -6913,10 +6913,10 @@
         <v>16</v>
       </c>
       <c r="B254" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C254" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D254" t="s">
         <v>18</v>
@@ -6928,7 +6928,7 @@
         <v>1</v>
       </c>
       <c r="I254" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.2">
@@ -6936,10 +6936,10 @@
         <v>16</v>
       </c>
       <c r="B255" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C255" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D255" t="s">
         <v>18</v>
@@ -6951,7 +6951,7 @@
         <v>1</v>
       </c>
       <c r="I255" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.2">
@@ -6959,10 +6959,10 @@
         <v>16</v>
       </c>
       <c r="B256" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C256" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D256" t="s">
         <v>18</v>
@@ -6974,7 +6974,7 @@
         <v>1</v>
       </c>
       <c r="I256" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
@@ -6982,10 +6982,10 @@
         <v>16</v>
       </c>
       <c r="B257" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C257" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D257" t="s">
         <v>18</v>
@@ -6997,7 +6997,7 @@
         <v>1</v>
       </c>
       <c r="I257" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
@@ -7005,10 +7005,10 @@
         <v>16</v>
       </c>
       <c r="B258" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C258" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D258" t="s">
         <v>18</v>
@@ -7020,7 +7020,7 @@
         <v>1</v>
       </c>
       <c r="I258" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
@@ -7028,10 +7028,10 @@
         <v>16</v>
       </c>
       <c r="B259" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C259" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D259" t="s">
         <v>18</v>
@@ -7043,7 +7043,7 @@
         <v>1</v>
       </c>
       <c r="I259" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.2">
@@ -7051,10 +7051,10 @@
         <v>16</v>
       </c>
       <c r="B260" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C260" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D260" t="s">
         <v>18</v>
@@ -7066,7 +7066,7 @@
         <v>1</v>
       </c>
       <c r="I260" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
@@ -7074,10 +7074,10 @@
         <v>16</v>
       </c>
       <c r="B261" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C261" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D261" t="s">
         <v>18</v>
@@ -7089,7 +7089,7 @@
         <v>0</v>
       </c>
       <c r="I261" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.2">
@@ -7097,10 +7097,10 @@
         <v>16</v>
       </c>
       <c r="B262" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C262" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D262" t="s">
         <v>18</v>
@@ -7112,7 +7112,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
@@ -7120,10 +7120,10 @@
         <v>16</v>
       </c>
       <c r="B263" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C263" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D263" t="s">
         <v>18</v>
@@ -7135,7 +7135,7 @@
         <v>0</v>
       </c>
       <c r="I263" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.2">
@@ -7143,10 +7143,10 @@
         <v>16</v>
       </c>
       <c r="B264" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C264" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D264" t="s">
         <v>18</v>
@@ -7158,7 +7158,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.2">
@@ -7166,10 +7166,10 @@
         <v>16</v>
       </c>
       <c r="B265" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C265" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D265" t="s">
         <v>18</v>
@@ -7181,7 +7181,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.2">
@@ -7189,10 +7189,10 @@
         <v>16</v>
       </c>
       <c r="B266" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C266" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D266" t="s">
         <v>18</v>
@@ -7204,7 +7204,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.2">
@@ -7212,10 +7212,10 @@
         <v>16</v>
       </c>
       <c r="B267" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C267" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D267" t="s">
         <v>18</v>
@@ -7227,7 +7227,7 @@
         <v>0</v>
       </c>
       <c r="I267" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.2">
@@ -7235,10 +7235,10 @@
         <v>16</v>
       </c>
       <c r="B268" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C268" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D268" t="s">
         <v>18</v>
@@ -7250,7 +7250,7 @@
         <v>0</v>
       </c>
       <c r="I268" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
@@ -7258,10 +7258,10 @@
         <v>16</v>
       </c>
       <c r="B269" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C269" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D269" t="s">
         <v>18</v>
@@ -7273,7 +7273,7 @@
         <v>0</v>
       </c>
       <c r="I269" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.2">
@@ -7281,10 +7281,10 @@
         <v>16</v>
       </c>
       <c r="B270" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C270" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D270" t="s">
         <v>18</v>
@@ -7296,7 +7296,7 @@
         <v>0</v>
       </c>
       <c r="I270" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.2">
@@ -7304,10 +7304,10 @@
         <v>16</v>
       </c>
       <c r="B271" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C271" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D271" t="s">
         <v>18</v>
@@ -7319,7 +7319,7 @@
         <v>0</v>
       </c>
       <c r="I271" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
@@ -7327,10 +7327,10 @@
         <v>16</v>
       </c>
       <c r="B272" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C272" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D272" t="s">
         <v>18</v>
@@ -7342,7 +7342,7 @@
         <v>0</v>
       </c>
       <c r="I272" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.2">
@@ -7350,10 +7350,10 @@
         <v>16</v>
       </c>
       <c r="B273" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C273" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D273" t="s">
         <v>18</v>
@@ -7365,7 +7365,7 @@
         <v>0</v>
       </c>
       <c r="I273" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.2">
@@ -7373,10 +7373,10 @@
         <v>16</v>
       </c>
       <c r="B274" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C274" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D274" t="s">
         <v>18</v>
@@ -7388,7 +7388,7 @@
         <v>0</v>
       </c>
       <c r="I274" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.2">
@@ -7396,10 +7396,10 @@
         <v>16</v>
       </c>
       <c r="B275" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C275" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D275" t="s">
         <v>18</v>
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="I275" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.2">
@@ -7419,10 +7419,10 @@
         <v>16</v>
       </c>
       <c r="B276" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C276" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D276" t="s">
         <v>18</v>
@@ -7434,7 +7434,7 @@
         <v>0</v>
       </c>
       <c r="I276" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
@@ -7442,10 +7442,10 @@
         <v>16</v>
       </c>
       <c r="B277" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C277" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D277" t="s">
         <v>18</v>
@@ -7457,7 +7457,7 @@
         <v>0</v>
       </c>
       <c r="I277" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.2">
@@ -7465,10 +7465,10 @@
         <v>16</v>
       </c>
       <c r="B278" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C278" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D278" t="s">
         <v>18</v>
@@ -7480,7 +7480,7 @@
         <v>0</v>
       </c>
       <c r="I278" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
@@ -7488,10 +7488,10 @@
         <v>16</v>
       </c>
       <c r="B279" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C279" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D279" t="s">
         <v>18</v>
@@ -7503,7 +7503,7 @@
         <v>0</v>
       </c>
       <c r="I279" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.2">
@@ -7511,10 +7511,10 @@
         <v>16</v>
       </c>
       <c r="B280" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C280" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D280" t="s">
         <v>18</v>
@@ -7526,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.2">
@@ -7534,10 +7534,10 @@
         <v>16</v>
       </c>
       <c r="B281" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C281" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D281" t="s">
         <v>18</v>
@@ -7549,7 +7549,7 @@
         <v>0</v>
       </c>
       <c r="I281" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.2">
@@ -7557,10 +7557,10 @@
         <v>16</v>
       </c>
       <c r="B282" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C282" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D282" t="s">
         <v>18</v>
@@ -7572,7 +7572,7 @@
         <v>0</v>
       </c>
       <c r="I282" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.2">
@@ -7580,10 +7580,10 @@
         <v>16</v>
       </c>
       <c r="B283" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C283" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D283" t="s">
         <v>18</v>
@@ -7595,7 +7595,7 @@
         <v>0</v>
       </c>
       <c r="I283" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.2">
@@ -7603,10 +7603,10 @@
         <v>16</v>
       </c>
       <c r="B284" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C284" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D284" t="s">
         <v>18</v>
@@ -7618,7 +7618,7 @@
         <v>0</v>
       </c>
       <c r="I284" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.2">
@@ -7626,10 +7626,10 @@
         <v>16</v>
       </c>
       <c r="B285" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C285" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D285" t="s">
         <v>18</v>
@@ -7641,7 +7641,7 @@
         <v>0</v>
       </c>
       <c r="I285" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.2">
@@ -7649,10 +7649,10 @@
         <v>16</v>
       </c>
       <c r="B286" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C286" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D286" t="s">
         <v>18</v>
@@ -7664,7 +7664,7 @@
         <v>0</v>
       </c>
       <c r="I286" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.2">
@@ -7672,10 +7672,10 @@
         <v>16</v>
       </c>
       <c r="B287" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C287" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D287" t="s">
         <v>18</v>
@@ -7687,7 +7687,7 @@
         <v>0</v>
       </c>
       <c r="I287" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.2">
@@ -7695,10 +7695,10 @@
         <v>16</v>
       </c>
       <c r="B288" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C288" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D288" t="s">
         <v>18</v>
@@ -7710,7 +7710,7 @@
         <v>0</v>
       </c>
       <c r="I288" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.2">
@@ -7718,10 +7718,10 @@
         <v>16</v>
       </c>
       <c r="B289" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C289" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D289" t="s">
         <v>18</v>
@@ -7733,7 +7733,7 @@
         <v>0</v>
       </c>
       <c r="I289" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.2">
@@ -7741,10 +7741,10 @@
         <v>16</v>
       </c>
       <c r="B290" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C290" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D290" t="s">
         <v>18</v>
@@ -7756,7 +7756,7 @@
         <v>0</v>
       </c>
       <c r="I290" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.2">
@@ -7764,10 +7764,10 @@
         <v>16</v>
       </c>
       <c r="B291" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C291" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D291" t="s">
         <v>18</v>
@@ -7779,10 +7779,10 @@
         <v>37.450000000000003</v>
       </c>
       <c r="H291" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L291" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.2">
@@ -7790,10 +7790,10 @@
         <v>16</v>
       </c>
       <c r="B292" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C292" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D292" t="s">
         <v>18</v>
@@ -7805,10 +7805,10 @@
         <v>37.450000000000003</v>
       </c>
       <c r="H292" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L292" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.2">
@@ -7816,10 +7816,10 @@
         <v>16</v>
       </c>
       <c r="B293" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C293" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D293" t="s">
         <v>18</v>
@@ -7831,10 +7831,10 @@
         <v>38.85</v>
       </c>
       <c r="H293" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L293" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.2">
@@ -7842,10 +7842,10 @@
         <v>16</v>
       </c>
       <c r="B294" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C294" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D294" t="s">
         <v>18</v>
@@ -7857,10 +7857,10 @@
         <v>37.950000000000003</v>
       </c>
       <c r="H294" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L294" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.2">
@@ -7868,10 +7868,10 @@
         <v>16</v>
       </c>
       <c r="B295" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C295" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D295" t="s">
         <v>18</v>
@@ -7883,10 +7883,10 @@
         <v>37.4</v>
       </c>
       <c r="H295" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L295" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.2">
@@ -7894,10 +7894,10 @@
         <v>16</v>
       </c>
       <c r="B296" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C296" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D296" t="s">
         <v>18</v>
@@ -7909,10 +7909,10 @@
         <v>36.049999999999997</v>
       </c>
       <c r="H296" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L296" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.2">
@@ -7920,10 +7920,10 @@
         <v>16</v>
       </c>
       <c r="B297" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C297" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D297" t="s">
         <v>18</v>
@@ -7935,10 +7935,10 @@
         <v>34.450000000000003</v>
       </c>
       <c r="H297" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L297" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.2">
@@ -7946,10 +7946,10 @@
         <v>16</v>
       </c>
       <c r="B298" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C298" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D298" t="s">
         <v>18</v>
@@ -7961,10 +7961,10 @@
         <v>33.950000000000003</v>
       </c>
       <c r="H298" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L298" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.2">
@@ -7972,10 +7972,10 @@
         <v>16</v>
       </c>
       <c r="B299" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C299" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D299" t="s">
         <v>18</v>
@@ -7987,10 +7987,10 @@
         <v>33.15</v>
       </c>
       <c r="H299" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L299" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.2">
@@ -7998,10 +7998,10 @@
         <v>16</v>
       </c>
       <c r="B300" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C300" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D300" t="s">
         <v>18</v>
@@ -8013,10 +8013,10 @@
         <v>31.8</v>
       </c>
       <c r="H300" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L300" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.2">
@@ -8024,10 +8024,10 @@
         <v>16</v>
       </c>
       <c r="B301" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C301" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D301" t="s">
         <v>18</v>
@@ -8039,10 +8039,10 @@
         <v>31.25</v>
       </c>
       <c r="H301" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L301" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.2">
@@ -8050,10 +8050,10 @@
         <v>16</v>
       </c>
       <c r="B302" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C302" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D302" t="s">
         <v>18</v>
@@ -8065,10 +8065,10 @@
         <v>32.200000000000003</v>
       </c>
       <c r="H302" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L302" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.2">
@@ -8076,10 +8076,10 @@
         <v>16</v>
       </c>
       <c r="B303" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C303" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D303" t="s">
         <v>18</v>
@@ -8091,10 +8091,10 @@
         <v>31</v>
       </c>
       <c r="H303" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L303" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.2">
@@ -8102,10 +8102,10 @@
         <v>16</v>
       </c>
       <c r="B304" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C304" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D304" t="s">
         <v>18</v>
@@ -8117,16 +8117,16 @@
         <v>32.4</v>
       </c>
       <c r="H304" t="s">
+        <v>157</v>
+      </c>
+      <c r="J304" t="s">
+        <v>158</v>
+      </c>
+      <c r="K304" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="J304" t="s">
+      <c r="L304" t="s">
         <v>160</v>
-      </c>
-      <c r="K304" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="L304" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.2">
@@ -8134,10 +8134,10 @@
         <v>16</v>
       </c>
       <c r="B305" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C305" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D305" t="s">
         <v>18</v>
@@ -8149,16 +8149,16 @@
         <v>31.7</v>
       </c>
       <c r="H305" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J305" t="s">
+        <v>158</v>
+      </c>
+      <c r="K305" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L305" t="s">
         <v>160</v>
-      </c>
-      <c r="K305" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="L305" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.2">
@@ -8166,10 +8166,10 @@
         <v>16</v>
       </c>
       <c r="B306" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C306" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D306" t="s">
         <v>18</v>
@@ -8181,16 +8181,16 @@
         <v>34.1</v>
       </c>
       <c r="H306" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J306" t="s">
+        <v>158</v>
+      </c>
+      <c r="K306" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L306" t="s">
         <v>160</v>
-      </c>
-      <c r="K306" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="L306" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.2">
@@ -8198,10 +8198,10 @@
         <v>16</v>
       </c>
       <c r="B307" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C307" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D307" t="s">
         <v>18</v>
@@ -8213,16 +8213,16 @@
         <v>38.299999999999997</v>
       </c>
       <c r="H307" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J307" t="s">
+        <v>158</v>
+      </c>
+      <c r="K307" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L307" t="s">
         <v>160</v>
-      </c>
-      <c r="K307" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="L307" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.2">
@@ -8230,10 +8230,10 @@
         <v>16</v>
       </c>
       <c r="B308" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C308" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D308" t="s">
         <v>18</v>
@@ -8245,16 +8245,16 @@
         <v>41.85</v>
       </c>
       <c r="H308" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J308" t="s">
+        <v>158</v>
+      </c>
+      <c r="K308" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L308" t="s">
         <v>160</v>
-      </c>
-      <c r="K308" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="L308" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.2">
@@ -8262,10 +8262,10 @@
         <v>16</v>
       </c>
       <c r="B309" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C309" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D309" t="s">
         <v>18</v>
@@ -8277,16 +8277,16 @@
         <v>37.1</v>
       </c>
       <c r="H309" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J309" t="s">
+        <v>158</v>
+      </c>
+      <c r="K309" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L309" t="s">
         <v>160</v>
-      </c>
-      <c r="K309" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="L309" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.2">
@@ -8294,10 +8294,10 @@
         <v>16</v>
       </c>
       <c r="B310" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C310" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D310" t="s">
         <v>18</v>
@@ -8309,16 +8309,16 @@
         <v>39.549999999999997</v>
       </c>
       <c r="H310" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J310" t="s">
+        <v>158</v>
+      </c>
+      <c r="K310" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L310" t="s">
         <v>160</v>
-      </c>
-      <c r="K310" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="L310" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.2">
@@ -8326,10 +8326,10 @@
         <v>16</v>
       </c>
       <c r="B311" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C311" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D311" t="s">
         <v>18</v>
@@ -8341,16 +8341,16 @@
         <v>38.5</v>
       </c>
       <c r="H311" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J311" t="s">
+        <v>158</v>
+      </c>
+      <c r="K311" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L311" t="s">
         <v>160</v>
-      </c>
-      <c r="K311" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="L311" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.2">
@@ -8358,10 +8358,10 @@
         <v>16</v>
       </c>
       <c r="B312" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C312" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D312" t="s">
         <v>18</v>
@@ -8373,16 +8373,16 @@
         <v>40.549999999999997</v>
       </c>
       <c r="H312" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J312" t="s">
+        <v>158</v>
+      </c>
+      <c r="K312" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L312" t="s">
         <v>160</v>
-      </c>
-      <c r="K312" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="L312" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.2">
@@ -8390,10 +8390,10 @@
         <v>16</v>
       </c>
       <c r="B313" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C313" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D313" t="s">
         <v>18</v>
@@ -8405,16 +8405,16 @@
         <v>42.3</v>
       </c>
       <c r="H313" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J313" t="s">
+        <v>158</v>
+      </c>
+      <c r="K313" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L313" t="s">
         <v>160</v>
-      </c>
-      <c r="K313" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="L313" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.2">
@@ -8422,10 +8422,10 @@
         <v>16</v>
       </c>
       <c r="B314" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C314" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D314" t="s">
         <v>18</v>
@@ -8437,16 +8437,16 @@
         <v>40.65</v>
       </c>
       <c r="H314" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J314" t="s">
+        <v>158</v>
+      </c>
+      <c r="K314" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L314" t="s">
         <v>160</v>
-      </c>
-      <c r="K314" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="L314" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.2">
@@ -8454,10 +8454,10 @@
         <v>16</v>
       </c>
       <c r="B315" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C315" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D315" t="s">
         <v>18</v>
@@ -8469,16 +8469,16 @@
         <v>38.6</v>
       </c>
       <c r="H315" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J315" t="s">
+        <v>158</v>
+      </c>
+      <c r="K315" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L315" t="s">
         <v>160</v>
-      </c>
-      <c r="K315" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="L315" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.2">
@@ -8486,10 +8486,10 @@
         <v>16</v>
       </c>
       <c r="B316" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C316" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D316" t="s">
         <v>18</v>
@@ -8501,16 +8501,16 @@
         <v>36.9</v>
       </c>
       <c r="H316" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J316" t="s">
+        <v>158</v>
+      </c>
+      <c r="K316" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L316" t="s">
         <v>160</v>
-      </c>
-      <c r="K316" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="L316" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.2">
@@ -8518,10 +8518,10 @@
         <v>16</v>
       </c>
       <c r="B317" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C317" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D317" t="s">
         <v>18</v>
@@ -8533,16 +8533,16 @@
         <v>34.5</v>
       </c>
       <c r="H317" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J317" t="s">
+        <v>158</v>
+      </c>
+      <c r="K317" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L317" t="s">
         <v>160</v>
-      </c>
-      <c r="K317" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="L317" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.2">
@@ -8550,10 +8550,10 @@
         <v>16</v>
       </c>
       <c r="B318" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C318" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D318" t="s">
         <v>18</v>
@@ -8565,16 +8565,16 @@
         <v>33.1</v>
       </c>
       <c r="H318" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J318" t="s">
+        <v>158</v>
+      </c>
+      <c r="K318" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L318" t="s">
         <v>160</v>
-      </c>
-      <c r="K318" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="L318" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.2">
@@ -8582,10 +8582,10 @@
         <v>16</v>
       </c>
       <c r="B319" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C319" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D319" t="s">
         <v>18</v>
@@ -8597,16 +8597,16 @@
         <v>33.65</v>
       </c>
       <c r="H319" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J319" t="s">
+        <v>158</v>
+      </c>
+      <c r="K319" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L319" t="s">
         <v>160</v>
-      </c>
-      <c r="K319" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="L319" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.2">
@@ -8614,10 +8614,10 @@
         <v>16</v>
       </c>
       <c r="B320" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C320" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D320" t="s">
         <v>18</v>
@@ -8629,16 +8629,16 @@
         <v>37.299999999999997</v>
       </c>
       <c r="H320" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J320" t="s">
+        <v>158</v>
+      </c>
+      <c r="K320" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L320" t="s">
         <v>160</v>
-      </c>
-      <c r="K320" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="L320" t="s">
-        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/data/zenodo_ivan/trade/CHE_trd_elecsupply.xlsx
+++ b/data/zenodo_ivan/trade/CHE_trd_elecsupply.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/trade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC3D9A5-BA12-6349-94B4-CF9B2BEF8323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25506E3D-C10F-B948-918F-E627274B6F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="-4880" windowWidth="21600" windowHeight="37900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$519</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$520</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="183">
   <si>
     <t>Name:</t>
   </si>
@@ -576,6 +576,12 @@
   </si>
   <si>
     <t>enable_max_export_share</t>
+  </si>
+  <si>
+    <t>capacity_to_activity</t>
+  </si>
+  <si>
+    <t>GW/TWh</t>
   </si>
 </sst>
 </file>
@@ -997,11 +1003,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L320"/>
+  <dimension ref="A1:L321"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1196,23 +1202,17 @@
       <c r="B12" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>27</v>
+      <c r="C12" t="s">
+        <v>181</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="G12">
-        <v>257.61448541000004</v>
+        <v>1E-3</v>
       </c>
       <c r="H12" t="s">
-        <v>116</v>
-      </c>
-      <c r="J12" t="s">
-        <v>117</v>
-      </c>
-      <c r="L12" t="s">
-        <v>118</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1223,19 +1223,22 @@
         <v>43</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>175</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>178</v>
-      </c>
-      <c r="F13" t="s">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>257.61448541000004</v>
+      </c>
+      <c r="H13" t="s">
+        <v>116</v>
       </c>
       <c r="J13" t="s">
-        <v>112</v>
+        <v>117</v>
+      </c>
+      <c r="L13" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1246,16 +1249,19 @@
         <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>178</v>
+      </c>
+      <c r="F14" t="s">
+        <v>177</v>
       </c>
       <c r="G14">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I14" t="s">
-        <v>119</v>
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1266,16 +1272,13 @@
         <v>43</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
       </c>
       <c r="G15">
-        <v>30</v>
-      </c>
-      <c r="H15" t="s">
-        <v>120</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I15" t="s">
         <v>119</v>
@@ -1289,11 +1292,20 @@
         <v>43</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
+      <c r="G16">
+        <v>30</v>
+      </c>
+      <c r="H16" t="s">
+        <v>120</v>
+      </c>
+      <c r="I16" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -1303,23 +1315,11 @@
         <v>43</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
-      <c r="G17">
-        <v>8</v>
-      </c>
-      <c r="H17" t="s">
-        <v>114</v>
-      </c>
-      <c r="J17" t="s">
-        <v>112</v>
-      </c>
-      <c r="L17" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -1329,19 +1329,22 @@
         <v>43</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
       </c>
       <c r="G18">
-        <v>0.4</v>
+        <v>8</v>
+      </c>
+      <c r="H18" t="s">
+        <v>114</v>
       </c>
       <c r="J18" t="s">
         <v>112</v>
       </c>
       <c r="L18" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1352,7 +1355,7 @@
         <v>43</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1375,20 +1378,20 @@
         <v>43</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>176</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>178</v>
-      </c>
-      <c r="F20" t="s">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="J20" t="s">
         <v>112</v>
       </c>
+      <c r="L20" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -1397,20 +1400,17 @@
       <c r="B21" t="s">
         <v>43</v>
       </c>
-      <c r="C21" t="s">
-        <v>33</v>
+      <c r="C21" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21">
-        <v>1990</v>
+        <v>178</v>
+      </c>
+      <c r="F21" t="s">
+        <v>177</v>
       </c>
       <c r="G21">
-        <v>6540</v>
-      </c>
-      <c r="H21" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
         <v>112</v>
@@ -1430,7 +1430,16 @@
         <v>18</v>
       </c>
       <c r="E22">
-        <v>1991</v>
+        <v>1990</v>
+      </c>
+      <c r="G22">
+        <v>6540</v>
+      </c>
+      <c r="H22" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -1447,7 +1456,7 @@
         <v>18</v>
       </c>
       <c r="E23">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -1464,7 +1473,7 @@
         <v>18</v>
       </c>
       <c r="E24">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -1481,7 +1490,7 @@
         <v>18</v>
       </c>
       <c r="E25">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -1498,7 +1507,7 @@
         <v>18</v>
       </c>
       <c r="E26">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -1515,7 +1524,7 @@
         <v>18</v>
       </c>
       <c r="E27">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -1532,7 +1541,7 @@
         <v>18</v>
       </c>
       <c r="E28">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -1549,7 +1558,7 @@
         <v>18</v>
       </c>
       <c r="E29">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -1566,7 +1575,7 @@
         <v>18</v>
       </c>
       <c r="E30">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -1583,7 +1592,7 @@
         <v>18</v>
       </c>
       <c r="E31">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -1600,7 +1609,7 @@
         <v>18</v>
       </c>
       <c r="E32">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -1617,7 +1626,7 @@
         <v>18</v>
       </c>
       <c r="E33">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -1634,7 +1643,7 @@
         <v>18</v>
       </c>
       <c r="E34">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -1651,7 +1660,7 @@
         <v>18</v>
       </c>
       <c r="E35">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -1668,7 +1677,7 @@
         <v>18</v>
       </c>
       <c r="E36">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -1685,7 +1694,7 @@
         <v>18</v>
       </c>
       <c r="E37">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -1702,7 +1711,7 @@
         <v>18</v>
       </c>
       <c r="E38">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -1719,7 +1728,7 @@
         <v>18</v>
       </c>
       <c r="E39">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -1736,22 +1745,7 @@
         <v>18</v>
       </c>
       <c r="E40">
-        <v>2009</v>
-      </c>
-      <c r="G40">
-        <v>6894</v>
-      </c>
-      <c r="H40" t="s">
-        <v>45</v>
-      </c>
-      <c r="J40" t="s">
-        <v>46</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L40" t="s">
-        <v>48</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -1768,10 +1762,10 @@
         <v>18</v>
       </c>
       <c r="E41">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G41">
-        <v>6971</v>
+        <v>6894</v>
       </c>
       <c r="H41" t="s">
         <v>45</v>
@@ -1800,10 +1794,10 @@
         <v>18</v>
       </c>
       <c r="E42">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G42">
-        <v>6977</v>
+        <v>6971</v>
       </c>
       <c r="H42" t="s">
         <v>45</v>
@@ -1832,7 +1826,13 @@
         <v>18</v>
       </c>
       <c r="E43">
-        <v>2012</v>
+        <v>2011</v>
+      </c>
+      <c r="G43">
+        <v>6977</v>
+      </c>
+      <c r="H43" t="s">
+        <v>45</v>
       </c>
       <c r="J43" t="s">
         <v>46</v>
@@ -1858,7 +1858,16 @@
         <v>18</v>
       </c>
       <c r="E44">
-        <v>2013</v>
+        <v>2012</v>
+      </c>
+      <c r="J44" t="s">
+        <v>46</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L44" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -1875,7 +1884,7 @@
         <v>18</v>
       </c>
       <c r="E45">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -1892,22 +1901,7 @@
         <v>18</v>
       </c>
       <c r="E46">
-        <v>2015</v>
-      </c>
-      <c r="G46">
-        <v>7233</v>
-      </c>
-      <c r="H46" t="s">
-        <v>45</v>
-      </c>
-      <c r="J46" t="s">
-        <v>46</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L46" t="s">
-        <v>48</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -1924,7 +1918,22 @@
         <v>18</v>
       </c>
       <c r="E47">
-        <v>2016</v>
+        <v>2015</v>
+      </c>
+      <c r="G47">
+        <v>7233</v>
+      </c>
+      <c r="H47" t="s">
+        <v>45</v>
+      </c>
+      <c r="J47" t="s">
+        <v>46</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L47" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -1941,7 +1950,7 @@
         <v>18</v>
       </c>
       <c r="E48">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -1958,7 +1967,7 @@
         <v>18</v>
       </c>
       <c r="E49">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -1975,22 +1984,7 @@
         <v>18</v>
       </c>
       <c r="E50">
-        <v>2019</v>
-      </c>
-      <c r="G50">
-        <v>8446</v>
-      </c>
-      <c r="H50" t="s">
-        <v>45</v>
-      </c>
-      <c r="J50" t="s">
-        <v>46</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L50" t="s">
-        <v>48</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -2001,28 +1995,28 @@
         <v>43</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D51" t="s">
         <v>18</v>
       </c>
       <c r="E51">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G51">
-        <v>89670</v>
+        <v>8446</v>
       </c>
       <c r="H51" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J51" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L51" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -2039,16 +2033,16 @@
         <v>18</v>
       </c>
       <c r="E52">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G52">
-        <v>96480</v>
+        <v>89670</v>
       </c>
       <c r="H52" t="s">
         <v>49</v>
       </c>
       <c r="J52" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>50</v>
@@ -2071,16 +2065,16 @@
         <v>18</v>
       </c>
       <c r="E53">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G53">
-        <v>93770</v>
+        <v>96480</v>
       </c>
       <c r="H53" t="s">
         <v>49</v>
       </c>
       <c r="J53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>50</v>
@@ -2103,16 +2097,16 @@
         <v>18</v>
       </c>
       <c r="E54">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G54">
-        <v>111790</v>
+        <v>93770</v>
       </c>
       <c r="H54" t="s">
         <v>49</v>
       </c>
       <c r="J54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>50</v>
@@ -2135,16 +2129,16 @@
         <v>18</v>
       </c>
       <c r="E55">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G55">
-        <v>124440</v>
+        <v>111790</v>
       </c>
       <c r="H55" t="s">
         <v>49</v>
       </c>
       <c r="J55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>50</v>
@@ -2167,16 +2161,16 @@
         <v>18</v>
       </c>
       <c r="E56">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G56">
-        <v>130390</v>
+        <v>124440</v>
       </c>
       <c r="H56" t="s">
         <v>49</v>
       </c>
       <c r="J56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>50</v>
@@ -2199,16 +2193,16 @@
         <v>18</v>
       </c>
       <c r="E57">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G57">
-        <v>123950</v>
+        <v>130390</v>
       </c>
       <c r="H57" t="s">
         <v>49</v>
       </c>
       <c r="J57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>50</v>
@@ -2231,16 +2225,16 @@
         <v>18</v>
       </c>
       <c r="E58">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G58">
-        <v>134670</v>
+        <v>123950</v>
       </c>
       <c r="H58" t="s">
         <v>49</v>
       </c>
       <c r="J58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>50</v>
@@ -2263,16 +2257,16 @@
         <v>18</v>
       </c>
       <c r="E59">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G59">
-        <v>156140</v>
+        <v>134670</v>
       </c>
       <c r="H59" t="s">
         <v>49</v>
       </c>
       <c r="J59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>50</v>
@@ -2295,16 +2289,16 @@
         <v>18</v>
       </c>
       <c r="E60">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G60">
-        <v>170250</v>
+        <v>156140</v>
       </c>
       <c r="H60" t="s">
         <v>49</v>
       </c>
       <c r="J60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>50</v>
@@ -2327,16 +2321,16 @@
         <v>18</v>
       </c>
       <c r="E61">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G61">
-        <v>113040</v>
+        <v>170250</v>
       </c>
       <c r="H61" t="s">
         <v>49</v>
       </c>
       <c r="J61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>50</v>
@@ -2359,16 +2353,16 @@
         <v>18</v>
       </c>
       <c r="E62">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G62">
-        <v>124340</v>
+        <v>113040</v>
       </c>
       <c r="H62" t="s">
         <v>49</v>
       </c>
       <c r="J62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>50</v>
@@ -2391,16 +2385,16 @@
         <v>18</v>
       </c>
       <c r="E63">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G63">
-        <v>116310</v>
+        <v>124340</v>
       </c>
       <c r="H63" t="s">
         <v>49</v>
       </c>
       <c r="J63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>50</v>
@@ -2423,16 +2417,16 @@
         <v>18</v>
       </c>
       <c r="E64">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G64">
-        <v>119510</v>
+        <v>116310</v>
       </c>
       <c r="H64" t="s">
         <v>49</v>
       </c>
       <c r="J64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>50</v>
@@ -2455,16 +2449,16 @@
         <v>18</v>
       </c>
       <c r="E65">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G65">
-        <v>99930</v>
+        <v>119510</v>
       </c>
       <c r="H65" t="s">
         <v>49</v>
       </c>
       <c r="J65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>50</v>
@@ -2487,16 +2481,16 @@
         <v>18</v>
       </c>
       <c r="E66">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G66">
-        <v>115190</v>
+        <v>99930</v>
       </c>
       <c r="H66" t="s">
         <v>49</v>
       </c>
       <c r="J66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>50</v>
@@ -2519,16 +2513,16 @@
         <v>18</v>
       </c>
       <c r="E67">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G67">
-        <v>111960</v>
+        <v>115190</v>
       </c>
       <c r="H67" t="s">
         <v>49</v>
       </c>
       <c r="J67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>50</v>
@@ -2551,16 +2545,16 @@
         <v>18</v>
       </c>
       <c r="E68">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G68">
-        <v>132770</v>
+        <v>111960</v>
       </c>
       <c r="H68" t="s">
         <v>49</v>
       </c>
       <c r="J68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>50</v>
@@ -2583,16 +2577,16 @@
         <v>18</v>
       </c>
       <c r="E69">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G69">
-        <v>117850</v>
+        <v>132770</v>
       </c>
       <c r="H69" t="s">
         <v>49</v>
       </c>
       <c r="J69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>50</v>
@@ -2615,16 +2609,16 @@
         <v>18</v>
       </c>
       <c r="E70">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G70">
-        <v>120690</v>
+        <v>117850</v>
       </c>
       <c r="H70" t="s">
         <v>49</v>
       </c>
       <c r="J70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>50</v>
@@ -2647,16 +2641,16 @@
         <v>18</v>
       </c>
       <c r="E71">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G71">
-        <v>118370</v>
+        <v>120690</v>
       </c>
       <c r="H71" t="s">
         <v>49</v>
       </c>
       <c r="J71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K71" s="2" t="s">
         <v>50</v>
@@ -2679,16 +2673,16 @@
         <v>18</v>
       </c>
       <c r="E72">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G72">
-        <v>116050</v>
+        <v>118370</v>
       </c>
       <c r="H72" t="s">
         <v>49</v>
       </c>
       <c r="J72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K72" s="2" t="s">
         <v>50</v>
@@ -2711,16 +2705,16 @@
         <v>18</v>
       </c>
       <c r="E73">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G73">
-        <v>121500</v>
+        <v>116050</v>
       </c>
       <c r="H73" t="s">
         <v>49</v>
       </c>
       <c r="J73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>50</v>
@@ -2743,16 +2737,16 @@
         <v>18</v>
       </c>
       <c r="E74">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G74">
-        <v>116170</v>
+        <v>121500</v>
       </c>
       <c r="H74" t="s">
         <v>49</v>
       </c>
       <c r="J74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K74" s="2" t="s">
         <v>50</v>
@@ -2775,16 +2769,16 @@
         <v>18</v>
       </c>
       <c r="E75">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G75">
-        <v>122480</v>
+        <v>116170</v>
       </c>
       <c r="H75" t="s">
         <v>49</v>
       </c>
       <c r="J75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>50</v>
@@ -2807,16 +2801,16 @@
         <v>18</v>
       </c>
       <c r="E76">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G76">
-        <v>126240</v>
+        <v>122480</v>
       </c>
       <c r="H76" t="s">
         <v>49</v>
       </c>
       <c r="J76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>50</v>
@@ -2839,16 +2833,16 @@
         <v>18</v>
       </c>
       <c r="E77">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G77">
-        <v>108620</v>
+        <v>126240</v>
       </c>
       <c r="H77" t="s">
         <v>49</v>
       </c>
       <c r="J77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K77" s="2" t="s">
         <v>50</v>
@@ -2871,16 +2865,16 @@
         <v>18</v>
       </c>
       <c r="E78">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G78">
-        <v>111410</v>
+        <v>108620</v>
       </c>
       <c r="H78" t="s">
         <v>49</v>
       </c>
       <c r="J78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>50</v>
@@ -2903,16 +2897,16 @@
         <v>18</v>
       </c>
       <c r="E79">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G79">
-        <v>117390</v>
+        <v>111410</v>
       </c>
       <c r="H79" t="s">
         <v>49</v>
       </c>
       <c r="J79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>50</v>
@@ -2935,16 +2929,16 @@
         <v>18</v>
       </c>
       <c r="E80">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G80">
-        <v>128750</v>
+        <v>117390</v>
       </c>
       <c r="H80" t="s">
         <v>49</v>
       </c>
       <c r="J80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>50</v>
@@ -2961,28 +2955,28 @@
         <v>43</v>
       </c>
       <c r="C81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D81" t="s">
         <v>18</v>
       </c>
       <c r="E81">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G81">
-        <v>82080</v>
+        <v>128750</v>
       </c>
       <c r="H81" t="s">
         <v>49</v>
       </c>
       <c r="J81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K81" s="2" t="s">
         <v>50</v>
       </c>
       <c r="L81" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
@@ -2999,16 +2993,16 @@
         <v>18</v>
       </c>
       <c r="E82">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G82">
-        <v>86420</v>
+        <v>82080</v>
       </c>
       <c r="H82" t="s">
         <v>49</v>
       </c>
       <c r="J82" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>50</v>
@@ -3031,16 +3025,16 @@
         <v>18</v>
       </c>
       <c r="E83">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G83">
-        <v>78330</v>
+        <v>86420</v>
       </c>
       <c r="H83" t="s">
         <v>49</v>
       </c>
       <c r="J83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>50</v>
@@ -3063,16 +3057,16 @@
         <v>18</v>
       </c>
       <c r="E84">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G84">
-        <v>85870</v>
+        <v>78330</v>
       </c>
       <c r="H84" t="s">
         <v>49</v>
       </c>
       <c r="J84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K84" s="2" t="s">
         <v>50</v>
@@ -3095,16 +3089,16 @@
         <v>18</v>
       </c>
       <c r="E85">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G85">
-        <v>81800</v>
+        <v>85870</v>
       </c>
       <c r="H85" t="s">
         <v>49</v>
       </c>
       <c r="J85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K85" s="2" t="s">
         <v>50</v>
@@ -3127,16 +3121,16 @@
         <v>18</v>
       </c>
       <c r="E86">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G86">
-        <v>104210</v>
+        <v>81800</v>
       </c>
       <c r="H86" t="s">
         <v>49</v>
       </c>
       <c r="J86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K86" s="2" t="s">
         <v>50</v>
@@ -3159,16 +3153,16 @@
         <v>18</v>
       </c>
       <c r="E87">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G87">
-        <v>120550</v>
+        <v>104210</v>
       </c>
       <c r="H87" t="s">
         <v>49</v>
       </c>
       <c r="J87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K87" s="2" t="s">
         <v>50</v>
@@ -3191,16 +3185,16 @@
         <v>18</v>
       </c>
       <c r="E88">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G88">
-        <v>110360</v>
+        <v>120550</v>
       </c>
       <c r="H88" t="s">
         <v>49</v>
       </c>
       <c r="J88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K88" s="2" t="s">
         <v>50</v>
@@ -3223,16 +3217,16 @@
         <v>18</v>
       </c>
       <c r="E89">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G89">
-        <v>134710</v>
+        <v>110360</v>
       </c>
       <c r="H89" t="s">
         <v>49</v>
       </c>
       <c r="J89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K89" s="2" t="s">
         <v>50</v>
@@ -3255,16 +3249,16 @@
         <v>18</v>
       </c>
       <c r="E90">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G90">
-        <v>133430</v>
+        <v>134710</v>
       </c>
       <c r="H90" t="s">
         <v>49</v>
       </c>
       <c r="J90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K90" s="2" t="s">
         <v>50</v>
@@ -3287,16 +3281,16 @@
         <v>18</v>
       </c>
       <c r="E91">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G91">
-        <v>87590</v>
+        <v>133430</v>
       </c>
       <c r="H91" t="s">
         <v>49</v>
       </c>
       <c r="J91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K91" s="2" t="s">
         <v>50</v>
@@ -3319,16 +3313,16 @@
         <v>18</v>
       </c>
       <c r="E92">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G92">
-        <v>86750</v>
+        <v>87590</v>
       </c>
       <c r="H92" t="s">
         <v>49</v>
       </c>
       <c r="J92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K92" s="2" t="s">
         <v>50</v>
@@ -3351,16 +3345,16 @@
         <v>18</v>
       </c>
       <c r="E93">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G93">
-        <v>100080</v>
+        <v>86750</v>
       </c>
       <c r="H93" t="s">
         <v>49</v>
       </c>
       <c r="J93" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K93" s="2" t="s">
         <v>50</v>
@@ -3383,16 +3377,16 @@
         <v>18</v>
       </c>
       <c r="E94">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G94">
-        <v>108300</v>
+        <v>100080</v>
       </c>
       <c r="H94" t="s">
         <v>49</v>
       </c>
       <c r="J94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K94" s="2" t="s">
         <v>50</v>
@@ -3415,16 +3409,16 @@
         <v>18</v>
       </c>
       <c r="E95">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G95">
-        <v>97400</v>
+        <v>108300</v>
       </c>
       <c r="H95" t="s">
         <v>49</v>
       </c>
       <c r="J95" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K95" s="2" t="s">
         <v>50</v>
@@ -3447,16 +3441,16 @@
         <v>18</v>
       </c>
       <c r="E96">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G96">
-        <v>138050</v>
+        <v>97400</v>
       </c>
       <c r="H96" t="s">
         <v>49</v>
       </c>
       <c r="J96" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K96" s="2" t="s">
         <v>50</v>
@@ -3479,16 +3473,16 @@
         <v>18</v>
       </c>
       <c r="E97">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G97">
-        <v>121690</v>
+        <v>138050</v>
       </c>
       <c r="H97" t="s">
         <v>49</v>
       </c>
       <c r="J97" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K97" s="2" t="s">
         <v>50</v>
@@ -3511,16 +3505,16 @@
         <v>18</v>
       </c>
       <c r="E98">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G98">
-        <v>125340</v>
+        <v>121690</v>
       </c>
       <c r="H98" t="s">
         <v>49</v>
       </c>
       <c r="J98" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K98" s="2" t="s">
         <v>50</v>
@@ -3543,16 +3537,16 @@
         <v>18</v>
       </c>
       <c r="E99">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G99">
-        <v>113760</v>
+        <v>125340</v>
       </c>
       <c r="H99" t="s">
         <v>49</v>
       </c>
       <c r="J99" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K99" s="2" t="s">
         <v>50</v>
@@ -3575,16 +3569,16 @@
         <v>18</v>
       </c>
       <c r="E100">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G100">
-        <v>112920</v>
+        <v>113760</v>
       </c>
       <c r="H100" t="s">
         <v>49</v>
       </c>
       <c r="J100" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K100" s="2" t="s">
         <v>50</v>
@@ -3607,16 +3601,16 @@
         <v>18</v>
       </c>
       <c r="E101">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G101">
-        <v>120240</v>
+        <v>112920</v>
       </c>
       <c r="H101" t="s">
         <v>49</v>
       </c>
       <c r="J101" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K101" s="2" t="s">
         <v>50</v>
@@ -3639,16 +3633,16 @@
         <v>18</v>
       </c>
       <c r="E102">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G102">
-        <v>125370</v>
+        <v>120240</v>
       </c>
       <c r="H102" t="s">
         <v>49</v>
       </c>
       <c r="J102" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K102" s="2" t="s">
         <v>50</v>
@@ -3671,16 +3665,16 @@
         <v>18</v>
       </c>
       <c r="E103">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G103">
-        <v>113580</v>
+        <v>125370</v>
       </c>
       <c r="H103" t="s">
         <v>49</v>
       </c>
       <c r="J103" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K103" s="2" t="s">
         <v>50</v>
@@ -3703,16 +3697,16 @@
         <v>18</v>
       </c>
       <c r="E104">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G104">
-        <v>107550</v>
+        <v>113580</v>
       </c>
       <c r="H104" t="s">
         <v>49</v>
       </c>
       <c r="J104" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K104" s="2" t="s">
         <v>50</v>
@@ -3735,16 +3729,16 @@
         <v>18</v>
       </c>
       <c r="E105">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G105">
-        <v>102710</v>
+        <v>107550</v>
       </c>
       <c r="H105" t="s">
         <v>49</v>
       </c>
       <c r="J105" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K105" s="2" t="s">
         <v>50</v>
@@ -3767,16 +3761,16 @@
         <v>18</v>
       </c>
       <c r="E106">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G106">
-        <v>122520</v>
+        <v>102710</v>
       </c>
       <c r="H106" t="s">
         <v>49</v>
       </c>
       <c r="J106" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K106" s="2" t="s">
         <v>50</v>
@@ -3799,16 +3793,16 @@
         <v>18</v>
       </c>
       <c r="E107">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G107">
-        <v>122750</v>
+        <v>122520</v>
       </c>
       <c r="H107" t="s">
         <v>49</v>
       </c>
       <c r="J107" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K107" s="2" t="s">
         <v>50</v>
@@ -3831,16 +3825,16 @@
         <v>18</v>
       </c>
       <c r="E108">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G108">
-        <v>131390</v>
+        <v>122750</v>
       </c>
       <c r="H108" t="s">
         <v>49</v>
       </c>
       <c r="J108" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K108" s="2" t="s">
         <v>50</v>
@@ -3863,16 +3857,16 @@
         <v>18</v>
       </c>
       <c r="E109">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G109">
-        <v>111670</v>
+        <v>131390</v>
       </c>
       <c r="H109" t="s">
         <v>49</v>
       </c>
       <c r="J109" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K109" s="2" t="s">
         <v>50</v>
@@ -3895,16 +3889,16 @@
         <v>18</v>
       </c>
       <c r="E110">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G110">
-        <v>106220</v>
+        <v>111670</v>
       </c>
       <c r="H110" t="s">
         <v>49</v>
       </c>
       <c r="J110" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K110" s="2" t="s">
         <v>50</v>
@@ -3921,25 +3915,28 @@
         <v>43</v>
       </c>
       <c r="C111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D111" t="s">
         <v>18</v>
       </c>
       <c r="E111">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>106220</v>
       </c>
       <c r="H111" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J111" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="L111" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
@@ -3956,7 +3953,7 @@
         <v>18</v>
       </c>
       <c r="E112">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -3964,6 +3961,12 @@
       <c r="H112" t="s">
         <v>45</v>
       </c>
+      <c r="J112" t="s">
+        <v>112</v>
+      </c>
+      <c r="L112" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
@@ -3979,7 +3982,7 @@
         <v>18</v>
       </c>
       <c r="E113">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -4002,7 +4005,7 @@
         <v>18</v>
       </c>
       <c r="E114">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -4025,7 +4028,7 @@
         <v>18</v>
       </c>
       <c r="E115">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -4048,7 +4051,7 @@
         <v>18</v>
       </c>
       <c r="E116">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -4071,7 +4074,7 @@
         <v>18</v>
       </c>
       <c r="E117">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -4094,7 +4097,7 @@
         <v>18</v>
       </c>
       <c r="E118">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -4117,7 +4120,7 @@
         <v>18</v>
       </c>
       <c r="E119">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -4140,7 +4143,7 @@
         <v>18</v>
       </c>
       <c r="E120">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -4163,7 +4166,7 @@
         <v>18</v>
       </c>
       <c r="E121">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -4186,7 +4189,7 @@
         <v>18</v>
       </c>
       <c r="E122">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -4209,7 +4212,7 @@
         <v>18</v>
       </c>
       <c r="E123">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -4232,7 +4235,7 @@
         <v>18</v>
       </c>
       <c r="E124">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -4255,7 +4258,7 @@
         <v>18</v>
       </c>
       <c r="E125">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -4278,7 +4281,7 @@
         <v>18</v>
       </c>
       <c r="E126">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -4301,7 +4304,7 @@
         <v>18</v>
       </c>
       <c r="E127">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -4324,7 +4327,7 @@
         <v>18</v>
       </c>
       <c r="E128">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -4347,7 +4350,7 @@
         <v>18</v>
       </c>
       <c r="E129">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -4370,21 +4373,14 @@
         <v>18</v>
       </c>
       <c r="E130">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G130">
-        <v>354</v>
+        <v>0</v>
       </c>
       <c r="H130" t="s">
         <v>45</v>
       </c>
-      <c r="J130" t="s">
-        <v>112</v>
-      </c>
-      <c r="K130" s="2"/>
-      <c r="L130" t="s">
-        <v>173</v>
-      </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
@@ -4400,10 +4396,10 @@
         <v>18</v>
       </c>
       <c r="E131">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G131">
-        <v>77</v>
+        <v>354</v>
       </c>
       <c r="H131" t="s">
         <v>45</v>
@@ -4430,10 +4426,10 @@
         <v>18</v>
       </c>
       <c r="E132">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G132">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="H132" t="s">
         <v>45</v>
@@ -4460,10 +4456,10 @@
         <v>18</v>
       </c>
       <c r="E133">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G133">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H133" t="s">
         <v>45</v>
@@ -4490,7 +4486,7 @@
         <v>18</v>
       </c>
       <c r="E134">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -4498,6 +4494,13 @@
       <c r="H134" t="s">
         <v>45</v>
       </c>
+      <c r="J134" t="s">
+        <v>112</v>
+      </c>
+      <c r="K134" s="2"/>
+      <c r="L134" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
@@ -4513,7 +4516,7 @@
         <v>18</v>
       </c>
       <c r="E135">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -4536,21 +4539,14 @@
         <v>18</v>
       </c>
       <c r="E136">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G136">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="H136" t="s">
         <v>45</v>
       </c>
-      <c r="J136" t="s">
-        <v>112</v>
-      </c>
-      <c r="K136" s="2"/>
-      <c r="L136" t="s">
-        <v>173</v>
-      </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
@@ -4566,14 +4562,21 @@
         <v>18</v>
       </c>
       <c r="E137">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G137">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="H137" t="s">
         <v>45</v>
       </c>
+      <c r="J137" t="s">
+        <v>112</v>
+      </c>
+      <c r="K137" s="2"/>
+      <c r="L137" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
@@ -4589,7 +4592,7 @@
         <v>18</v>
       </c>
       <c r="E138">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -4612,7 +4615,7 @@
         <v>18</v>
       </c>
       <c r="E139">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -4635,21 +4638,14 @@
         <v>18</v>
       </c>
       <c r="E140">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G140">
-        <v>1213</v>
+        <v>0</v>
       </c>
       <c r="H140" t="s">
         <v>45</v>
       </c>
-      <c r="J140" t="s">
-        <v>112</v>
-      </c>
-      <c r="K140" s="2"/>
-      <c r="L140" t="s">
-        <v>173</v>
-      </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
@@ -4659,13 +4655,26 @@
         <v>43</v>
       </c>
       <c r="C141" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D141" t="s">
         <v>18</v>
       </c>
       <c r="E141">
-        <v>1990</v>
+        <v>2019</v>
+      </c>
+      <c r="G141">
+        <v>1213</v>
+      </c>
+      <c r="H141" t="s">
+        <v>45</v>
+      </c>
+      <c r="J141" t="s">
+        <v>112</v>
+      </c>
+      <c r="K141" s="2"/>
+      <c r="L141" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
@@ -4682,7 +4691,7 @@
         <v>18</v>
       </c>
       <c r="E142">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
@@ -4699,7 +4708,7 @@
         <v>18</v>
       </c>
       <c r="E143">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
@@ -4716,7 +4725,7 @@
         <v>18</v>
       </c>
       <c r="E144">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
@@ -4733,7 +4742,7 @@
         <v>18</v>
       </c>
       <c r="E145">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
@@ -4750,7 +4759,7 @@
         <v>18</v>
       </c>
       <c r="E146">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -4767,7 +4776,7 @@
         <v>18</v>
       </c>
       <c r="E147">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
@@ -4784,7 +4793,7 @@
         <v>18</v>
       </c>
       <c r="E148">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
@@ -4801,7 +4810,7 @@
         <v>18</v>
       </c>
       <c r="E149">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -4818,7 +4827,7 @@
         <v>18</v>
       </c>
       <c r="E150">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
@@ -4835,7 +4844,7 @@
         <v>18</v>
       </c>
       <c r="E151">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -4852,7 +4861,7 @@
         <v>18</v>
       </c>
       <c r="E152">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
@@ -4869,7 +4878,7 @@
         <v>18</v>
       </c>
       <c r="E153">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
@@ -4886,7 +4895,7 @@
         <v>18</v>
       </c>
       <c r="E154">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -4903,7 +4912,7 @@
         <v>18</v>
       </c>
       <c r="E155">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
@@ -4920,7 +4929,7 @@
         <v>18</v>
       </c>
       <c r="E156">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
@@ -4937,7 +4946,7 @@
         <v>18</v>
       </c>
       <c r="E157">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
@@ -4954,7 +4963,7 @@
         <v>18</v>
       </c>
       <c r="E158">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
@@ -4971,7 +4980,7 @@
         <v>18</v>
       </c>
       <c r="E159">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
@@ -4988,7 +4997,7 @@
         <v>18</v>
       </c>
       <c r="E160">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
@@ -5005,7 +5014,7 @@
         <v>18</v>
       </c>
       <c r="E161">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
@@ -5022,7 +5031,7 @@
         <v>18</v>
       </c>
       <c r="E162">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
@@ -5039,7 +5048,7 @@
         <v>18</v>
       </c>
       <c r="E163">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
@@ -5056,16 +5065,7 @@
         <v>18</v>
       </c>
       <c r="E164">
-        <v>2013</v>
-      </c>
-      <c r="G164">
-        <v>3.2</v>
-      </c>
-      <c r="H164" t="s">
-        <v>122</v>
-      </c>
-      <c r="I164" t="s">
-        <v>119</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
@@ -5082,7 +5082,16 @@
         <v>18</v>
       </c>
       <c r="E165">
-        <v>2014</v>
+        <v>2013</v>
+      </c>
+      <c r="G165">
+        <v>3.2</v>
+      </c>
+      <c r="H165" t="s">
+        <v>122</v>
+      </c>
+      <c r="I165" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
@@ -5099,7 +5108,7 @@
         <v>18</v>
       </c>
       <c r="E166">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
@@ -5116,7 +5125,7 @@
         <v>18</v>
       </c>
       <c r="E167">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
@@ -5133,7 +5142,7 @@
         <v>18</v>
       </c>
       <c r="E168">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
@@ -5150,7 +5159,7 @@
         <v>18</v>
       </c>
       <c r="E169">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
@@ -5167,7 +5176,7 @@
         <v>18</v>
       </c>
       <c r="E170">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
@@ -5178,19 +5187,13 @@
         <v>43</v>
       </c>
       <c r="C171" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D171" t="s">
         <v>18</v>
       </c>
       <c r="E171">
-        <v>1990</v>
-      </c>
-      <c r="G171">
-        <v>37.762500000000003</v>
-      </c>
-      <c r="H171" t="s">
-        <v>123</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
@@ -5207,13 +5210,13 @@
         <v>18</v>
       </c>
       <c r="E172">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G172">
         <v>37.762500000000003</v>
       </c>
       <c r="H172" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
@@ -5230,13 +5233,13 @@
         <v>18</v>
       </c>
       <c r="E173">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G173">
-        <v>39.137500000000003</v>
+        <v>37.762500000000003</v>
       </c>
       <c r="H173" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
@@ -5253,13 +5256,13 @@
         <v>18</v>
       </c>
       <c r="E174">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G174">
-        <v>38.424999999999997</v>
+        <v>39.137500000000003</v>
       </c>
       <c r="H174" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
@@ -5276,13 +5279,13 @@
         <v>18</v>
       </c>
       <c r="E175">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G175">
-        <v>38.024999999999999</v>
+        <v>38.424999999999997</v>
       </c>
       <c r="H175" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
@@ -5299,13 +5302,13 @@
         <v>18</v>
       </c>
       <c r="E176">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G176">
-        <v>37.9375</v>
+        <v>38.024999999999999</v>
       </c>
       <c r="H176" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
@@ -5322,13 +5325,13 @@
         <v>18</v>
       </c>
       <c r="E177">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G177">
-        <v>37.6</v>
+        <v>37.9375</v>
       </c>
       <c r="H177" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
@@ -5345,13 +5348,13 @@
         <v>18</v>
       </c>
       <c r="E178">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G178">
-        <v>36.975000000000001</v>
+        <v>37.6</v>
       </c>
       <c r="H178" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
@@ -5368,13 +5371,13 @@
         <v>18</v>
       </c>
       <c r="E179">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G179">
-        <v>36.274999999999999</v>
+        <v>36.975000000000001</v>
       </c>
       <c r="H179" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
@@ -5391,13 +5394,13 @@
         <v>18</v>
       </c>
       <c r="E180">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G180">
-        <v>34.787500000000001</v>
+        <v>36.274999999999999</v>
       </c>
       <c r="H180" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
@@ -5414,13 +5417,13 @@
         <v>18</v>
       </c>
       <c r="E181">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G181">
-        <v>33.200000000000003</v>
+        <v>34.787500000000001</v>
       </c>
       <c r="H181" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
@@ -5437,13 +5440,13 @@
         <v>18</v>
       </c>
       <c r="E182">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G182">
-        <v>35.299999999999997</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="H182" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
@@ -5460,13 +5463,13 @@
         <v>18</v>
       </c>
       <c r="E183">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G183">
-        <v>32.824310609999998</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="H183" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
@@ -5483,13 +5486,13 @@
         <v>18</v>
       </c>
       <c r="E184">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G184">
-        <v>33.427702089999997</v>
+        <v>32.824310609999998</v>
       </c>
       <c r="H184" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
@@ -5506,13 +5509,13 @@
         <v>18</v>
       </c>
       <c r="E185">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G185">
-        <v>35.025917569999997</v>
+        <v>33.427702089999997</v>
       </c>
       <c r="H185" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
@@ -5529,13 +5532,13 @@
         <v>18</v>
       </c>
       <c r="E186">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G186">
-        <v>47.12493869</v>
+        <v>35.025917569999997</v>
       </c>
       <c r="H186" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
@@ -5552,13 +5555,13 @@
         <v>18</v>
       </c>
       <c r="E187">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G187">
-        <v>59.819774850000002</v>
+        <v>47.12493869</v>
       </c>
       <c r="H187" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
@@ -5575,13 +5578,13 @@
         <v>18</v>
       </c>
       <c r="E188">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G188">
-        <v>59.752091729999997</v>
+        <v>59.819774850000002</v>
       </c>
       <c r="H188" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
@@ -5598,13 +5601,13 @@
         <v>18</v>
       </c>
       <c r="E189">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G189">
-        <v>66.958622610000006</v>
+        <v>59.752091729999997</v>
       </c>
       <c r="H189" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
@@ -5621,13 +5624,13 @@
         <v>18</v>
       </c>
       <c r="E190">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G190">
-        <v>61.050466499999999</v>
+        <v>66.958622610000006</v>
       </c>
       <c r="H190" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
@@ -5644,13 +5647,13 @@
         <v>18</v>
       </c>
       <c r="E191">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G191">
-        <v>56.049325670000002</v>
+        <v>61.050466499999999</v>
       </c>
       <c r="H191" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
@@ -5667,13 +5670,13 @@
         <v>18</v>
       </c>
       <c r="E192">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G192">
-        <v>56.165710709999999</v>
+        <v>56.049325670000002</v>
       </c>
       <c r="H192" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
@@ -5690,13 +5693,13 @@
         <v>18</v>
       </c>
       <c r="E193">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G193">
-        <v>60.639359579999997</v>
+        <v>56.165710709999999</v>
       </c>
       <c r="H193" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
@@ -5713,13 +5716,13 @@
         <v>18</v>
       </c>
       <c r="E194">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G194">
-        <v>57.100518540000003</v>
+        <v>60.639359579999997</v>
       </c>
       <c r="H194" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
@@ -5736,13 +5739,13 @@
         <v>18</v>
       </c>
       <c r="E195">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G195">
-        <v>49.003774999999997</v>
+        <v>57.100518540000003</v>
       </c>
       <c r="H195" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
@@ -5759,13 +5762,13 @@
         <v>18</v>
       </c>
       <c r="E196">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G196">
-        <v>42.610874199999998</v>
+        <v>49.003774999999997</v>
       </c>
       <c r="H196" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
@@ -5782,13 +5785,13 @@
         <v>18</v>
       </c>
       <c r="E197">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G197">
-        <v>40.431049049999999</v>
+        <v>42.610874199999998</v>
       </c>
       <c r="H197" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
@@ -5805,13 +5808,13 @@
         <v>18</v>
       </c>
       <c r="E198">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G198">
-        <v>31.887499999999999</v>
+        <v>40.431049049999999</v>
       </c>
       <c r="H198" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
@@ -5828,13 +5831,13 @@
         <v>18</v>
       </c>
       <c r="E199">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G199">
-        <v>32.875</v>
+        <v>31.887499999999999</v>
       </c>
       <c r="H199" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
@@ -5851,13 +5854,13 @@
         <v>18</v>
       </c>
       <c r="E200">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G200">
-        <v>37.75</v>
+        <v>32.875</v>
       </c>
       <c r="H200" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
@@ -5868,13 +5871,19 @@
         <v>43</v>
       </c>
       <c r="C201" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D201" t="s">
         <v>18</v>
       </c>
       <c r="E201">
-        <v>1990</v>
+        <v>2019</v>
+      </c>
+      <c r="G201">
+        <v>37.75</v>
+      </c>
+      <c r="H201" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
@@ -5891,7 +5900,7 @@
         <v>18</v>
       </c>
       <c r="E202">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
@@ -5908,7 +5917,7 @@
         <v>18</v>
       </c>
       <c r="E203">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
@@ -5925,7 +5934,7 @@
         <v>18</v>
       </c>
       <c r="E204">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
@@ -5942,7 +5951,7 @@
         <v>18</v>
       </c>
       <c r="E205">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
@@ -5959,7 +5968,7 @@
         <v>18</v>
       </c>
       <c r="E206">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
@@ -5976,16 +5985,7 @@
         <v>18</v>
       </c>
       <c r="E207">
-        <v>1996</v>
-      </c>
-      <c r="G207">
-        <v>300</v>
-      </c>
-      <c r="H207" t="s">
-        <v>153</v>
-      </c>
-      <c r="I207" t="s">
-        <v>119</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
@@ -6002,7 +6002,16 @@
         <v>18</v>
       </c>
       <c r="E208">
-        <v>1997</v>
+        <v>1996</v>
+      </c>
+      <c r="G208">
+        <v>300</v>
+      </c>
+      <c r="H208" t="s">
+        <v>153</v>
+      </c>
+      <c r="I208" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
@@ -6019,7 +6028,7 @@
         <v>18</v>
       </c>
       <c r="E209">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
@@ -6036,7 +6045,7 @@
         <v>18</v>
       </c>
       <c r="E210">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
@@ -6053,7 +6062,7 @@
         <v>18</v>
       </c>
       <c r="E211">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
@@ -6070,7 +6079,7 @@
         <v>18</v>
       </c>
       <c r="E212">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
@@ -6087,7 +6096,7 @@
         <v>18</v>
       </c>
       <c r="E213">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
@@ -6104,7 +6113,7 @@
         <v>18</v>
       </c>
       <c r="E214">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
@@ -6121,7 +6130,7 @@
         <v>18</v>
       </c>
       <c r="E215">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
@@ -6138,7 +6147,7 @@
         <v>18</v>
       </c>
       <c r="E216">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
@@ -6155,7 +6164,7 @@
         <v>18</v>
       </c>
       <c r="E217">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
@@ -6172,7 +6181,7 @@
         <v>18</v>
       </c>
       <c r="E218">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
@@ -6189,7 +6198,7 @@
         <v>18</v>
       </c>
       <c r="E219">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
@@ -6206,7 +6215,7 @@
         <v>18</v>
       </c>
       <c r="E220">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
@@ -6223,7 +6232,7 @@
         <v>18</v>
       </c>
       <c r="E221">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
@@ -6240,7 +6249,7 @@
         <v>18</v>
       </c>
       <c r="E222">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
@@ -6257,7 +6266,7 @@
         <v>18</v>
       </c>
       <c r="E223">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
@@ -6274,7 +6283,7 @@
         <v>18</v>
       </c>
       <c r="E224">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
@@ -6291,7 +6300,7 @@
         <v>18</v>
       </c>
       <c r="E225">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.2">
@@ -6308,7 +6317,7 @@
         <v>18</v>
       </c>
       <c r="E226">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.2">
@@ -6325,7 +6334,7 @@
         <v>18</v>
       </c>
       <c r="E227">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
@@ -6342,7 +6351,7 @@
         <v>18</v>
       </c>
       <c r="E228">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.2">
@@ -6359,7 +6368,7 @@
         <v>18</v>
       </c>
       <c r="E229">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.2">
@@ -6376,7 +6385,7 @@
         <v>18</v>
       </c>
       <c r="E230">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.2">
@@ -6387,19 +6396,13 @@
         <v>43</v>
       </c>
       <c r="C231" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D231" t="s">
         <v>18</v>
       </c>
       <c r="E231">
-        <v>1990</v>
-      </c>
-      <c r="G231">
-        <v>1</v>
-      </c>
-      <c r="I231" t="s">
-        <v>119</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.2">
@@ -6416,7 +6419,7 @@
         <v>18</v>
       </c>
       <c r="E232">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G232">
         <v>1</v>
@@ -6439,7 +6442,7 @@
         <v>18</v>
       </c>
       <c r="E233">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G233">
         <v>1</v>
@@ -6462,7 +6465,7 @@
         <v>18</v>
       </c>
       <c r="E234">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G234">
         <v>1</v>
@@ -6485,7 +6488,7 @@
         <v>18</v>
       </c>
       <c r="E235">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G235">
         <v>1</v>
@@ -6508,7 +6511,7 @@
         <v>18</v>
       </c>
       <c r="E236">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G236">
         <v>1</v>
@@ -6531,7 +6534,7 @@
         <v>18</v>
       </c>
       <c r="E237">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G237">
         <v>1</v>
@@ -6554,7 +6557,7 @@
         <v>18</v>
       </c>
       <c r="E238">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G238">
         <v>1</v>
@@ -6577,7 +6580,7 @@
         <v>18</v>
       </c>
       <c r="E239">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G239">
         <v>1</v>
@@ -6600,7 +6603,7 @@
         <v>18</v>
       </c>
       <c r="E240">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G240">
         <v>1</v>
@@ -6623,7 +6626,7 @@
         <v>18</v>
       </c>
       <c r="E241">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G241">
         <v>1</v>
@@ -6646,7 +6649,7 @@
         <v>18</v>
       </c>
       <c r="E242">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G242">
         <v>1</v>
@@ -6669,7 +6672,7 @@
         <v>18</v>
       </c>
       <c r="E243">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G243">
         <v>1</v>
@@ -6692,7 +6695,7 @@
         <v>18</v>
       </c>
       <c r="E244">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G244">
         <v>1</v>
@@ -6715,7 +6718,7 @@
         <v>18</v>
       </c>
       <c r="E245">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G245">
         <v>1</v>
@@ -6738,7 +6741,7 @@
         <v>18</v>
       </c>
       <c r="E246">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G246">
         <v>1</v>
@@ -6761,7 +6764,7 @@
         <v>18</v>
       </c>
       <c r="E247">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G247">
         <v>1</v>
@@ -6784,7 +6787,7 @@
         <v>18</v>
       </c>
       <c r="E248">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G248">
         <v>1</v>
@@ -6807,7 +6810,7 @@
         <v>18</v>
       </c>
       <c r="E249">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G249">
         <v>1</v>
@@ -6830,7 +6833,7 @@
         <v>18</v>
       </c>
       <c r="E250">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G250">
         <v>1</v>
@@ -6853,7 +6856,7 @@
         <v>18</v>
       </c>
       <c r="E251">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G251">
         <v>1</v>
@@ -6876,7 +6879,7 @@
         <v>18</v>
       </c>
       <c r="E252">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G252">
         <v>1</v>
@@ -6899,7 +6902,7 @@
         <v>18</v>
       </c>
       <c r="E253">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G253">
         <v>1</v>
@@ -6922,7 +6925,7 @@
         <v>18</v>
       </c>
       <c r="E254">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G254">
         <v>1</v>
@@ -6945,7 +6948,7 @@
         <v>18</v>
       </c>
       <c r="E255">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G255">
         <v>1</v>
@@ -6968,7 +6971,7 @@
         <v>18</v>
       </c>
       <c r="E256">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G256">
         <v>1</v>
@@ -6991,7 +6994,7 @@
         <v>18</v>
       </c>
       <c r="E257">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G257">
         <v>1</v>
@@ -7014,7 +7017,7 @@
         <v>18</v>
       </c>
       <c r="E258">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G258">
         <v>1</v>
@@ -7037,7 +7040,7 @@
         <v>18</v>
       </c>
       <c r="E259">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G259">
         <v>1</v>
@@ -7060,7 +7063,7 @@
         <v>18</v>
       </c>
       <c r="E260">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G260">
         <v>1</v>
@@ -7077,16 +7080,16 @@
         <v>43</v>
       </c>
       <c r="C261" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D261" t="s">
         <v>18</v>
       </c>
       <c r="E261">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I261" t="s">
         <v>119</v>
@@ -7106,7 +7109,7 @@
         <v>18</v>
       </c>
       <c r="E262">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G262">
         <v>0</v>
@@ -7129,7 +7132,7 @@
         <v>18</v>
       </c>
       <c r="E263">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G263">
         <v>0</v>
@@ -7152,7 +7155,7 @@
         <v>18</v>
       </c>
       <c r="E264">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G264">
         <v>0</v>
@@ -7175,7 +7178,7 @@
         <v>18</v>
       </c>
       <c r="E265">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G265">
         <v>0</v>
@@ -7198,7 +7201,7 @@
         <v>18</v>
       </c>
       <c r="E266">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G266">
         <v>0</v>
@@ -7221,7 +7224,7 @@
         <v>18</v>
       </c>
       <c r="E267">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G267">
         <v>0</v>
@@ -7244,7 +7247,7 @@
         <v>18</v>
       </c>
       <c r="E268">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G268">
         <v>0</v>
@@ -7267,7 +7270,7 @@
         <v>18</v>
       </c>
       <c r="E269">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G269">
         <v>0</v>
@@ -7290,7 +7293,7 @@
         <v>18</v>
       </c>
       <c r="E270">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G270">
         <v>0</v>
@@ -7313,7 +7316,7 @@
         <v>18</v>
       </c>
       <c r="E271">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G271">
         <v>0</v>
@@ -7336,7 +7339,7 @@
         <v>18</v>
       </c>
       <c r="E272">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G272">
         <v>0</v>
@@ -7359,7 +7362,7 @@
         <v>18</v>
       </c>
       <c r="E273">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G273">
         <v>0</v>
@@ -7382,7 +7385,7 @@
         <v>18</v>
       </c>
       <c r="E274">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G274">
         <v>0</v>
@@ -7405,7 +7408,7 @@
         <v>18</v>
       </c>
       <c r="E275">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G275">
         <v>0</v>
@@ -7428,7 +7431,7 @@
         <v>18</v>
       </c>
       <c r="E276">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G276">
         <v>0</v>
@@ -7451,7 +7454,7 @@
         <v>18</v>
       </c>
       <c r="E277">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G277">
         <v>0</v>
@@ -7474,7 +7477,7 @@
         <v>18</v>
       </c>
       <c r="E278">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G278">
         <v>0</v>
@@ -7497,7 +7500,7 @@
         <v>18</v>
       </c>
       <c r="E279">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G279">
         <v>0</v>
@@ -7520,7 +7523,7 @@
         <v>18</v>
       </c>
       <c r="E280">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G280">
         <v>0</v>
@@ -7543,7 +7546,7 @@
         <v>18</v>
       </c>
       <c r="E281">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G281">
         <v>0</v>
@@ -7566,7 +7569,7 @@
         <v>18</v>
       </c>
       <c r="E282">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G282">
         <v>0</v>
@@ -7589,7 +7592,7 @@
         <v>18</v>
       </c>
       <c r="E283">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G283">
         <v>0</v>
@@ -7612,7 +7615,7 @@
         <v>18</v>
       </c>
       <c r="E284">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G284">
         <v>0</v>
@@ -7635,7 +7638,7 @@
         <v>18</v>
       </c>
       <c r="E285">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G285">
         <v>0</v>
@@ -7658,7 +7661,7 @@
         <v>18</v>
       </c>
       <c r="E286">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G286">
         <v>0</v>
@@ -7681,7 +7684,7 @@
         <v>18</v>
       </c>
       <c r="E287">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G287">
         <v>0</v>
@@ -7704,7 +7707,7 @@
         <v>18</v>
       </c>
       <c r="E288">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G288">
         <v>0</v>
@@ -7727,7 +7730,7 @@
         <v>18</v>
       </c>
       <c r="E289">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G289">
         <v>0</v>
@@ -7750,7 +7753,7 @@
         <v>18</v>
       </c>
       <c r="E290">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G290">
         <v>0</v>
@@ -7767,22 +7770,19 @@
         <v>43</v>
       </c>
       <c r="C291" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D291" t="s">
         <v>18</v>
       </c>
       <c r="E291">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G291">
-        <v>37.450000000000003</v>
-      </c>
-      <c r="H291" t="s">
-        <v>123</v>
-      </c>
-      <c r="L291" t="s">
-        <v>155</v>
+        <v>0</v>
+      </c>
+      <c r="I291" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.2">
@@ -7799,13 +7799,13 @@
         <v>18</v>
       </c>
       <c r="E292">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G292">
         <v>37.450000000000003</v>
       </c>
       <c r="H292" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L292" t="s">
         <v>155</v>
@@ -7825,13 +7825,13 @@
         <v>18</v>
       </c>
       <c r="E293">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G293">
-        <v>38.85</v>
+        <v>37.450000000000003</v>
       </c>
       <c r="H293" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L293" t="s">
         <v>155</v>
@@ -7851,13 +7851,13 @@
         <v>18</v>
       </c>
       <c r="E294">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G294">
-        <v>37.950000000000003</v>
+        <v>38.85</v>
       </c>
       <c r="H294" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L294" t="s">
         <v>155</v>
@@ -7877,13 +7877,13 @@
         <v>18</v>
       </c>
       <c r="E295">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G295">
-        <v>37.4</v>
+        <v>37.950000000000003</v>
       </c>
       <c r="H295" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L295" t="s">
         <v>155</v>
@@ -7903,13 +7903,13 @@
         <v>18</v>
       </c>
       <c r="E296">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G296">
-        <v>36.049999999999997</v>
+        <v>37.4</v>
       </c>
       <c r="H296" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L296" t="s">
         <v>155</v>
@@ -7929,13 +7929,13 @@
         <v>18</v>
       </c>
       <c r="E297">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G297">
-        <v>34.450000000000003</v>
+        <v>36.049999999999997</v>
       </c>
       <c r="H297" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L297" t="s">
         <v>155</v>
@@ -7955,13 +7955,13 @@
         <v>18</v>
       </c>
       <c r="E298">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G298">
-        <v>33.950000000000003</v>
+        <v>34.450000000000003</v>
       </c>
       <c r="H298" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L298" t="s">
         <v>155</v>
@@ -7981,13 +7981,13 @@
         <v>18</v>
       </c>
       <c r="E299">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G299">
-        <v>33.15</v>
+        <v>33.950000000000003</v>
       </c>
       <c r="H299" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L299" t="s">
         <v>155</v>
@@ -8007,13 +8007,13 @@
         <v>18</v>
       </c>
       <c r="E300">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G300">
-        <v>31.8</v>
+        <v>33.15</v>
       </c>
       <c r="H300" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L300" t="s">
         <v>155</v>
@@ -8033,13 +8033,13 @@
         <v>18</v>
       </c>
       <c r="E301">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G301">
-        <v>31.25</v>
+        <v>31.8</v>
       </c>
       <c r="H301" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L301" t="s">
         <v>155</v>
@@ -8059,13 +8059,13 @@
         <v>18</v>
       </c>
       <c r="E302">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G302">
-        <v>32.200000000000003</v>
+        <v>31.25</v>
       </c>
       <c r="H302" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L302" t="s">
         <v>155</v>
@@ -8085,13 +8085,13 @@
         <v>18</v>
       </c>
       <c r="E303">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G303">
-        <v>31</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="H303" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="L303" t="s">
         <v>155</v>
@@ -8111,22 +8111,16 @@
         <v>18</v>
       </c>
       <c r="E304">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G304">
-        <v>32.4</v>
+        <v>31</v>
       </c>
       <c r="H304" t="s">
-        <v>157</v>
-      </c>
-      <c r="J304" t="s">
-        <v>158</v>
-      </c>
-      <c r="K304" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L304" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.2">
@@ -8143,13 +8137,13 @@
         <v>18</v>
       </c>
       <c r="E305">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G305">
-        <v>31.7</v>
+        <v>32.4</v>
       </c>
       <c r="H305" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J305" t="s">
         <v>158</v>
@@ -8175,13 +8169,13 @@
         <v>18</v>
       </c>
       <c r="E306">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G306">
-        <v>34.1</v>
+        <v>31.7</v>
       </c>
       <c r="H306" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J306" t="s">
         <v>158</v>
@@ -8207,13 +8201,13 @@
         <v>18</v>
       </c>
       <c r="E307">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G307">
-        <v>38.299999999999997</v>
+        <v>34.1</v>
       </c>
       <c r="H307" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J307" t="s">
         <v>158</v>
@@ -8239,13 +8233,13 @@
         <v>18</v>
       </c>
       <c r="E308">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G308">
-        <v>41.85</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="H308" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J308" t="s">
         <v>158</v>
@@ -8271,13 +8265,13 @@
         <v>18</v>
       </c>
       <c r="E309">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G309">
-        <v>37.1</v>
+        <v>41.85</v>
       </c>
       <c r="H309" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J309" t="s">
         <v>158</v>
@@ -8303,13 +8297,13 @@
         <v>18</v>
       </c>
       <c r="E310">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G310">
-        <v>39.549999999999997</v>
+        <v>37.1</v>
       </c>
       <c r="H310" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J310" t="s">
         <v>158</v>
@@ -8335,13 +8329,13 @@
         <v>18</v>
       </c>
       <c r="E311">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G311">
-        <v>38.5</v>
+        <v>39.549999999999997</v>
       </c>
       <c r="H311" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J311" t="s">
         <v>158</v>
@@ -8367,13 +8361,13 @@
         <v>18</v>
       </c>
       <c r="E312">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G312">
-        <v>40.549999999999997</v>
+        <v>38.5</v>
       </c>
       <c r="H312" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J312" t="s">
         <v>158</v>
@@ -8399,13 +8393,13 @@
         <v>18</v>
       </c>
       <c r="E313">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G313">
-        <v>42.3</v>
+        <v>40.549999999999997</v>
       </c>
       <c r="H313" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J313" t="s">
         <v>158</v>
@@ -8431,13 +8425,13 @@
         <v>18</v>
       </c>
       <c r="E314">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G314">
-        <v>40.65</v>
+        <v>42.3</v>
       </c>
       <c r="H314" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J314" t="s">
         <v>158</v>
@@ -8463,13 +8457,13 @@
         <v>18</v>
       </c>
       <c r="E315">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G315">
-        <v>38.6</v>
+        <v>40.65</v>
       </c>
       <c r="H315" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J315" t="s">
         <v>158</v>
@@ -8495,13 +8489,13 @@
         <v>18</v>
       </c>
       <c r="E316">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G316">
-        <v>36.9</v>
+        <v>38.6</v>
       </c>
       <c r="H316" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="J316" t="s">
         <v>158</v>
@@ -8527,13 +8521,13 @@
         <v>18</v>
       </c>
       <c r="E317">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G317">
-        <v>34.5</v>
+        <v>36.9</v>
       </c>
       <c r="H317" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="J317" t="s">
         <v>158</v>
@@ -8559,13 +8553,13 @@
         <v>18</v>
       </c>
       <c r="E318">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G318">
-        <v>33.1</v>
+        <v>34.5</v>
       </c>
       <c r="H318" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="J318" t="s">
         <v>158</v>
@@ -8591,13 +8585,13 @@
         <v>18</v>
       </c>
       <c r="E319">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G319">
-        <v>33.65</v>
+        <v>33.1</v>
       </c>
       <c r="H319" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J319" t="s">
         <v>158</v>
@@ -8623,13 +8617,13 @@
         <v>18</v>
       </c>
       <c r="E320">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G320">
-        <v>37.299999999999997</v>
+        <v>33.65</v>
       </c>
       <c r="H320" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J320" t="s">
         <v>158</v>
@@ -8641,20 +8635,52 @@
         <v>160</v>
       </c>
     </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>16</v>
+      </c>
+      <c r="B321" t="s">
+        <v>43</v>
+      </c>
+      <c r="C321" t="s">
+        <v>42</v>
+      </c>
+      <c r="D321" t="s">
+        <v>18</v>
+      </c>
+      <c r="E321">
+        <v>2019</v>
+      </c>
+      <c r="G321">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="H321" t="s">
+        <v>152</v>
+      </c>
+      <c r="J321" t="s">
+        <v>158</v>
+      </c>
+      <c r="K321" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L321" t="s">
+        <v>160</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A5:L519" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L520" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K40" r:id="rId1" xr:uid="{9280243E-6949-8941-9BA5-0D72F7E0C700}"/>
-    <hyperlink ref="K41" r:id="rId2" xr:uid="{95F27C1E-4658-BE4A-A2B3-46F76ACD4F74}"/>
-    <hyperlink ref="K42" r:id="rId3" xr:uid="{AFAD837F-9233-E540-8A86-E8C50A7683A6}"/>
-    <hyperlink ref="K43" r:id="rId4" xr:uid="{69024611-6EE1-D642-B375-225612CAAEEE}"/>
-    <hyperlink ref="K46" r:id="rId5" xr:uid="{DBF5AFD9-F29D-5C4B-85DD-A886A1AB63C8}"/>
-    <hyperlink ref="K50" r:id="rId6" xr:uid="{DA5C67C9-4C59-AE4B-BEE9-F504118ECC57}"/>
-    <hyperlink ref="K51" r:id="rId7" xr:uid="{B6037CA9-473C-084B-B6AA-934620BE2105}"/>
-    <hyperlink ref="K52:K110" r:id="rId8" display="https://www.bfe.admin.ch/bfe/de/home/versorgung/statistik-und-geodaten/energiestatistiken/gesamtenergiestatistik.html/" xr:uid="{EB6A06A8-3AE4-2641-9CC0-7161E8D21A52}"/>
-    <hyperlink ref="K304" r:id="rId9" xr:uid="{ECE01210-F162-8640-B72C-72CDC6F4DD33}"/>
-    <hyperlink ref="K305:K320" r:id="rId10" display="https://ec.europa.eu/eurostat/web/main/data/database" xr:uid="{B4654278-E585-5544-84B8-E8BAFEE330AA}"/>
+    <hyperlink ref="K41" r:id="rId1" xr:uid="{9280243E-6949-8941-9BA5-0D72F7E0C700}"/>
+    <hyperlink ref="K42" r:id="rId2" xr:uid="{95F27C1E-4658-BE4A-A2B3-46F76ACD4F74}"/>
+    <hyperlink ref="K43" r:id="rId3" xr:uid="{AFAD837F-9233-E540-8A86-E8C50A7683A6}"/>
+    <hyperlink ref="K44" r:id="rId4" xr:uid="{69024611-6EE1-D642-B375-225612CAAEEE}"/>
+    <hyperlink ref="K47" r:id="rId5" xr:uid="{DBF5AFD9-F29D-5C4B-85DD-A886A1AB63C8}"/>
+    <hyperlink ref="K51" r:id="rId6" xr:uid="{DA5C67C9-4C59-AE4B-BEE9-F504118ECC57}"/>
+    <hyperlink ref="K52" r:id="rId7" xr:uid="{B6037CA9-473C-084B-B6AA-934620BE2105}"/>
+    <hyperlink ref="K53:K111" r:id="rId8" display="https://www.bfe.admin.ch/bfe/de/home/versorgung/statistik-und-geodaten/energiestatistiken/gesamtenergiestatistik.html/" xr:uid="{EB6A06A8-3AE4-2641-9CC0-7161E8D21A52}"/>
+    <hyperlink ref="K305" r:id="rId9" xr:uid="{ECE01210-F162-8640-B72C-72CDC6F4DD33}"/>
+    <hyperlink ref="K306:K321" r:id="rId10" display="https://ec.europa.eu/eurostat/web/main/data/database" xr:uid="{B4654278-E585-5544-84B8-E8BAFEE330AA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/zenodo_ivan/trade/CHE_trd_elecsupply.xlsx
+++ b/data/zenodo_ivan/trade/CHE_trd_elecsupply.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/trade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25506E3D-C10F-B948-918F-E627274B6F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C2BFAB-D7B0-B844-87BB-68B566BD41C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="-4880" windowWidth="21600" windowHeight="37900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$520</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$518</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="181">
   <si>
     <t>Name:</t>
   </si>
@@ -128,12 +128,6 @@
     <t>max_capacity_annual</t>
   </si>
   <si>
-    <t>max_export_share</t>
-  </si>
-  <si>
-    <t>max_import_share</t>
-  </si>
-  <si>
     <t>actual_capacity</t>
   </si>
   <si>
@@ -572,16 +566,16 @@
     <t>constant_fxe</t>
   </si>
   <si>
-    <t>enable_max_import_share</t>
-  </si>
-  <si>
-    <t>enable_max_export_share</t>
-  </si>
-  <si>
     <t>capacity_to_activity</t>
   </si>
   <si>
     <t>GW/TWh</t>
+  </si>
+  <si>
+    <t>flow_in_max_share</t>
+  </si>
+  <si>
+    <t>flow_out_max_share</t>
   </si>
 </sst>
 </file>
@@ -1003,11 +997,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L321"/>
+  <dimension ref="A1:L319"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1027,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1089,7 +1083,7 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -1106,7 +1100,7 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -1123,7 +1117,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
@@ -1140,33 +1134,45 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>179</v>
+        <v>41</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>1E-3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1174,25 +1180,25 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>257.61448541000004</v>
       </c>
       <c r="H11" t="s">
         <v>114</v>
       </c>
       <c r="J11" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1200,19 +1206,22 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" t="s">
-        <v>181</v>
+        <v>41</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>176</v>
+      </c>
+      <c r="F12" t="s">
+        <v>175</v>
       </c>
       <c r="G12">
-        <v>1E-3</v>
-      </c>
-      <c r="H12" t="s">
-        <v>182</v>
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1220,25 +1229,19 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
       </c>
       <c r="G13">
-        <v>257.61448541000004</v>
-      </c>
-      <c r="H13" t="s">
-        <v>116</v>
-      </c>
-      <c r="J13" t="s">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I13" t="s">
         <v>117</v>
-      </c>
-      <c r="L13" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1246,22 +1249,22 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>178</v>
-      </c>
-      <c r="F14" t="s">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="J14" t="s">
-        <v>112</v>
+        <v>30</v>
+      </c>
+      <c r="H14" t="s">
+        <v>118</v>
+      </c>
+      <c r="I14" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1269,41 +1272,38 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
       </c>
-      <c r="G15">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I15" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="G16">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="H16" t="s">
-        <v>120</v>
-      </c>
-      <c r="I16" t="s">
+        <v>112</v>
+      </c>
+      <c r="J16" t="s">
+        <v>110</v>
+      </c>
+      <c r="L16" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1312,39 +1312,45 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
+      <c r="G17">
+        <v>0.4</v>
+      </c>
+      <c r="J17" t="s">
+        <v>110</v>
+      </c>
+      <c r="L17" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
       </c>
       <c r="G18">
-        <v>8</v>
-      </c>
-      <c r="H18" t="s">
-        <v>114</v>
+        <v>0.4</v>
       </c>
       <c r="J18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L18" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1352,22 +1358,22 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>31</v>
+        <v>174</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>176</v>
+      </c>
+      <c r="F19" t="s">
+        <v>175</v>
       </c>
       <c r="G19">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1375,22 +1381,25 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <v>1990</v>
+      </c>
+      <c r="G20">
+        <v>6540</v>
+      </c>
+      <c r="H20" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20">
-        <v>0.4</v>
-      </c>
       <c r="J20" t="s">
-        <v>112</v>
-      </c>
-      <c r="L20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -1398,22 +1407,16 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>176</v>
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>178</v>
-      </c>
-      <c r="F21" t="s">
-        <v>177</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="J21" t="s">
-        <v>112</v>
+        <v>18</v>
+      </c>
+      <c r="E21">
+        <v>1991</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -1421,25 +1424,16 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
       </c>
       <c r="E22">
-        <v>1990</v>
-      </c>
-      <c r="G22">
-        <v>6540</v>
-      </c>
-      <c r="H22" t="s">
-        <v>45</v>
-      </c>
-      <c r="J22" t="s">
-        <v>112</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -1447,16 +1441,16 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
         <v>18</v>
       </c>
       <c r="E23">
-        <v>1991</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -1464,16 +1458,16 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
         <v>18</v>
       </c>
       <c r="E24">
-        <v>1992</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -1481,16 +1475,16 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
       </c>
       <c r="E25">
-        <v>1993</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -1498,16 +1492,16 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s">
         <v>18</v>
       </c>
       <c r="E26">
-        <v>1994</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -1515,16 +1509,16 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D27" t="s">
         <v>18</v>
       </c>
       <c r="E27">
-        <v>1995</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -1532,16 +1526,16 @@
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D28" t="s">
         <v>18</v>
       </c>
       <c r="E28">
-        <v>1996</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -1549,16 +1543,16 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D29" t="s">
         <v>18</v>
       </c>
       <c r="E29">
-        <v>1997</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -1566,16 +1560,16 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D30" t="s">
         <v>18</v>
       </c>
       <c r="E30">
-        <v>1998</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -1583,16 +1577,16 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D31" t="s">
         <v>18</v>
       </c>
       <c r="E31">
-        <v>1999</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -1600,16 +1594,16 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D32" t="s">
         <v>18</v>
       </c>
       <c r="E32">
-        <v>2000</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -1617,16 +1611,16 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D33" t="s">
         <v>18</v>
       </c>
       <c r="E33">
-        <v>2001</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -1634,16 +1628,16 @@
         <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D34" t="s">
         <v>18</v>
       </c>
       <c r="E34">
-        <v>2002</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -1651,16 +1645,16 @@
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D35" t="s">
         <v>18</v>
       </c>
       <c r="E35">
-        <v>2003</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -1668,16 +1662,16 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D36" t="s">
         <v>18</v>
       </c>
       <c r="E36">
-        <v>2004</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -1685,16 +1679,16 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D37" t="s">
         <v>18</v>
       </c>
       <c r="E37">
-        <v>2005</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -1702,16 +1696,16 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D38" t="s">
         <v>18</v>
       </c>
       <c r="E38">
-        <v>2006</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -1719,16 +1713,31 @@
         <v>16</v>
       </c>
       <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39">
+        <v>2009</v>
+      </c>
+      <c r="G39">
+        <v>6894</v>
+      </c>
+      <c r="H39" t="s">
         <v>43</v>
       </c>
-      <c r="C39" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39">
-        <v>2007</v>
+      <c r="J39" t="s">
+        <v>44</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L39" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -1736,16 +1745,31 @@
         <v>16</v>
       </c>
       <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40">
+        <v>2010</v>
+      </c>
+      <c r="G40">
+        <v>6971</v>
+      </c>
+      <c r="H40" t="s">
         <v>43</v>
       </c>
-      <c r="C40" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40">
-        <v>2008</v>
+      <c r="J40" t="s">
+        <v>44</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L40" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -1753,31 +1777,31 @@
         <v>16</v>
       </c>
       <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41">
+        <v>2011</v>
+      </c>
+      <c r="G41">
+        <v>6977</v>
+      </c>
+      <c r="H41" t="s">
         <v>43</v>
       </c>
-      <c r="C41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41">
-        <v>2009</v>
-      </c>
-      <c r="G41">
-        <v>6894</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="J41" t="s">
+        <v>44</v>
+      </c>
+      <c r="K41" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J41" t="s">
+      <c r="L41" t="s">
         <v>46</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L41" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -1785,31 +1809,25 @@
         <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D42" t="s">
         <v>18</v>
       </c>
       <c r="E42">
-        <v>2010</v>
-      </c>
-      <c r="G42">
-        <v>6971</v>
-      </c>
-      <c r="H42" t="s">
+        <v>2012</v>
+      </c>
+      <c r="J42" t="s">
+        <v>44</v>
+      </c>
+      <c r="K42" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J42" t="s">
+      <c r="L42" t="s">
         <v>46</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L42" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -1817,31 +1835,16 @@
         <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D43" t="s">
         <v>18</v>
       </c>
       <c r="E43">
-        <v>2011</v>
-      </c>
-      <c r="G43">
-        <v>6977</v>
-      </c>
-      <c r="H43" t="s">
-        <v>45</v>
-      </c>
-      <c r="J43" t="s">
-        <v>46</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L43" t="s">
-        <v>48</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -1849,25 +1852,16 @@
         <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D44" t="s">
         <v>18</v>
       </c>
       <c r="E44">
-        <v>2012</v>
-      </c>
-      <c r="J44" t="s">
-        <v>46</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L44" t="s">
-        <v>48</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -1875,16 +1869,31 @@
         <v>16</v>
       </c>
       <c r="B45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45">
+        <v>2015</v>
+      </c>
+      <c r="G45">
+        <v>7233</v>
+      </c>
+      <c r="H45" t="s">
         <v>43</v>
       </c>
-      <c r="C45" t="s">
-        <v>33</v>
-      </c>
-      <c r="D45" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45">
-        <v>2013</v>
+      <c r="J45" t="s">
+        <v>44</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L45" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -1892,16 +1901,16 @@
         <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D46" t="s">
         <v>18</v>
       </c>
       <c r="E46">
-        <v>2014</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -1909,31 +1918,16 @@
         <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C47" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D47" t="s">
         <v>18</v>
       </c>
       <c r="E47">
-        <v>2015</v>
-      </c>
-      <c r="G47">
-        <v>7233</v>
-      </c>
-      <c r="H47" t="s">
-        <v>45</v>
-      </c>
-      <c r="J47" t="s">
-        <v>46</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L47" t="s">
-        <v>48</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -1941,16 +1935,16 @@
         <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D48" t="s">
         <v>18</v>
       </c>
       <c r="E48">
-        <v>2016</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -1958,16 +1952,31 @@
         <v>16</v>
       </c>
       <c r="B49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49">
+        <v>2019</v>
+      </c>
+      <c r="G49">
+        <v>8446</v>
+      </c>
+      <c r="H49" t="s">
         <v>43</v>
       </c>
-      <c r="C49" t="s">
-        <v>33</v>
-      </c>
-      <c r="D49" t="s">
-        <v>18</v>
-      </c>
-      <c r="E49">
-        <v>2017</v>
+      <c r="J49" t="s">
+        <v>44</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L49" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -1975,16 +1984,31 @@
         <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D50" t="s">
         <v>18</v>
       </c>
       <c r="E50">
-        <v>2018</v>
+        <v>1990</v>
+      </c>
+      <c r="G50">
+        <v>89670</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="J50" t="s">
+        <v>19</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L50" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -1992,31 +2016,31 @@
         <v>16</v>
       </c>
       <c r="B51" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D51" t="s">
         <v>18</v>
       </c>
       <c r="E51">
-        <v>2019</v>
+        <v>1991</v>
       </c>
       <c r="G51">
-        <v>8446</v>
+        <v>96480</v>
       </c>
       <c r="H51" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J51" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -2024,31 +2048,31 @@
         <v>16</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C52" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D52" t="s">
         <v>18</v>
       </c>
       <c r="E52">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="G52">
-        <v>89670</v>
+        <v>93770</v>
       </c>
       <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="J52" t="s">
+        <v>51</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L52" t="s">
         <v>49</v>
-      </c>
-      <c r="J52" t="s">
-        <v>19</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L52" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -2056,31 +2080,31 @@
         <v>16</v>
       </c>
       <c r="B53" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C53" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D53" t="s">
         <v>18</v>
       </c>
       <c r="E53">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="G53">
-        <v>96480</v>
+        <v>111790</v>
       </c>
       <c r="H53" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J53" t="s">
         <v>52</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L53" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -2088,31 +2112,31 @@
         <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C54" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D54" t="s">
         <v>18</v>
       </c>
       <c r="E54">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="G54">
-        <v>93770</v>
+        <v>124440</v>
       </c>
       <c r="H54" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J54" t="s">
         <v>53</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L54" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -2120,31 +2144,31 @@
         <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C55" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D55" t="s">
         <v>18</v>
       </c>
       <c r="E55">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="G55">
-        <v>111790</v>
+        <v>130390</v>
       </c>
       <c r="H55" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J55" t="s">
         <v>54</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L55" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
@@ -2152,31 +2176,31 @@
         <v>16</v>
       </c>
       <c r="B56" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C56" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D56" t="s">
         <v>18</v>
       </c>
       <c r="E56">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="G56">
-        <v>124440</v>
+        <v>123950</v>
       </c>
       <c r="H56" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J56" t="s">
         <v>55</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L56" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -2184,31 +2208,31 @@
         <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C57" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D57" t="s">
         <v>18</v>
       </c>
       <c r="E57">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="G57">
-        <v>130390</v>
+        <v>134670</v>
       </c>
       <c r="H57" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J57" t="s">
         <v>56</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L57" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
@@ -2216,31 +2240,31 @@
         <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C58" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D58" t="s">
         <v>18</v>
       </c>
       <c r="E58">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="G58">
-        <v>123950</v>
+        <v>156140</v>
       </c>
       <c r="H58" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J58" t="s">
         <v>57</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L58" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -2248,31 +2272,31 @@
         <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C59" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D59" t="s">
         <v>18</v>
       </c>
       <c r="E59">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="G59">
-        <v>134670</v>
+        <v>170250</v>
       </c>
       <c r="H59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J59" t="s">
         <v>58</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L59" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
@@ -2280,31 +2304,31 @@
         <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C60" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D60" t="s">
         <v>18</v>
       </c>
       <c r="E60">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="G60">
-        <v>156140</v>
+        <v>113040</v>
       </c>
       <c r="H60" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J60" t="s">
         <v>59</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L60" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
@@ -2312,31 +2336,31 @@
         <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C61" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D61" t="s">
         <v>18</v>
       </c>
       <c r="E61">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="G61">
-        <v>170250</v>
+        <v>124340</v>
       </c>
       <c r="H61" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J61" t="s">
         <v>60</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L61" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
@@ -2344,31 +2368,31 @@
         <v>16</v>
       </c>
       <c r="B62" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C62" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D62" t="s">
         <v>18</v>
       </c>
       <c r="E62">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="G62">
-        <v>113040</v>
+        <v>116310</v>
       </c>
       <c r="H62" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J62" t="s">
         <v>61</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L62" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
@@ -2376,31 +2400,31 @@
         <v>16</v>
       </c>
       <c r="B63" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C63" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D63" t="s">
         <v>18</v>
       </c>
       <c r="E63">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="G63">
-        <v>124340</v>
+        <v>119510</v>
       </c>
       <c r="H63" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J63" t="s">
         <v>62</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L63" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
@@ -2408,31 +2432,31 @@
         <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C64" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D64" t="s">
         <v>18</v>
       </c>
       <c r="E64">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="G64">
-        <v>116310</v>
+        <v>99930</v>
       </c>
       <c r="H64" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J64" t="s">
         <v>63</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L64" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
@@ -2440,31 +2464,31 @@
         <v>16</v>
       </c>
       <c r="B65" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C65" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D65" t="s">
         <v>18</v>
       </c>
       <c r="E65">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="G65">
-        <v>119510</v>
+        <v>115190</v>
       </c>
       <c r="H65" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J65" t="s">
         <v>64</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L65" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
@@ -2472,31 +2496,31 @@
         <v>16</v>
       </c>
       <c r="B66" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C66" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D66" t="s">
         <v>18</v>
       </c>
       <c r="E66">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="G66">
-        <v>99930</v>
+        <v>111960</v>
       </c>
       <c r="H66" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J66" t="s">
         <v>65</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L66" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
@@ -2504,31 +2528,31 @@
         <v>16</v>
       </c>
       <c r="B67" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C67" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D67" t="s">
         <v>18</v>
       </c>
       <c r="E67">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="G67">
-        <v>115190</v>
+        <v>132770</v>
       </c>
       <c r="H67" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J67" t="s">
         <v>66</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L67" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -2536,31 +2560,31 @@
         <v>16</v>
       </c>
       <c r="B68" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C68" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D68" t="s">
         <v>18</v>
       </c>
       <c r="E68">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="G68">
-        <v>111960</v>
+        <v>117850</v>
       </c>
       <c r="H68" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J68" t="s">
         <v>67</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L68" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
@@ -2568,31 +2592,31 @@
         <v>16</v>
       </c>
       <c r="B69" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C69" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D69" t="s">
         <v>18</v>
       </c>
       <c r="E69">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="G69">
-        <v>132770</v>
+        <v>120690</v>
       </c>
       <c r="H69" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J69" t="s">
         <v>68</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L69" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
@@ -2600,31 +2624,31 @@
         <v>16</v>
       </c>
       <c r="B70" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D70" t="s">
         <v>18</v>
       </c>
       <c r="E70">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="G70">
-        <v>117850</v>
+        <v>118370</v>
       </c>
       <c r="H70" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J70" t="s">
         <v>69</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L70" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
@@ -2632,31 +2656,31 @@
         <v>16</v>
       </c>
       <c r="B71" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D71" t="s">
         <v>18</v>
       </c>
       <c r="E71">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="G71">
-        <v>120690</v>
+        <v>116050</v>
       </c>
       <c r="H71" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J71" t="s">
         <v>70</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L71" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
@@ -2664,31 +2688,31 @@
         <v>16</v>
       </c>
       <c r="B72" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C72" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D72" t="s">
         <v>18</v>
       </c>
       <c r="E72">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="G72">
-        <v>118370</v>
+        <v>121500</v>
       </c>
       <c r="H72" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J72" t="s">
         <v>71</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L72" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
@@ -2696,31 +2720,31 @@
         <v>16</v>
       </c>
       <c r="B73" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C73" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D73" t="s">
         <v>18</v>
       </c>
       <c r="E73">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="G73">
-        <v>116050</v>
+        <v>116170</v>
       </c>
       <c r="H73" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J73" t="s">
         <v>72</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L73" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
@@ -2728,31 +2752,31 @@
         <v>16</v>
       </c>
       <c r="B74" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C74" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D74" t="s">
         <v>18</v>
       </c>
       <c r="E74">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="G74">
-        <v>121500</v>
+        <v>122480</v>
       </c>
       <c r="H74" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J74" t="s">
         <v>73</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L74" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
@@ -2760,31 +2784,31 @@
         <v>16</v>
       </c>
       <c r="B75" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C75" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D75" t="s">
         <v>18</v>
       </c>
       <c r="E75">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="G75">
-        <v>116170</v>
+        <v>126240</v>
       </c>
       <c r="H75" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J75" t="s">
         <v>74</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L75" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
@@ -2792,31 +2816,31 @@
         <v>16</v>
       </c>
       <c r="B76" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C76" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D76" t="s">
         <v>18</v>
       </c>
       <c r="E76">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="G76">
-        <v>122480</v>
+        <v>108620</v>
       </c>
       <c r="H76" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J76" t="s">
         <v>75</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L76" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
@@ -2824,31 +2848,31 @@
         <v>16</v>
       </c>
       <c r="B77" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C77" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D77" t="s">
         <v>18</v>
       </c>
       <c r="E77">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="G77">
-        <v>126240</v>
+        <v>111410</v>
       </c>
       <c r="H77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J77" t="s">
         <v>76</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L77" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -2856,31 +2880,31 @@
         <v>16</v>
       </c>
       <c r="B78" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C78" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D78" t="s">
         <v>18</v>
       </c>
       <c r="E78">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="G78">
-        <v>108620</v>
+        <v>117390</v>
       </c>
       <c r="H78" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J78" t="s">
         <v>77</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L78" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -2888,31 +2912,31 @@
         <v>16</v>
       </c>
       <c r="B79" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C79" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D79" t="s">
         <v>18</v>
       </c>
       <c r="E79">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="G79">
-        <v>111410</v>
+        <v>128750</v>
       </c>
       <c r="H79" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J79" t="s">
         <v>78</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L79" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -2920,31 +2944,31 @@
         <v>16</v>
       </c>
       <c r="B80" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D80" t="s">
         <v>18</v>
       </c>
       <c r="E80">
-        <v>2018</v>
+        <v>1990</v>
       </c>
       <c r="G80">
-        <v>117390</v>
+        <v>82080</v>
       </c>
       <c r="H80" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J80" t="s">
         <v>79</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L80" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
@@ -2952,31 +2976,31 @@
         <v>16</v>
       </c>
       <c r="B81" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D81" t="s">
         <v>18</v>
       </c>
       <c r="E81">
-        <v>2019</v>
+        <v>1991</v>
       </c>
       <c r="G81">
-        <v>128750</v>
+        <v>86420</v>
       </c>
       <c r="H81" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J81" t="s">
+        <v>81</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L81" t="s">
         <v>80</v>
-      </c>
-      <c r="K81" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L81" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
@@ -2984,31 +3008,31 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C82" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D82" t="s">
         <v>18</v>
       </c>
       <c r="E82">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="G82">
-        <v>82080</v>
+        <v>78330</v>
       </c>
       <c r="H82" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J82" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L82" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
@@ -3016,31 +3040,31 @@
         <v>16</v>
       </c>
       <c r="B83" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C83" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D83" t="s">
         <v>18</v>
       </c>
       <c r="E83">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="G83">
-        <v>86420</v>
+        <v>85870</v>
       </c>
       <c r="H83" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J83" t="s">
         <v>83</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L83" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
@@ -3048,31 +3072,31 @@
         <v>16</v>
       </c>
       <c r="B84" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C84" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D84" t="s">
         <v>18</v>
       </c>
       <c r="E84">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="G84">
-        <v>78330</v>
+        <v>81800</v>
       </c>
       <c r="H84" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J84" t="s">
         <v>84</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L84" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
@@ -3080,31 +3104,31 @@
         <v>16</v>
       </c>
       <c r="B85" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C85" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D85" t="s">
         <v>18</v>
       </c>
       <c r="E85">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="G85">
-        <v>85870</v>
+        <v>104210</v>
       </c>
       <c r="H85" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J85" t="s">
         <v>85</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L85" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
@@ -3112,31 +3136,31 @@
         <v>16</v>
       </c>
       <c r="B86" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C86" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D86" t="s">
         <v>18</v>
       </c>
       <c r="E86">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="G86">
-        <v>81800</v>
+        <v>120550</v>
       </c>
       <c r="H86" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J86" t="s">
         <v>86</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L86" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
@@ -3144,31 +3168,31 @@
         <v>16</v>
       </c>
       <c r="B87" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C87" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D87" t="s">
         <v>18</v>
       </c>
       <c r="E87">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="G87">
-        <v>104210</v>
+        <v>110360</v>
       </c>
       <c r="H87" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J87" t="s">
         <v>87</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L87" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
@@ -3176,31 +3200,31 @@
         <v>16</v>
       </c>
       <c r="B88" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C88" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D88" t="s">
         <v>18</v>
       </c>
       <c r="E88">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="G88">
-        <v>120550</v>
+        <v>134710</v>
       </c>
       <c r="H88" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J88" t="s">
         <v>88</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L88" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
@@ -3208,31 +3232,31 @@
         <v>16</v>
       </c>
       <c r="B89" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C89" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D89" t="s">
         <v>18</v>
       </c>
       <c r="E89">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="G89">
-        <v>110360</v>
+        <v>133430</v>
       </c>
       <c r="H89" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J89" t="s">
         <v>89</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L89" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
@@ -3240,31 +3264,31 @@
         <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C90" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D90" t="s">
         <v>18</v>
       </c>
       <c r="E90">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="G90">
-        <v>134710</v>
+        <v>87590</v>
       </c>
       <c r="H90" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J90" t="s">
         <v>90</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L90" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -3272,31 +3296,31 @@
         <v>16</v>
       </c>
       <c r="B91" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C91" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D91" t="s">
         <v>18</v>
       </c>
       <c r="E91">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="G91">
-        <v>133430</v>
+        <v>86750</v>
       </c>
       <c r="H91" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J91" t="s">
         <v>91</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L91" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
@@ -3304,31 +3328,31 @@
         <v>16</v>
       </c>
       <c r="B92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C92" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D92" t="s">
         <v>18</v>
       </c>
       <c r="E92">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="G92">
-        <v>87590</v>
+        <v>100080</v>
       </c>
       <c r="H92" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J92" t="s">
         <v>92</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L92" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
@@ -3336,31 +3360,31 @@
         <v>16</v>
       </c>
       <c r="B93" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C93" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D93" t="s">
         <v>18</v>
       </c>
       <c r="E93">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="G93">
-        <v>86750</v>
+        <v>108300</v>
       </c>
       <c r="H93" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J93" t="s">
         <v>93</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L93" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
@@ -3368,31 +3392,31 @@
         <v>16</v>
       </c>
       <c r="B94" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C94" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D94" t="s">
         <v>18</v>
       </c>
       <c r="E94">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="G94">
-        <v>100080</v>
+        <v>97400</v>
       </c>
       <c r="H94" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J94" t="s">
         <v>94</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L94" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
@@ -3400,31 +3424,31 @@
         <v>16</v>
       </c>
       <c r="B95" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C95" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D95" t="s">
         <v>18</v>
       </c>
       <c r="E95">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="G95">
-        <v>108300</v>
+        <v>138050</v>
       </c>
       <c r="H95" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J95" t="s">
         <v>95</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L95" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
@@ -3432,31 +3456,31 @@
         <v>16</v>
       </c>
       <c r="B96" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C96" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D96" t="s">
         <v>18</v>
       </c>
       <c r="E96">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="G96">
-        <v>97400</v>
+        <v>121690</v>
       </c>
       <c r="H96" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J96" t="s">
         <v>96</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L96" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
@@ -3464,31 +3488,31 @@
         <v>16</v>
       </c>
       <c r="B97" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C97" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D97" t="s">
         <v>18</v>
       </c>
       <c r="E97">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="G97">
-        <v>138050</v>
+        <v>125340</v>
       </c>
       <c r="H97" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J97" t="s">
         <v>97</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L97" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
@@ -3496,31 +3520,31 @@
         <v>16</v>
       </c>
       <c r="B98" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C98" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D98" t="s">
         <v>18</v>
       </c>
       <c r="E98">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="G98">
-        <v>121690</v>
+        <v>113760</v>
       </c>
       <c r="H98" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J98" t="s">
         <v>98</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L98" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
@@ -3528,31 +3552,31 @@
         <v>16</v>
       </c>
       <c r="B99" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C99" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D99" t="s">
         <v>18</v>
       </c>
       <c r="E99">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="G99">
-        <v>125340</v>
+        <v>112920</v>
       </c>
       <c r="H99" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J99" t="s">
         <v>99</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L99" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
@@ -3560,31 +3584,31 @@
         <v>16</v>
       </c>
       <c r="B100" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C100" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D100" t="s">
         <v>18</v>
       </c>
       <c r="E100">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="G100">
-        <v>113760</v>
+        <v>120240</v>
       </c>
       <c r="H100" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J100" t="s">
         <v>100</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L100" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
@@ -3592,31 +3616,31 @@
         <v>16</v>
       </c>
       <c r="B101" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C101" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D101" t="s">
         <v>18</v>
       </c>
       <c r="E101">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="G101">
-        <v>112920</v>
+        <v>125370</v>
       </c>
       <c r="H101" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J101" t="s">
         <v>101</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L101" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
@@ -3624,31 +3648,31 @@
         <v>16</v>
       </c>
       <c r="B102" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C102" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D102" t="s">
         <v>18</v>
       </c>
       <c r="E102">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="G102">
-        <v>120240</v>
+        <v>113580</v>
       </c>
       <c r="H102" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J102" t="s">
         <v>102</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L102" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
@@ -3656,31 +3680,31 @@
         <v>16</v>
       </c>
       <c r="B103" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C103" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D103" t="s">
         <v>18</v>
       </c>
       <c r="E103">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="G103">
-        <v>125370</v>
+        <v>107550</v>
       </c>
       <c r="H103" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J103" t="s">
         <v>103</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L103" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
@@ -3688,31 +3712,31 @@
         <v>16</v>
       </c>
       <c r="B104" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C104" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D104" t="s">
         <v>18</v>
       </c>
       <c r="E104">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="G104">
-        <v>113580</v>
+        <v>102710</v>
       </c>
       <c r="H104" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J104" t="s">
         <v>104</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L104" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
@@ -3720,31 +3744,31 @@
         <v>16</v>
       </c>
       <c r="B105" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C105" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D105" t="s">
         <v>18</v>
       </c>
       <c r="E105">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="G105">
-        <v>107550</v>
+        <v>122520</v>
       </c>
       <c r="H105" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J105" t="s">
         <v>105</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L105" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
@@ -3752,31 +3776,31 @@
         <v>16</v>
       </c>
       <c r="B106" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C106" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D106" t="s">
         <v>18</v>
       </c>
       <c r="E106">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="G106">
-        <v>102710</v>
+        <v>122750</v>
       </c>
       <c r="H106" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J106" t="s">
         <v>106</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L106" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
@@ -3784,31 +3808,31 @@
         <v>16</v>
       </c>
       <c r="B107" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C107" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D107" t="s">
         <v>18</v>
       </c>
       <c r="E107">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="G107">
-        <v>122520</v>
+        <v>131390</v>
       </c>
       <c r="H107" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J107" t="s">
         <v>107</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L107" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
@@ -3816,31 +3840,31 @@
         <v>16</v>
       </c>
       <c r="B108" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C108" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D108" t="s">
         <v>18</v>
       </c>
       <c r="E108">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="G108">
-        <v>122750</v>
+        <v>111670</v>
       </c>
       <c r="H108" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J108" t="s">
         <v>108</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L108" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
@@ -3848,31 +3872,31 @@
         <v>16</v>
       </c>
       <c r="B109" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C109" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D109" t="s">
         <v>18</v>
       </c>
       <c r="E109">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="G109">
-        <v>131390</v>
+        <v>106220</v>
       </c>
       <c r="H109" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J109" t="s">
         <v>109</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L109" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
@@ -3880,31 +3904,28 @@
         <v>16</v>
       </c>
       <c r="B110" t="s">
+        <v>41</v>
+      </c>
+      <c r="C110" t="s">
+        <v>34</v>
+      </c>
+      <c r="D110" t="s">
+        <v>18</v>
+      </c>
+      <c r="E110">
+        <v>1990</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110" t="s">
         <v>43</v>
-      </c>
-      <c r="C110" t="s">
-        <v>35</v>
-      </c>
-      <c r="D110" t="s">
-        <v>18</v>
-      </c>
-      <c r="E110">
-        <v>2018</v>
-      </c>
-      <c r="G110">
-        <v>111670</v>
-      </c>
-      <c r="H110" t="s">
-        <v>49</v>
       </c>
       <c r="J110" t="s">
         <v>110</v>
       </c>
-      <c r="K110" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="L110" t="s">
-        <v>82</v>
+        <v>172</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
@@ -3912,31 +3933,22 @@
         <v>16</v>
       </c>
       <c r="B111" t="s">
+        <v>41</v>
+      </c>
+      <c r="C111" t="s">
+        <v>34</v>
+      </c>
+      <c r="D111" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111">
+        <v>1991</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111" t="s">
         <v>43</v>
-      </c>
-      <c r="C111" t="s">
-        <v>35</v>
-      </c>
-      <c r="D111" t="s">
-        <v>18</v>
-      </c>
-      <c r="E111">
-        <v>2019</v>
-      </c>
-      <c r="G111">
-        <v>106220</v>
-      </c>
-      <c r="H111" t="s">
-        <v>49</v>
-      </c>
-      <c r="J111" t="s">
-        <v>111</v>
-      </c>
-      <c r="K111" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L111" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
@@ -3944,28 +3956,22 @@
         <v>16</v>
       </c>
       <c r="B112" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C112" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D112" t="s">
         <v>18</v>
       </c>
       <c r="E112">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="G112">
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>45</v>
-      </c>
-      <c r="J112" t="s">
-        <v>112</v>
-      </c>
-      <c r="L112" t="s">
-        <v>174</v>
+        <v>43</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
@@ -3973,22 +3979,22 @@
         <v>16</v>
       </c>
       <c r="B113" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C113" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D113" t="s">
         <v>18</v>
       </c>
       <c r="E113">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="G113">
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
@@ -3996,22 +4002,22 @@
         <v>16</v>
       </c>
       <c r="B114" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C114" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D114" t="s">
         <v>18</v>
       </c>
       <c r="E114">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="G114">
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
@@ -4019,22 +4025,22 @@
         <v>16</v>
       </c>
       <c r="B115" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C115" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D115" t="s">
         <v>18</v>
       </c>
       <c r="E115">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="G115">
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
@@ -4042,22 +4048,22 @@
         <v>16</v>
       </c>
       <c r="B116" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C116" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D116" t="s">
         <v>18</v>
       </c>
       <c r="E116">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="G116">
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
@@ -4065,22 +4071,22 @@
         <v>16</v>
       </c>
       <c r="B117" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C117" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D117" t="s">
         <v>18</v>
       </c>
       <c r="E117">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="G117">
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
@@ -4088,22 +4094,22 @@
         <v>16</v>
       </c>
       <c r="B118" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C118" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D118" t="s">
         <v>18</v>
       </c>
       <c r="E118">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="G118">
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
@@ -4111,22 +4117,22 @@
         <v>16</v>
       </c>
       <c r="B119" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C119" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D119" t="s">
         <v>18</v>
       </c>
       <c r="E119">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="G119">
         <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
@@ -4134,22 +4140,22 @@
         <v>16</v>
       </c>
       <c r="B120" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C120" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D120" t="s">
         <v>18</v>
       </c>
       <c r="E120">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="G120">
         <v>0</v>
       </c>
       <c r="H120" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
@@ -4157,22 +4163,22 @@
         <v>16</v>
       </c>
       <c r="B121" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C121" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D121" t="s">
         <v>18</v>
       </c>
       <c r="E121">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="G121">
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
@@ -4180,22 +4186,22 @@
         <v>16</v>
       </c>
       <c r="B122" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C122" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D122" t="s">
         <v>18</v>
       </c>
       <c r="E122">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="G122">
         <v>0</v>
       </c>
       <c r="H122" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
@@ -4203,22 +4209,22 @@
         <v>16</v>
       </c>
       <c r="B123" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C123" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D123" t="s">
         <v>18</v>
       </c>
       <c r="E123">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="G123">
         <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
@@ -4226,22 +4232,22 @@
         <v>16</v>
       </c>
       <c r="B124" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C124" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D124" t="s">
         <v>18</v>
       </c>
       <c r="E124">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="G124">
         <v>0</v>
       </c>
       <c r="H124" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
@@ -4249,22 +4255,22 @@
         <v>16</v>
       </c>
       <c r="B125" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C125" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D125" t="s">
         <v>18</v>
       </c>
       <c r="E125">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="G125">
         <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
@@ -4272,22 +4278,22 @@
         <v>16</v>
       </c>
       <c r="B126" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C126" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D126" t="s">
         <v>18</v>
       </c>
       <c r="E126">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="G126">
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
@@ -4295,22 +4301,22 @@
         <v>16</v>
       </c>
       <c r="B127" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C127" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D127" t="s">
         <v>18</v>
       </c>
       <c r="E127">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="G127">
         <v>0</v>
       </c>
       <c r="H127" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
@@ -4318,22 +4324,22 @@
         <v>16</v>
       </c>
       <c r="B128" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C128" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D128" t="s">
         <v>18</v>
       </c>
       <c r="E128">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="G128">
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
@@ -4341,22 +4347,29 @@
         <v>16</v>
       </c>
       <c r="B129" t="s">
+        <v>41</v>
+      </c>
+      <c r="C129" t="s">
+        <v>34</v>
+      </c>
+      <c r="D129" t="s">
+        <v>18</v>
+      </c>
+      <c r="E129">
+        <v>2009</v>
+      </c>
+      <c r="G129">
+        <v>354</v>
+      </c>
+      <c r="H129" t="s">
         <v>43</v>
       </c>
-      <c r="C129" t="s">
-        <v>36</v>
-      </c>
-      <c r="D129" t="s">
-        <v>18</v>
-      </c>
-      <c r="E129">
-        <v>2007</v>
-      </c>
-      <c r="G129">
-        <v>0</v>
-      </c>
-      <c r="H129" t="s">
-        <v>45</v>
+      <c r="J129" t="s">
+        <v>110</v>
+      </c>
+      <c r="K129" s="2"/>
+      <c r="L129" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
@@ -4364,22 +4377,29 @@
         <v>16</v>
       </c>
       <c r="B130" t="s">
+        <v>41</v>
+      </c>
+      <c r="C130" t="s">
+        <v>34</v>
+      </c>
+      <c r="D130" t="s">
+        <v>18</v>
+      </c>
+      <c r="E130">
+        <v>2010</v>
+      </c>
+      <c r="G130">
+        <v>77</v>
+      </c>
+      <c r="H130" t="s">
         <v>43</v>
       </c>
-      <c r="C130" t="s">
-        <v>36</v>
-      </c>
-      <c r="D130" t="s">
-        <v>18</v>
-      </c>
-      <c r="E130">
-        <v>2008</v>
-      </c>
-      <c r="G130">
-        <v>0</v>
-      </c>
-      <c r="H130" t="s">
-        <v>45</v>
+      <c r="J130" t="s">
+        <v>110</v>
+      </c>
+      <c r="K130" s="2"/>
+      <c r="L130" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
@@ -4387,29 +4407,29 @@
         <v>16</v>
       </c>
       <c r="B131" t="s">
+        <v>41</v>
+      </c>
+      <c r="C131" t="s">
+        <v>34</v>
+      </c>
+      <c r="D131" t="s">
+        <v>18</v>
+      </c>
+      <c r="E131">
+        <v>2011</v>
+      </c>
+      <c r="G131">
+        <v>6</v>
+      </c>
+      <c r="H131" t="s">
         <v>43</v>
       </c>
-      <c r="C131" t="s">
-        <v>36</v>
-      </c>
-      <c r="D131" t="s">
-        <v>18</v>
-      </c>
-      <c r="E131">
-        <v>2009</v>
-      </c>
-      <c r="G131">
-        <v>354</v>
-      </c>
-      <c r="H131" t="s">
-        <v>45</v>
-      </c>
       <c r="J131" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K131" s="2"/>
       <c r="L131" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
@@ -4417,29 +4437,29 @@
         <v>16</v>
       </c>
       <c r="B132" t="s">
+        <v>41</v>
+      </c>
+      <c r="C132" t="s">
+        <v>34</v>
+      </c>
+      <c r="D132" t="s">
+        <v>18</v>
+      </c>
+      <c r="E132">
+        <v>2012</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132" t="s">
         <v>43</v>
       </c>
-      <c r="C132" t="s">
-        <v>36</v>
-      </c>
-      <c r="D132" t="s">
-        <v>18</v>
-      </c>
-      <c r="E132">
-        <v>2010</v>
-      </c>
-      <c r="G132">
-        <v>77</v>
-      </c>
-      <c r="H132" t="s">
-        <v>45</v>
-      </c>
       <c r="J132" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K132" s="2"/>
       <c r="L132" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
@@ -4447,29 +4467,22 @@
         <v>16</v>
       </c>
       <c r="B133" t="s">
+        <v>41</v>
+      </c>
+      <c r="C133" t="s">
+        <v>34</v>
+      </c>
+      <c r="D133" t="s">
+        <v>18</v>
+      </c>
+      <c r="E133">
+        <v>2013</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133" t="s">
         <v>43</v>
-      </c>
-      <c r="C133" t="s">
-        <v>36</v>
-      </c>
-      <c r="D133" t="s">
-        <v>18</v>
-      </c>
-      <c r="E133">
-        <v>2011</v>
-      </c>
-      <c r="G133">
-        <v>6</v>
-      </c>
-      <c r="H133" t="s">
-        <v>45</v>
-      </c>
-      <c r="J133" t="s">
-        <v>112</v>
-      </c>
-      <c r="K133" s="2"/>
-      <c r="L133" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
@@ -4477,29 +4490,22 @@
         <v>16</v>
       </c>
       <c r="B134" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C134" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D134" t="s">
         <v>18</v>
       </c>
       <c r="E134">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="G134">
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>45</v>
-      </c>
-      <c r="J134" t="s">
-        <v>112</v>
-      </c>
-      <c r="K134" s="2"/>
-      <c r="L134" t="s">
-        <v>173</v>
+        <v>43</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
@@ -4507,22 +4513,29 @@
         <v>16</v>
       </c>
       <c r="B135" t="s">
+        <v>41</v>
+      </c>
+      <c r="C135" t="s">
+        <v>34</v>
+      </c>
+      <c r="D135" t="s">
+        <v>18</v>
+      </c>
+      <c r="E135">
+        <v>2015</v>
+      </c>
+      <c r="G135">
+        <v>256</v>
+      </c>
+      <c r="H135" t="s">
         <v>43</v>
       </c>
-      <c r="C135" t="s">
-        <v>36</v>
-      </c>
-      <c r="D135" t="s">
-        <v>18</v>
-      </c>
-      <c r="E135">
-        <v>2013</v>
-      </c>
-      <c r="G135">
-        <v>0</v>
-      </c>
-      <c r="H135" t="s">
-        <v>45</v>
+      <c r="J135" t="s">
+        <v>110</v>
+      </c>
+      <c r="K135" s="2"/>
+      <c r="L135" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
@@ -4530,22 +4543,22 @@
         <v>16</v>
       </c>
       <c r="B136" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C136" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D136" t="s">
         <v>18</v>
       </c>
       <c r="E136">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="G136">
         <v>0</v>
       </c>
       <c r="H136" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
@@ -4553,29 +4566,22 @@
         <v>16</v>
       </c>
       <c r="B137" t="s">
+        <v>41</v>
+      </c>
+      <c r="C137" t="s">
+        <v>34</v>
+      </c>
+      <c r="D137" t="s">
+        <v>18</v>
+      </c>
+      <c r="E137">
+        <v>2017</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137" t="s">
         <v>43</v>
-      </c>
-      <c r="C137" t="s">
-        <v>36</v>
-      </c>
-      <c r="D137" t="s">
-        <v>18</v>
-      </c>
-      <c r="E137">
-        <v>2015</v>
-      </c>
-      <c r="G137">
-        <v>256</v>
-      </c>
-      <c r="H137" t="s">
-        <v>45</v>
-      </c>
-      <c r="J137" t="s">
-        <v>112</v>
-      </c>
-      <c r="K137" s="2"/>
-      <c r="L137" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
@@ -4583,22 +4589,22 @@
         <v>16</v>
       </c>
       <c r="B138" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C138" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D138" t="s">
         <v>18</v>
       </c>
       <c r="E138">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="G138">
         <v>0</v>
       </c>
       <c r="H138" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
@@ -4606,22 +4612,29 @@
         <v>16</v>
       </c>
       <c r="B139" t="s">
+        <v>41</v>
+      </c>
+      <c r="C139" t="s">
+        <v>34</v>
+      </c>
+      <c r="D139" t="s">
+        <v>18</v>
+      </c>
+      <c r="E139">
+        <v>2019</v>
+      </c>
+      <c r="G139">
+        <v>1213</v>
+      </c>
+      <c r="H139" t="s">
         <v>43</v>
       </c>
-      <c r="C139" t="s">
-        <v>36</v>
-      </c>
-      <c r="D139" t="s">
-        <v>18</v>
-      </c>
-      <c r="E139">
-        <v>2017</v>
-      </c>
-      <c r="G139">
-        <v>0</v>
-      </c>
-      <c r="H139" t="s">
-        <v>45</v>
+      <c r="J139" t="s">
+        <v>110</v>
+      </c>
+      <c r="K139" s="2"/>
+      <c r="L139" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
@@ -4629,22 +4642,16 @@
         <v>16</v>
       </c>
       <c r="B140" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C140" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D140" t="s">
         <v>18</v>
       </c>
       <c r="E140">
-        <v>2018</v>
-      </c>
-      <c r="G140">
-        <v>0</v>
-      </c>
-      <c r="H140" t="s">
-        <v>45</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
@@ -4652,29 +4659,16 @@
         <v>16</v>
       </c>
       <c r="B141" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C141" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D141" t="s">
         <v>18</v>
       </c>
       <c r="E141">
-        <v>2019</v>
-      </c>
-      <c r="G141">
-        <v>1213</v>
-      </c>
-      <c r="H141" t="s">
-        <v>45</v>
-      </c>
-      <c r="J141" t="s">
-        <v>112</v>
-      </c>
-      <c r="K141" s="2"/>
-      <c r="L141" t="s">
-        <v>173</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
@@ -4682,16 +4676,16 @@
         <v>16</v>
       </c>
       <c r="B142" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C142" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D142" t="s">
         <v>18</v>
       </c>
       <c r="E142">
-        <v>1990</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
@@ -4699,16 +4693,16 @@
         <v>16</v>
       </c>
       <c r="B143" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C143" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D143" t="s">
         <v>18</v>
       </c>
       <c r="E143">
-        <v>1991</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
@@ -4716,16 +4710,16 @@
         <v>16</v>
       </c>
       <c r="B144" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C144" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D144" t="s">
         <v>18</v>
       </c>
       <c r="E144">
-        <v>1992</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
@@ -4733,16 +4727,16 @@
         <v>16</v>
       </c>
       <c r="B145" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C145" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D145" t="s">
         <v>18</v>
       </c>
       <c r="E145">
-        <v>1993</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
@@ -4750,16 +4744,16 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C146" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D146" t="s">
         <v>18</v>
       </c>
       <c r="E146">
-        <v>1994</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -4767,16 +4761,16 @@
         <v>16</v>
       </c>
       <c r="B147" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C147" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D147" t="s">
         <v>18</v>
       </c>
       <c r="E147">
-        <v>1995</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
@@ -4784,16 +4778,16 @@
         <v>16</v>
       </c>
       <c r="B148" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C148" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D148" t="s">
         <v>18</v>
       </c>
       <c r="E148">
-        <v>1996</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
@@ -4801,16 +4795,16 @@
         <v>16</v>
       </c>
       <c r="B149" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C149" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D149" t="s">
         <v>18</v>
       </c>
       <c r="E149">
-        <v>1997</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -4818,16 +4812,16 @@
         <v>16</v>
       </c>
       <c r="B150" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C150" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D150" t="s">
         <v>18</v>
       </c>
       <c r="E150">
-        <v>1998</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
@@ -4835,16 +4829,16 @@
         <v>16</v>
       </c>
       <c r="B151" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C151" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D151" t="s">
         <v>18</v>
       </c>
       <c r="E151">
-        <v>1999</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -4852,16 +4846,16 @@
         <v>16</v>
       </c>
       <c r="B152" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C152" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D152" t="s">
         <v>18</v>
       </c>
       <c r="E152">
-        <v>2000</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
@@ -4869,16 +4863,16 @@
         <v>16</v>
       </c>
       <c r="B153" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C153" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D153" t="s">
         <v>18</v>
       </c>
       <c r="E153">
-        <v>2001</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
@@ -4886,16 +4880,16 @@
         <v>16</v>
       </c>
       <c r="B154" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C154" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D154" t="s">
         <v>18</v>
       </c>
       <c r="E154">
-        <v>2002</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -4903,16 +4897,16 @@
         <v>16</v>
       </c>
       <c r="B155" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C155" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D155" t="s">
         <v>18</v>
       </c>
       <c r="E155">
-        <v>2003</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
@@ -4920,16 +4914,16 @@
         <v>16</v>
       </c>
       <c r="B156" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C156" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D156" t="s">
         <v>18</v>
       </c>
       <c r="E156">
-        <v>2004</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
@@ -4937,16 +4931,16 @@
         <v>16</v>
       </c>
       <c r="B157" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C157" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D157" t="s">
         <v>18</v>
       </c>
       <c r="E157">
-        <v>2005</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
@@ -4954,16 +4948,16 @@
         <v>16</v>
       </c>
       <c r="B158" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C158" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D158" t="s">
         <v>18</v>
       </c>
       <c r="E158">
-        <v>2006</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
@@ -4971,16 +4965,16 @@
         <v>16</v>
       </c>
       <c r="B159" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C159" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D159" t="s">
         <v>18</v>
       </c>
       <c r="E159">
-        <v>2007</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
@@ -4988,16 +4982,16 @@
         <v>16</v>
       </c>
       <c r="B160" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C160" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D160" t="s">
         <v>18</v>
       </c>
       <c r="E160">
-        <v>2008</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
@@ -5005,16 +4999,16 @@
         <v>16</v>
       </c>
       <c r="B161" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C161" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D161" t="s">
         <v>18</v>
       </c>
       <c r="E161">
-        <v>2009</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
@@ -5022,16 +5016,16 @@
         <v>16</v>
       </c>
       <c r="B162" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C162" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D162" t="s">
         <v>18</v>
       </c>
       <c r="E162">
-        <v>2010</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
@@ -5039,16 +5033,25 @@
         <v>16</v>
       </c>
       <c r="B163" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C163" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D163" t="s">
         <v>18</v>
       </c>
       <c r="E163">
-        <v>2011</v>
+        <v>2013</v>
+      </c>
+      <c r="G163">
+        <v>3.2</v>
+      </c>
+      <c r="H163" t="s">
+        <v>120</v>
+      </c>
+      <c r="I163" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
@@ -5056,16 +5059,16 @@
         <v>16</v>
       </c>
       <c r="B164" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C164" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D164" t="s">
         <v>18</v>
       </c>
       <c r="E164">
-        <v>2012</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
@@ -5073,25 +5076,16 @@
         <v>16</v>
       </c>
       <c r="B165" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C165" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D165" t="s">
         <v>18</v>
       </c>
       <c r="E165">
-        <v>2013</v>
-      </c>
-      <c r="G165">
-        <v>3.2</v>
-      </c>
-      <c r="H165" t="s">
-        <v>122</v>
-      </c>
-      <c r="I165" t="s">
-        <v>119</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
@@ -5099,16 +5093,16 @@
         <v>16</v>
       </c>
       <c r="B166" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C166" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D166" t="s">
         <v>18</v>
       </c>
       <c r="E166">
-        <v>2014</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
@@ -5116,16 +5110,16 @@
         <v>16</v>
       </c>
       <c r="B167" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C167" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D167" t="s">
         <v>18</v>
       </c>
       <c r="E167">
-        <v>2015</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
@@ -5133,16 +5127,16 @@
         <v>16</v>
       </c>
       <c r="B168" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C168" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D168" t="s">
         <v>18</v>
       </c>
       <c r="E168">
-        <v>2016</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
@@ -5150,16 +5144,16 @@
         <v>16</v>
       </c>
       <c r="B169" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C169" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D169" t="s">
         <v>18</v>
       </c>
       <c r="E169">
-        <v>2017</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
@@ -5167,16 +5161,22 @@
         <v>16</v>
       </c>
       <c r="B170" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C170" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D170" t="s">
         <v>18</v>
       </c>
       <c r="E170">
-        <v>2018</v>
+        <v>1990</v>
+      </c>
+      <c r="G170">
+        <v>37.762500000000003</v>
+      </c>
+      <c r="H170" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
@@ -5184,16 +5184,22 @@
         <v>16</v>
       </c>
       <c r="B171" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C171" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D171" t="s">
         <v>18</v>
       </c>
       <c r="E171">
-        <v>2019</v>
+        <v>1991</v>
+      </c>
+      <c r="G171">
+        <v>37.762500000000003</v>
+      </c>
+      <c r="H171" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
@@ -5201,19 +5207,19 @@
         <v>16</v>
       </c>
       <c r="B172" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C172" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D172" t="s">
         <v>18</v>
       </c>
       <c r="E172">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="G172">
-        <v>37.762500000000003</v>
+        <v>39.137500000000003</v>
       </c>
       <c r="H172" t="s">
         <v>123</v>
@@ -5224,19 +5230,19 @@
         <v>16</v>
       </c>
       <c r="B173" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C173" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D173" t="s">
         <v>18</v>
       </c>
       <c r="E173">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="G173">
-        <v>37.762500000000003</v>
+        <v>38.424999999999997</v>
       </c>
       <c r="H173" t="s">
         <v>124</v>
@@ -5247,19 +5253,19 @@
         <v>16</v>
       </c>
       <c r="B174" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C174" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D174" t="s">
         <v>18</v>
       </c>
       <c r="E174">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="G174">
-        <v>39.137500000000003</v>
+        <v>38.024999999999999</v>
       </c>
       <c r="H174" t="s">
         <v>125</v>
@@ -5270,19 +5276,19 @@
         <v>16</v>
       </c>
       <c r="B175" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C175" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D175" t="s">
         <v>18</v>
       </c>
       <c r="E175">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="G175">
-        <v>38.424999999999997</v>
+        <v>37.9375</v>
       </c>
       <c r="H175" t="s">
         <v>126</v>
@@ -5293,19 +5299,19 @@
         <v>16</v>
       </c>
       <c r="B176" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C176" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D176" t="s">
         <v>18</v>
       </c>
       <c r="E176">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="G176">
-        <v>38.024999999999999</v>
+        <v>37.6</v>
       </c>
       <c r="H176" t="s">
         <v>127</v>
@@ -5316,19 +5322,19 @@
         <v>16</v>
       </c>
       <c r="B177" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C177" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D177" t="s">
         <v>18</v>
       </c>
       <c r="E177">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="G177">
-        <v>37.9375</v>
+        <v>36.975000000000001</v>
       </c>
       <c r="H177" t="s">
         <v>128</v>
@@ -5339,19 +5345,19 @@
         <v>16</v>
       </c>
       <c r="B178" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C178" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D178" t="s">
         <v>18</v>
       </c>
       <c r="E178">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="G178">
-        <v>37.6</v>
+        <v>36.274999999999999</v>
       </c>
       <c r="H178" t="s">
         <v>129</v>
@@ -5362,19 +5368,19 @@
         <v>16</v>
       </c>
       <c r="B179" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C179" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D179" t="s">
         <v>18</v>
       </c>
       <c r="E179">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="G179">
-        <v>36.975000000000001</v>
+        <v>34.787500000000001</v>
       </c>
       <c r="H179" t="s">
         <v>130</v>
@@ -5385,19 +5391,19 @@
         <v>16</v>
       </c>
       <c r="B180" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C180" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D180" t="s">
         <v>18</v>
       </c>
       <c r="E180">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="G180">
-        <v>36.274999999999999</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="H180" t="s">
         <v>131</v>
@@ -5408,19 +5414,19 @@
         <v>16</v>
       </c>
       <c r="B181" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C181" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D181" t="s">
         <v>18</v>
       </c>
       <c r="E181">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="G181">
-        <v>34.787500000000001</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="H181" t="s">
         <v>132</v>
@@ -5431,19 +5437,19 @@
         <v>16</v>
       </c>
       <c r="B182" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C182" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D182" t="s">
         <v>18</v>
       </c>
       <c r="E182">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="G182">
-        <v>33.200000000000003</v>
+        <v>32.824310609999998</v>
       </c>
       <c r="H182" t="s">
         <v>133</v>
@@ -5454,19 +5460,19 @@
         <v>16</v>
       </c>
       <c r="B183" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C183" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D183" t="s">
         <v>18</v>
       </c>
       <c r="E183">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="G183">
-        <v>35.299999999999997</v>
+        <v>33.427702089999997</v>
       </c>
       <c r="H183" t="s">
         <v>134</v>
@@ -5477,19 +5483,19 @@
         <v>16</v>
       </c>
       <c r="B184" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C184" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D184" t="s">
         <v>18</v>
       </c>
       <c r="E184">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="G184">
-        <v>32.824310609999998</v>
+        <v>35.025917569999997</v>
       </c>
       <c r="H184" t="s">
         <v>135</v>
@@ -5500,19 +5506,19 @@
         <v>16</v>
       </c>
       <c r="B185" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C185" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D185" t="s">
         <v>18</v>
       </c>
       <c r="E185">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="G185">
-        <v>33.427702089999997</v>
+        <v>47.12493869</v>
       </c>
       <c r="H185" t="s">
         <v>136</v>
@@ -5523,19 +5529,19 @@
         <v>16</v>
       </c>
       <c r="B186" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C186" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D186" t="s">
         <v>18</v>
       </c>
       <c r="E186">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="G186">
-        <v>35.025917569999997</v>
+        <v>59.819774850000002</v>
       </c>
       <c r="H186" t="s">
         <v>137</v>
@@ -5546,19 +5552,19 @@
         <v>16</v>
       </c>
       <c r="B187" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C187" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D187" t="s">
         <v>18</v>
       </c>
       <c r="E187">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="G187">
-        <v>47.12493869</v>
+        <v>59.752091729999997</v>
       </c>
       <c r="H187" t="s">
         <v>138</v>
@@ -5569,19 +5575,19 @@
         <v>16</v>
       </c>
       <c r="B188" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C188" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D188" t="s">
         <v>18</v>
       </c>
       <c r="E188">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="G188">
-        <v>59.819774850000002</v>
+        <v>66.958622610000006</v>
       </c>
       <c r="H188" t="s">
         <v>139</v>
@@ -5592,19 +5598,19 @@
         <v>16</v>
       </c>
       <c r="B189" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C189" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D189" t="s">
         <v>18</v>
       </c>
       <c r="E189">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="G189">
-        <v>59.752091729999997</v>
+        <v>61.050466499999999</v>
       </c>
       <c r="H189" t="s">
         <v>140</v>
@@ -5615,19 +5621,19 @@
         <v>16</v>
       </c>
       <c r="B190" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C190" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D190" t="s">
         <v>18</v>
       </c>
       <c r="E190">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="G190">
-        <v>66.958622610000006</v>
+        <v>56.049325670000002</v>
       </c>
       <c r="H190" t="s">
         <v>141</v>
@@ -5638,19 +5644,19 @@
         <v>16</v>
       </c>
       <c r="B191" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C191" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D191" t="s">
         <v>18</v>
       </c>
       <c r="E191">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="G191">
-        <v>61.050466499999999</v>
+        <v>56.165710709999999</v>
       </c>
       <c r="H191" t="s">
         <v>142</v>
@@ -5661,19 +5667,19 @@
         <v>16</v>
       </c>
       <c r="B192" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C192" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D192" t="s">
         <v>18</v>
       </c>
       <c r="E192">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="G192">
-        <v>56.049325670000002</v>
+        <v>60.639359579999997</v>
       </c>
       <c r="H192" t="s">
         <v>143</v>
@@ -5684,19 +5690,19 @@
         <v>16</v>
       </c>
       <c r="B193" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C193" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D193" t="s">
         <v>18</v>
       </c>
       <c r="E193">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="G193">
-        <v>56.165710709999999</v>
+        <v>57.100518540000003</v>
       </c>
       <c r="H193" t="s">
         <v>144</v>
@@ -5707,19 +5713,19 @@
         <v>16</v>
       </c>
       <c r="B194" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C194" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D194" t="s">
         <v>18</v>
       </c>
       <c r="E194">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="G194">
-        <v>60.639359579999997</v>
+        <v>49.003774999999997</v>
       </c>
       <c r="H194" t="s">
         <v>145</v>
@@ -5730,19 +5736,19 @@
         <v>16</v>
       </c>
       <c r="B195" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C195" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D195" t="s">
         <v>18</v>
       </c>
       <c r="E195">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="G195">
-        <v>57.100518540000003</v>
+        <v>42.610874199999998</v>
       </c>
       <c r="H195" t="s">
         <v>146</v>
@@ -5753,19 +5759,19 @@
         <v>16</v>
       </c>
       <c r="B196" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C196" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D196" t="s">
         <v>18</v>
       </c>
       <c r="E196">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="G196">
-        <v>49.003774999999997</v>
+        <v>40.431049049999999</v>
       </c>
       <c r="H196" t="s">
         <v>147</v>
@@ -5776,19 +5782,19 @@
         <v>16</v>
       </c>
       <c r="B197" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C197" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D197" t="s">
         <v>18</v>
       </c>
       <c r="E197">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="G197">
-        <v>42.610874199999998</v>
+        <v>31.887499999999999</v>
       </c>
       <c r="H197" t="s">
         <v>148</v>
@@ -5799,19 +5805,19 @@
         <v>16</v>
       </c>
       <c r="B198" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C198" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D198" t="s">
         <v>18</v>
       </c>
       <c r="E198">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="G198">
-        <v>40.431049049999999</v>
+        <v>32.875</v>
       </c>
       <c r="H198" t="s">
         <v>149</v>
@@ -5822,19 +5828,19 @@
         <v>16</v>
       </c>
       <c r="B199" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C199" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D199" t="s">
         <v>18</v>
       </c>
       <c r="E199">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="G199">
-        <v>31.887499999999999</v>
+        <v>37.75</v>
       </c>
       <c r="H199" t="s">
         <v>150</v>
@@ -5845,22 +5851,16 @@
         <v>16</v>
       </c>
       <c r="B200" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C200" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D200" t="s">
         <v>18</v>
       </c>
       <c r="E200">
-        <v>2018</v>
-      </c>
-      <c r="G200">
-        <v>32.875</v>
-      </c>
-      <c r="H200" t="s">
-        <v>151</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
@@ -5868,22 +5868,16 @@
         <v>16</v>
       </c>
       <c r="B201" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C201" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D201" t="s">
         <v>18</v>
       </c>
       <c r="E201">
-        <v>2019</v>
-      </c>
-      <c r="G201">
-        <v>37.75</v>
-      </c>
-      <c r="H201" t="s">
-        <v>152</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
@@ -5891,16 +5885,16 @@
         <v>16</v>
       </c>
       <c r="B202" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C202" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D202" t="s">
         <v>18</v>
       </c>
       <c r="E202">
-        <v>1990</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
@@ -5908,16 +5902,16 @@
         <v>16</v>
       </c>
       <c r="B203" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C203" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D203" t="s">
         <v>18</v>
       </c>
       <c r="E203">
-        <v>1991</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
@@ -5925,16 +5919,16 @@
         <v>16</v>
       </c>
       <c r="B204" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C204" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D204" t="s">
         <v>18</v>
       </c>
       <c r="E204">
-        <v>1992</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
@@ -5942,16 +5936,16 @@
         <v>16</v>
       </c>
       <c r="B205" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C205" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D205" t="s">
         <v>18</v>
       </c>
       <c r="E205">
-        <v>1993</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
@@ -5959,16 +5953,25 @@
         <v>16</v>
       </c>
       <c r="B206" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C206" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D206" t="s">
         <v>18</v>
       </c>
       <c r="E206">
-        <v>1994</v>
+        <v>1996</v>
+      </c>
+      <c r="G206">
+        <v>300</v>
+      </c>
+      <c r="H206" t="s">
+        <v>151</v>
+      </c>
+      <c r="I206" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
@@ -5976,16 +5979,16 @@
         <v>16</v>
       </c>
       <c r="B207" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C207" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D207" t="s">
         <v>18</v>
       </c>
       <c r="E207">
-        <v>1995</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
@@ -5993,25 +5996,16 @@
         <v>16</v>
       </c>
       <c r="B208" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C208" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D208" t="s">
         <v>18</v>
       </c>
       <c r="E208">
-        <v>1996</v>
-      </c>
-      <c r="G208">
-        <v>300</v>
-      </c>
-      <c r="H208" t="s">
-        <v>153</v>
-      </c>
-      <c r="I208" t="s">
-        <v>119</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
@@ -6019,16 +6013,16 @@
         <v>16</v>
       </c>
       <c r="B209" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C209" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D209" t="s">
         <v>18</v>
       </c>
       <c r="E209">
-        <v>1997</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
@@ -6036,16 +6030,16 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C210" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D210" t="s">
         <v>18</v>
       </c>
       <c r="E210">
-        <v>1998</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
@@ -6053,16 +6047,16 @@
         <v>16</v>
       </c>
       <c r="B211" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C211" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D211" t="s">
         <v>18</v>
       </c>
       <c r="E211">
-        <v>1999</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
@@ -6070,16 +6064,16 @@
         <v>16</v>
       </c>
       <c r="B212" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C212" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D212" t="s">
         <v>18</v>
       </c>
       <c r="E212">
-        <v>2000</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
@@ -6087,16 +6081,16 @@
         <v>16</v>
       </c>
       <c r="B213" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C213" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D213" t="s">
         <v>18</v>
       </c>
       <c r="E213">
-        <v>2001</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
@@ -6104,16 +6098,16 @@
         <v>16</v>
       </c>
       <c r="B214" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C214" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D214" t="s">
         <v>18</v>
       </c>
       <c r="E214">
-        <v>2002</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
@@ -6121,16 +6115,16 @@
         <v>16</v>
       </c>
       <c r="B215" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C215" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D215" t="s">
         <v>18</v>
       </c>
       <c r="E215">
-        <v>2003</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
@@ -6138,16 +6132,16 @@
         <v>16</v>
       </c>
       <c r="B216" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C216" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D216" t="s">
         <v>18</v>
       </c>
       <c r="E216">
-        <v>2004</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
@@ -6155,16 +6149,16 @@
         <v>16</v>
       </c>
       <c r="B217" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C217" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D217" t="s">
         <v>18</v>
       </c>
       <c r="E217">
-        <v>2005</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
@@ -6172,16 +6166,16 @@
         <v>16</v>
       </c>
       <c r="B218" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C218" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D218" t="s">
         <v>18</v>
       </c>
       <c r="E218">
-        <v>2006</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
@@ -6189,16 +6183,16 @@
         <v>16</v>
       </c>
       <c r="B219" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C219" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D219" t="s">
         <v>18</v>
       </c>
       <c r="E219">
-        <v>2007</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
@@ -6206,16 +6200,16 @@
         <v>16</v>
       </c>
       <c r="B220" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C220" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D220" t="s">
         <v>18</v>
       </c>
       <c r="E220">
-        <v>2008</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
@@ -6223,16 +6217,16 @@
         <v>16</v>
       </c>
       <c r="B221" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C221" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D221" t="s">
         <v>18</v>
       </c>
       <c r="E221">
-        <v>2009</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
@@ -6240,16 +6234,16 @@
         <v>16</v>
       </c>
       <c r="B222" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C222" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D222" t="s">
         <v>18</v>
       </c>
       <c r="E222">
-        <v>2010</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
@@ -6257,16 +6251,16 @@
         <v>16</v>
       </c>
       <c r="B223" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C223" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D223" t="s">
         <v>18</v>
       </c>
       <c r="E223">
-        <v>2011</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
@@ -6274,16 +6268,16 @@
         <v>16</v>
       </c>
       <c r="B224" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C224" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D224" t="s">
         <v>18</v>
       </c>
       <c r="E224">
-        <v>2012</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
@@ -6291,16 +6285,16 @@
         <v>16</v>
       </c>
       <c r="B225" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C225" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D225" t="s">
         <v>18</v>
       </c>
       <c r="E225">
-        <v>2013</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.2">
@@ -6308,16 +6302,16 @@
         <v>16</v>
       </c>
       <c r="B226" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C226" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D226" t="s">
         <v>18</v>
       </c>
       <c r="E226">
-        <v>2014</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.2">
@@ -6325,16 +6319,16 @@
         <v>16</v>
       </c>
       <c r="B227" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C227" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D227" t="s">
         <v>18</v>
       </c>
       <c r="E227">
-        <v>2015</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
@@ -6342,16 +6336,16 @@
         <v>16</v>
       </c>
       <c r="B228" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C228" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D228" t="s">
         <v>18</v>
       </c>
       <c r="E228">
-        <v>2016</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.2">
@@ -6359,16 +6353,16 @@
         <v>16</v>
       </c>
       <c r="B229" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C229" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D229" t="s">
         <v>18</v>
       </c>
       <c r="E229">
-        <v>2017</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.2">
@@ -6376,16 +6370,22 @@
         <v>16</v>
       </c>
       <c r="B230" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C230" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D230" t="s">
         <v>18</v>
       </c>
       <c r="E230">
-        <v>2018</v>
+        <v>1990</v>
+      </c>
+      <c r="G230">
+        <v>1</v>
+      </c>
+      <c r="I230" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.2">
@@ -6393,16 +6393,22 @@
         <v>16</v>
       </c>
       <c r="B231" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C231" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D231" t="s">
         <v>18</v>
       </c>
       <c r="E231">
-        <v>2019</v>
+        <v>1991</v>
+      </c>
+      <c r="G231">
+        <v>1</v>
+      </c>
+      <c r="I231" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.2">
@@ -6410,22 +6416,22 @@
         <v>16</v>
       </c>
       <c r="B232" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C232" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D232" t="s">
         <v>18</v>
       </c>
       <c r="E232">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="G232">
         <v>1</v>
       </c>
       <c r="I232" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.2">
@@ -6433,22 +6439,22 @@
         <v>16</v>
       </c>
       <c r="B233" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C233" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D233" t="s">
         <v>18</v>
       </c>
       <c r="E233">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="G233">
         <v>1</v>
       </c>
       <c r="I233" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.2">
@@ -6456,22 +6462,22 @@
         <v>16</v>
       </c>
       <c r="B234" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C234" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D234" t="s">
         <v>18</v>
       </c>
       <c r="E234">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="G234">
         <v>1</v>
       </c>
       <c r="I234" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.2">
@@ -6479,22 +6485,22 @@
         <v>16</v>
       </c>
       <c r="B235" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C235" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D235" t="s">
         <v>18</v>
       </c>
       <c r="E235">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="G235">
         <v>1</v>
       </c>
       <c r="I235" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.2">
@@ -6502,22 +6508,22 @@
         <v>16</v>
       </c>
       <c r="B236" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C236" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D236" t="s">
         <v>18</v>
       </c>
       <c r="E236">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="G236">
         <v>1</v>
       </c>
       <c r="I236" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.2">
@@ -6525,22 +6531,22 @@
         <v>16</v>
       </c>
       <c r="B237" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C237" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D237" t="s">
         <v>18</v>
       </c>
       <c r="E237">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="G237">
         <v>1</v>
       </c>
       <c r="I237" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.2">
@@ -6548,22 +6554,22 @@
         <v>16</v>
       </c>
       <c r="B238" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C238" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D238" t="s">
         <v>18</v>
       </c>
       <c r="E238">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="G238">
         <v>1</v>
       </c>
       <c r="I238" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.2">
@@ -6571,22 +6577,22 @@
         <v>16</v>
       </c>
       <c r="B239" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C239" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D239" t="s">
         <v>18</v>
       </c>
       <c r="E239">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="G239">
         <v>1</v>
       </c>
       <c r="I239" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.2">
@@ -6594,22 +6600,22 @@
         <v>16</v>
       </c>
       <c r="B240" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C240" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D240" t="s">
         <v>18</v>
       </c>
       <c r="E240">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="G240">
         <v>1</v>
       </c>
       <c r="I240" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
@@ -6617,22 +6623,22 @@
         <v>16</v>
       </c>
       <c r="B241" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C241" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D241" t="s">
         <v>18</v>
       </c>
       <c r="E241">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="G241">
         <v>1</v>
       </c>
       <c r="I241" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
@@ -6640,22 +6646,22 @@
         <v>16</v>
       </c>
       <c r="B242" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C242" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D242" t="s">
         <v>18</v>
       </c>
       <c r="E242">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="G242">
         <v>1</v>
       </c>
       <c r="I242" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
@@ -6663,22 +6669,22 @@
         <v>16</v>
       </c>
       <c r="B243" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C243" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D243" t="s">
         <v>18</v>
       </c>
       <c r="E243">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="G243">
         <v>1</v>
       </c>
       <c r="I243" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
@@ -6686,22 +6692,22 @@
         <v>16</v>
       </c>
       <c r="B244" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C244" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D244" t="s">
         <v>18</v>
       </c>
       <c r="E244">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="G244">
         <v>1</v>
       </c>
       <c r="I244" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.2">
@@ -6709,22 +6715,22 @@
         <v>16</v>
       </c>
       <c r="B245" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C245" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D245" t="s">
         <v>18</v>
       </c>
       <c r="E245">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="G245">
         <v>1</v>
       </c>
       <c r="I245" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.2">
@@ -6732,22 +6738,22 @@
         <v>16</v>
       </c>
       <c r="B246" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C246" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D246" t="s">
         <v>18</v>
       </c>
       <c r="E246">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="G246">
         <v>1</v>
       </c>
       <c r="I246" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.2">
@@ -6755,22 +6761,22 @@
         <v>16</v>
       </c>
       <c r="B247" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C247" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D247" t="s">
         <v>18</v>
       </c>
       <c r="E247">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="G247">
         <v>1</v>
       </c>
       <c r="I247" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.2">
@@ -6778,22 +6784,22 @@
         <v>16</v>
       </c>
       <c r="B248" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C248" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D248" t="s">
         <v>18</v>
       </c>
       <c r="E248">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="G248">
         <v>1</v>
       </c>
       <c r="I248" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.2">
@@ -6801,22 +6807,22 @@
         <v>16</v>
       </c>
       <c r="B249" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C249" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D249" t="s">
         <v>18</v>
       </c>
       <c r="E249">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="G249">
         <v>1</v>
       </c>
       <c r="I249" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
@@ -6824,22 +6830,22 @@
         <v>16</v>
       </c>
       <c r="B250" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C250" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D250" t="s">
         <v>18</v>
       </c>
       <c r="E250">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="G250">
         <v>1</v>
       </c>
       <c r="I250" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.2">
@@ -6847,22 +6853,22 @@
         <v>16</v>
       </c>
       <c r="B251" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C251" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D251" t="s">
         <v>18</v>
       </c>
       <c r="E251">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="G251">
         <v>1</v>
       </c>
       <c r="I251" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.2">
@@ -6870,22 +6876,22 @@
         <v>16</v>
       </c>
       <c r="B252" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C252" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D252" t="s">
         <v>18</v>
       </c>
       <c r="E252">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="G252">
         <v>1</v>
       </c>
       <c r="I252" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.2">
@@ -6893,22 +6899,22 @@
         <v>16</v>
       </c>
       <c r="B253" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C253" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D253" t="s">
         <v>18</v>
       </c>
       <c r="E253">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="G253">
         <v>1</v>
       </c>
       <c r="I253" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
@@ -6916,22 +6922,22 @@
         <v>16</v>
       </c>
       <c r="B254" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C254" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D254" t="s">
         <v>18</v>
       </c>
       <c r="E254">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="G254">
         <v>1</v>
       </c>
       <c r="I254" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.2">
@@ -6939,22 +6945,22 @@
         <v>16</v>
       </c>
       <c r="B255" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C255" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D255" t="s">
         <v>18</v>
       </c>
       <c r="E255">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="G255">
         <v>1</v>
       </c>
       <c r="I255" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.2">
@@ -6962,22 +6968,22 @@
         <v>16</v>
       </c>
       <c r="B256" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C256" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D256" t="s">
         <v>18</v>
       </c>
       <c r="E256">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="G256">
         <v>1</v>
       </c>
       <c r="I256" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
@@ -6985,22 +6991,22 @@
         <v>16</v>
       </c>
       <c r="B257" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C257" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D257" t="s">
         <v>18</v>
       </c>
       <c r="E257">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="G257">
         <v>1</v>
       </c>
       <c r="I257" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
@@ -7008,22 +7014,22 @@
         <v>16</v>
       </c>
       <c r="B258" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C258" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D258" t="s">
         <v>18</v>
       </c>
       <c r="E258">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="G258">
         <v>1</v>
       </c>
       <c r="I258" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
@@ -7031,22 +7037,22 @@
         <v>16</v>
       </c>
       <c r="B259" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C259" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D259" t="s">
         <v>18</v>
       </c>
       <c r="E259">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="G259">
         <v>1</v>
       </c>
       <c r="I259" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.2">
@@ -7054,22 +7060,22 @@
         <v>16</v>
       </c>
       <c r="B260" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C260" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D260" t="s">
         <v>18</v>
       </c>
       <c r="E260">
-        <v>2018</v>
+        <v>1990</v>
       </c>
       <c r="G260">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
@@ -7077,22 +7083,22 @@
         <v>16</v>
       </c>
       <c r="B261" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C261" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D261" t="s">
         <v>18</v>
       </c>
       <c r="E261">
-        <v>2019</v>
+        <v>1991</v>
       </c>
       <c r="G261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.2">
@@ -7100,22 +7106,22 @@
         <v>16</v>
       </c>
       <c r="B262" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C262" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D262" t="s">
         <v>18</v>
       </c>
       <c r="E262">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="G262">
         <v>0</v>
       </c>
       <c r="I262" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
@@ -7123,22 +7129,22 @@
         <v>16</v>
       </c>
       <c r="B263" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C263" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D263" t="s">
         <v>18</v>
       </c>
       <c r="E263">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="G263">
         <v>0</v>
       </c>
       <c r="I263" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.2">
@@ -7146,22 +7152,22 @@
         <v>16</v>
       </c>
       <c r="B264" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C264" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D264" t="s">
         <v>18</v>
       </c>
       <c r="E264">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="G264">
         <v>0</v>
       </c>
       <c r="I264" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.2">
@@ -7169,22 +7175,22 @@
         <v>16</v>
       </c>
       <c r="B265" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C265" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D265" t="s">
         <v>18</v>
       </c>
       <c r="E265">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="G265">
         <v>0</v>
       </c>
       <c r="I265" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.2">
@@ -7192,22 +7198,22 @@
         <v>16</v>
       </c>
       <c r="B266" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C266" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D266" t="s">
         <v>18</v>
       </c>
       <c r="E266">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="G266">
         <v>0</v>
       </c>
       <c r="I266" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.2">
@@ -7215,22 +7221,22 @@
         <v>16</v>
       </c>
       <c r="B267" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C267" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D267" t="s">
         <v>18</v>
       </c>
       <c r="E267">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="G267">
         <v>0</v>
       </c>
       <c r="I267" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.2">
@@ -7238,22 +7244,22 @@
         <v>16</v>
       </c>
       <c r="B268" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C268" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D268" t="s">
         <v>18</v>
       </c>
       <c r="E268">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="G268">
         <v>0</v>
       </c>
       <c r="I268" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
@@ -7261,22 +7267,22 @@
         <v>16</v>
       </c>
       <c r="B269" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C269" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D269" t="s">
         <v>18</v>
       </c>
       <c r="E269">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="G269">
         <v>0</v>
       </c>
       <c r="I269" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.2">
@@ -7284,22 +7290,22 @@
         <v>16</v>
       </c>
       <c r="B270" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C270" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D270" t="s">
         <v>18</v>
       </c>
       <c r="E270">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="G270">
         <v>0</v>
       </c>
       <c r="I270" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.2">
@@ -7307,22 +7313,22 @@
         <v>16</v>
       </c>
       <c r="B271" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C271" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D271" t="s">
         <v>18</v>
       </c>
       <c r="E271">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="G271">
         <v>0</v>
       </c>
       <c r="I271" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
@@ -7330,22 +7336,22 @@
         <v>16</v>
       </c>
       <c r="B272" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C272" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D272" t="s">
         <v>18</v>
       </c>
       <c r="E272">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="G272">
         <v>0</v>
       </c>
       <c r="I272" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.2">
@@ -7353,22 +7359,22 @@
         <v>16</v>
       </c>
       <c r="B273" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C273" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D273" t="s">
         <v>18</v>
       </c>
       <c r="E273">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="G273">
         <v>0</v>
       </c>
       <c r="I273" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.2">
@@ -7376,22 +7382,22 @@
         <v>16</v>
       </c>
       <c r="B274" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C274" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D274" t="s">
         <v>18</v>
       </c>
       <c r="E274">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="G274">
         <v>0</v>
       </c>
       <c r="I274" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.2">
@@ -7399,22 +7405,22 @@
         <v>16</v>
       </c>
       <c r="B275" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C275" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D275" t="s">
         <v>18</v>
       </c>
       <c r="E275">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="G275">
         <v>0</v>
       </c>
       <c r="I275" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.2">
@@ -7422,22 +7428,22 @@
         <v>16</v>
       </c>
       <c r="B276" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C276" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D276" t="s">
         <v>18</v>
       </c>
       <c r="E276">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="G276">
         <v>0</v>
       </c>
       <c r="I276" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
@@ -7445,22 +7451,22 @@
         <v>16</v>
       </c>
       <c r="B277" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C277" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D277" t="s">
         <v>18</v>
       </c>
       <c r="E277">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="G277">
         <v>0</v>
       </c>
       <c r="I277" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.2">
@@ -7468,22 +7474,22 @@
         <v>16</v>
       </c>
       <c r="B278" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C278" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D278" t="s">
         <v>18</v>
       </c>
       <c r="E278">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="G278">
         <v>0</v>
       </c>
       <c r="I278" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
@@ -7491,22 +7497,22 @@
         <v>16</v>
       </c>
       <c r="B279" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C279" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D279" t="s">
         <v>18</v>
       </c>
       <c r="E279">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="G279">
         <v>0</v>
       </c>
       <c r="I279" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.2">
@@ -7514,22 +7520,22 @@
         <v>16</v>
       </c>
       <c r="B280" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C280" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D280" t="s">
         <v>18</v>
       </c>
       <c r="E280">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="G280">
         <v>0</v>
       </c>
       <c r="I280" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.2">
@@ -7537,22 +7543,22 @@
         <v>16</v>
       </c>
       <c r="B281" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C281" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D281" t="s">
         <v>18</v>
       </c>
       <c r="E281">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="G281">
         <v>0</v>
       </c>
       <c r="I281" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.2">
@@ -7560,22 +7566,22 @@
         <v>16</v>
       </c>
       <c r="B282" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C282" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D282" t="s">
         <v>18</v>
       </c>
       <c r="E282">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="G282">
         <v>0</v>
       </c>
       <c r="I282" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.2">
@@ -7583,22 +7589,22 @@
         <v>16</v>
       </c>
       <c r="B283" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C283" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D283" t="s">
         <v>18</v>
       </c>
       <c r="E283">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="G283">
         <v>0</v>
       </c>
       <c r="I283" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.2">
@@ -7606,22 +7612,22 @@
         <v>16</v>
       </c>
       <c r="B284" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C284" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D284" t="s">
         <v>18</v>
       </c>
       <c r="E284">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="G284">
         <v>0</v>
       </c>
       <c r="I284" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.2">
@@ -7629,22 +7635,22 @@
         <v>16</v>
       </c>
       <c r="B285" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C285" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D285" t="s">
         <v>18</v>
       </c>
       <c r="E285">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="G285">
         <v>0</v>
       </c>
       <c r="I285" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.2">
@@ -7652,22 +7658,22 @@
         <v>16</v>
       </c>
       <c r="B286" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C286" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D286" t="s">
         <v>18</v>
       </c>
       <c r="E286">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="G286">
         <v>0</v>
       </c>
       <c r="I286" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.2">
@@ -7675,22 +7681,22 @@
         <v>16</v>
       </c>
       <c r="B287" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C287" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D287" t="s">
         <v>18</v>
       </c>
       <c r="E287">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="G287">
         <v>0</v>
       </c>
       <c r="I287" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.2">
@@ -7698,22 +7704,22 @@
         <v>16</v>
       </c>
       <c r="B288" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C288" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D288" t="s">
         <v>18</v>
       </c>
       <c r="E288">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="G288">
         <v>0</v>
       </c>
       <c r="I288" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.2">
@@ -7721,22 +7727,22 @@
         <v>16</v>
       </c>
       <c r="B289" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C289" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D289" t="s">
         <v>18</v>
       </c>
       <c r="E289">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="G289">
         <v>0</v>
       </c>
       <c r="I289" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.2">
@@ -7744,22 +7750,25 @@
         <v>16</v>
       </c>
       <c r="B290" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C290" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D290" t="s">
         <v>18</v>
       </c>
       <c r="E290">
-        <v>2018</v>
+        <v>1990</v>
       </c>
       <c r="G290">
-        <v>0</v>
-      </c>
-      <c r="I290" t="s">
-        <v>119</v>
+        <v>37.450000000000003</v>
+      </c>
+      <c r="H290" t="s">
+        <v>121</v>
+      </c>
+      <c r="L290" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.2">
@@ -7767,22 +7776,25 @@
         <v>16</v>
       </c>
       <c r="B291" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C291" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D291" t="s">
         <v>18</v>
       </c>
       <c r="E291">
-        <v>2019</v>
+        <v>1991</v>
       </c>
       <c r="G291">
-        <v>0</v>
-      </c>
-      <c r="I291" t="s">
-        <v>119</v>
+        <v>37.450000000000003</v>
+      </c>
+      <c r="H291" t="s">
+        <v>122</v>
+      </c>
+      <c r="L291" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.2">
@@ -7790,25 +7802,25 @@
         <v>16</v>
       </c>
       <c r="B292" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C292" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D292" t="s">
         <v>18</v>
       </c>
       <c r="E292">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="G292">
-        <v>37.450000000000003</v>
+        <v>38.85</v>
       </c>
       <c r="H292" t="s">
         <v>123</v>
       </c>
       <c r="L292" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.2">
@@ -7816,25 +7828,25 @@
         <v>16</v>
       </c>
       <c r="B293" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C293" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D293" t="s">
         <v>18</v>
       </c>
       <c r="E293">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="G293">
-        <v>37.450000000000003</v>
+        <v>37.950000000000003</v>
       </c>
       <c r="H293" t="s">
         <v>124</v>
       </c>
       <c r="L293" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.2">
@@ -7842,25 +7854,25 @@
         <v>16</v>
       </c>
       <c r="B294" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C294" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D294" t="s">
         <v>18</v>
       </c>
       <c r="E294">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="G294">
-        <v>38.85</v>
+        <v>37.4</v>
       </c>
       <c r="H294" t="s">
         <v>125</v>
       </c>
       <c r="L294" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.2">
@@ -7868,25 +7880,25 @@
         <v>16</v>
       </c>
       <c r="B295" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C295" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D295" t="s">
         <v>18</v>
       </c>
       <c r="E295">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="G295">
-        <v>37.950000000000003</v>
+        <v>36.049999999999997</v>
       </c>
       <c r="H295" t="s">
         <v>126</v>
       </c>
       <c r="L295" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.2">
@@ -7894,25 +7906,25 @@
         <v>16</v>
       </c>
       <c r="B296" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C296" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D296" t="s">
         <v>18</v>
       </c>
       <c r="E296">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="G296">
-        <v>37.4</v>
+        <v>34.450000000000003</v>
       </c>
       <c r="H296" t="s">
         <v>127</v>
       </c>
       <c r="L296" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.2">
@@ -7920,25 +7932,25 @@
         <v>16</v>
       </c>
       <c r="B297" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C297" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D297" t="s">
         <v>18</v>
       </c>
       <c r="E297">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="G297">
-        <v>36.049999999999997</v>
+        <v>33.950000000000003</v>
       </c>
       <c r="H297" t="s">
         <v>128</v>
       </c>
       <c r="L297" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.2">
@@ -7946,25 +7958,25 @@
         <v>16</v>
       </c>
       <c r="B298" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C298" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D298" t="s">
         <v>18</v>
       </c>
       <c r="E298">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="G298">
-        <v>34.450000000000003</v>
+        <v>33.15</v>
       </c>
       <c r="H298" t="s">
         <v>129</v>
       </c>
       <c r="L298" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.2">
@@ -7972,25 +7984,25 @@
         <v>16</v>
       </c>
       <c r="B299" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C299" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D299" t="s">
         <v>18</v>
       </c>
       <c r="E299">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="G299">
-        <v>33.950000000000003</v>
+        <v>31.8</v>
       </c>
       <c r="H299" t="s">
         <v>130</v>
       </c>
       <c r="L299" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.2">
@@ -7998,25 +8010,25 @@
         <v>16</v>
       </c>
       <c r="B300" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C300" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D300" t="s">
         <v>18</v>
       </c>
       <c r="E300">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="G300">
-        <v>33.15</v>
+        <v>31.25</v>
       </c>
       <c r="H300" t="s">
         <v>131</v>
       </c>
       <c r="L300" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.2">
@@ -8024,25 +8036,25 @@
         <v>16</v>
       </c>
       <c r="B301" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C301" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D301" t="s">
         <v>18</v>
       </c>
       <c r="E301">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="G301">
-        <v>31.8</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="H301" t="s">
         <v>132</v>
       </c>
       <c r="L301" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.2">
@@ -8050,25 +8062,25 @@
         <v>16</v>
       </c>
       <c r="B302" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C302" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D302" t="s">
         <v>18</v>
       </c>
       <c r="E302">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="G302">
-        <v>31.25</v>
+        <v>31</v>
       </c>
       <c r="H302" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="L302" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.2">
@@ -8076,25 +8088,31 @@
         <v>16</v>
       </c>
       <c r="B303" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C303" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D303" t="s">
         <v>18</v>
       </c>
       <c r="E303">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="G303">
-        <v>32.200000000000003</v>
+        <v>32.4</v>
       </c>
       <c r="H303" t="s">
-        <v>134</v>
+        <v>155</v>
+      </c>
+      <c r="J303" t="s">
+        <v>156</v>
+      </c>
+      <c r="K303" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="L303" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.2">
@@ -8102,25 +8120,31 @@
         <v>16</v>
       </c>
       <c r="B304" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C304" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D304" t="s">
         <v>18</v>
       </c>
       <c r="E304">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="G304">
-        <v>31</v>
+        <v>31.7</v>
       </c>
       <c r="H304" t="s">
+        <v>159</v>
+      </c>
+      <c r="J304" t="s">
         <v>156</v>
       </c>
+      <c r="K304" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="L304" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.2">
@@ -8128,31 +8152,31 @@
         <v>16</v>
       </c>
       <c r="B305" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C305" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D305" t="s">
         <v>18</v>
       </c>
       <c r="E305">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="G305">
-        <v>32.4</v>
+        <v>34.1</v>
       </c>
       <c r="H305" t="s">
+        <v>160</v>
+      </c>
+      <c r="J305" t="s">
+        <v>156</v>
+      </c>
+      <c r="K305" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="J305" t="s">
+      <c r="L305" t="s">
         <v>158</v>
-      </c>
-      <c r="K305" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="L305" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.2">
@@ -8160,31 +8184,31 @@
         <v>16</v>
       </c>
       <c r="B306" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C306" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D306" t="s">
         <v>18</v>
       </c>
       <c r="E306">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="G306">
-        <v>31.7</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="H306" t="s">
         <v>161</v>
       </c>
       <c r="J306" t="s">
+        <v>156</v>
+      </c>
+      <c r="K306" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L306" t="s">
         <v>158</v>
-      </c>
-      <c r="K306" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="L306" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.2">
@@ -8192,31 +8216,31 @@
         <v>16</v>
       </c>
       <c r="B307" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C307" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D307" t="s">
         <v>18</v>
       </c>
       <c r="E307">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="G307">
-        <v>34.1</v>
+        <v>41.85</v>
       </c>
       <c r="H307" t="s">
         <v>162</v>
       </c>
       <c r="J307" t="s">
+        <v>156</v>
+      </c>
+      <c r="K307" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L307" t="s">
         <v>158</v>
-      </c>
-      <c r="K307" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="L307" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.2">
@@ -8224,31 +8248,31 @@
         <v>16</v>
       </c>
       <c r="B308" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C308" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D308" t="s">
         <v>18</v>
       </c>
       <c r="E308">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="G308">
-        <v>38.299999999999997</v>
+        <v>37.1</v>
       </c>
       <c r="H308" t="s">
         <v>163</v>
       </c>
       <c r="J308" t="s">
+        <v>156</v>
+      </c>
+      <c r="K308" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L308" t="s">
         <v>158</v>
-      </c>
-      <c r="K308" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="L308" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.2">
@@ -8256,31 +8280,31 @@
         <v>16</v>
       </c>
       <c r="B309" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C309" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D309" t="s">
         <v>18</v>
       </c>
       <c r="E309">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="G309">
-        <v>41.85</v>
+        <v>39.549999999999997</v>
       </c>
       <c r="H309" t="s">
         <v>164</v>
       </c>
       <c r="J309" t="s">
+        <v>156</v>
+      </c>
+      <c r="K309" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L309" t="s">
         <v>158</v>
-      </c>
-      <c r="K309" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="L309" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.2">
@@ -8288,31 +8312,31 @@
         <v>16</v>
       </c>
       <c r="B310" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C310" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D310" t="s">
         <v>18</v>
       </c>
       <c r="E310">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="G310">
-        <v>37.1</v>
+        <v>38.5</v>
       </c>
       <c r="H310" t="s">
         <v>165</v>
       </c>
       <c r="J310" t="s">
+        <v>156</v>
+      </c>
+      <c r="K310" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L310" t="s">
         <v>158</v>
-      </c>
-      <c r="K310" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="L310" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.2">
@@ -8320,31 +8344,31 @@
         <v>16</v>
       </c>
       <c r="B311" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C311" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D311" t="s">
         <v>18</v>
       </c>
       <c r="E311">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="G311">
-        <v>39.549999999999997</v>
+        <v>40.549999999999997</v>
       </c>
       <c r="H311" t="s">
         <v>166</v>
       </c>
       <c r="J311" t="s">
+        <v>156</v>
+      </c>
+      <c r="K311" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L311" t="s">
         <v>158</v>
-      </c>
-      <c r="K311" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="L311" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.2">
@@ -8352,31 +8376,31 @@
         <v>16</v>
       </c>
       <c r="B312" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C312" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D312" t="s">
         <v>18</v>
       </c>
       <c r="E312">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="G312">
-        <v>38.5</v>
+        <v>42.3</v>
       </c>
       <c r="H312" t="s">
         <v>167</v>
       </c>
       <c r="J312" t="s">
+        <v>156</v>
+      </c>
+      <c r="K312" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L312" t="s">
         <v>158</v>
-      </c>
-      <c r="K312" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="L312" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.2">
@@ -8384,31 +8408,31 @@
         <v>16</v>
       </c>
       <c r="B313" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C313" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D313" t="s">
         <v>18</v>
       </c>
       <c r="E313">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="G313">
-        <v>40.549999999999997</v>
+        <v>40.65</v>
       </c>
       <c r="H313" t="s">
         <v>168</v>
       </c>
       <c r="J313" t="s">
+        <v>156</v>
+      </c>
+      <c r="K313" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L313" t="s">
         <v>158</v>
-      </c>
-      <c r="K313" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="L313" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.2">
@@ -8416,31 +8440,31 @@
         <v>16</v>
       </c>
       <c r="B314" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C314" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D314" t="s">
         <v>18</v>
       </c>
       <c r="E314">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="G314">
-        <v>42.3</v>
+        <v>38.6</v>
       </c>
       <c r="H314" t="s">
         <v>169</v>
       </c>
       <c r="J314" t="s">
+        <v>156</v>
+      </c>
+      <c r="K314" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L314" t="s">
         <v>158</v>
-      </c>
-      <c r="K314" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="L314" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.2">
@@ -8448,31 +8472,31 @@
         <v>16</v>
       </c>
       <c r="B315" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C315" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D315" t="s">
         <v>18</v>
       </c>
       <c r="E315">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="G315">
-        <v>40.65</v>
+        <v>36.9</v>
       </c>
       <c r="H315" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="J315" t="s">
+        <v>156</v>
+      </c>
+      <c r="K315" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L315" t="s">
         <v>158</v>
-      </c>
-      <c r="K315" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="L315" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.2">
@@ -8480,31 +8504,31 @@
         <v>16</v>
       </c>
       <c r="B316" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C316" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D316" t="s">
         <v>18</v>
       </c>
       <c r="E316">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="G316">
-        <v>38.6</v>
+        <v>34.5</v>
       </c>
       <c r="H316" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J316" t="s">
+        <v>156</v>
+      </c>
+      <c r="K316" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L316" t="s">
         <v>158</v>
-      </c>
-      <c r="K316" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="L316" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.2">
@@ -8512,31 +8536,31 @@
         <v>16</v>
       </c>
       <c r="B317" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C317" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D317" t="s">
         <v>18</v>
       </c>
       <c r="E317">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="G317">
-        <v>36.9</v>
+        <v>33.1</v>
       </c>
       <c r="H317" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="J317" t="s">
+        <v>156</v>
+      </c>
+      <c r="K317" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L317" t="s">
         <v>158</v>
-      </c>
-      <c r="K317" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="L317" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.2">
@@ -8544,31 +8568,31 @@
         <v>16</v>
       </c>
       <c r="B318" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C318" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D318" t="s">
         <v>18</v>
       </c>
       <c r="E318">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="G318">
-        <v>34.5</v>
+        <v>33.65</v>
       </c>
       <c r="H318" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="J318" t="s">
+        <v>156</v>
+      </c>
+      <c r="K318" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L318" t="s">
         <v>158</v>
-      </c>
-      <c r="K318" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="L318" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.2">
@@ -8576,111 +8600,47 @@
         <v>16</v>
       </c>
       <c r="B319" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C319" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D319" t="s">
         <v>18</v>
       </c>
       <c r="E319">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="G319">
-        <v>33.1</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="H319" t="s">
         <v>150</v>
       </c>
       <c r="J319" t="s">
+        <v>156</v>
+      </c>
+      <c r="K319" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L319" t="s">
         <v>158</v>
       </c>
-      <c r="K319" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="L319" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A320" t="s">
-        <v>16</v>
-      </c>
-      <c r="B320" t="s">
-        <v>43</v>
-      </c>
-      <c r="C320" t="s">
-        <v>42</v>
-      </c>
-      <c r="D320" t="s">
-        <v>18</v>
-      </c>
-      <c r="E320">
-        <v>2018</v>
-      </c>
-      <c r="G320">
-        <v>33.65</v>
-      </c>
-      <c r="H320" t="s">
-        <v>151</v>
-      </c>
-      <c r="J320" t="s">
-        <v>158</v>
-      </c>
-      <c r="K320" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="L320" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A321" t="s">
-        <v>16</v>
-      </c>
-      <c r="B321" t="s">
-        <v>43</v>
-      </c>
-      <c r="C321" t="s">
-        <v>42</v>
-      </c>
-      <c r="D321" t="s">
-        <v>18</v>
-      </c>
-      <c r="E321">
-        <v>2019</v>
-      </c>
-      <c r="G321">
-        <v>37.299999999999997</v>
-      </c>
-      <c r="H321" t="s">
-        <v>152</v>
-      </c>
-      <c r="J321" t="s">
-        <v>158</v>
-      </c>
-      <c r="K321" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="L321" t="s">
-        <v>160</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:L520" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L518" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K41" r:id="rId1" xr:uid="{9280243E-6949-8941-9BA5-0D72F7E0C700}"/>
-    <hyperlink ref="K42" r:id="rId2" xr:uid="{95F27C1E-4658-BE4A-A2B3-46F76ACD4F74}"/>
-    <hyperlink ref="K43" r:id="rId3" xr:uid="{AFAD837F-9233-E540-8A86-E8C50A7683A6}"/>
-    <hyperlink ref="K44" r:id="rId4" xr:uid="{69024611-6EE1-D642-B375-225612CAAEEE}"/>
-    <hyperlink ref="K47" r:id="rId5" xr:uid="{DBF5AFD9-F29D-5C4B-85DD-A886A1AB63C8}"/>
-    <hyperlink ref="K51" r:id="rId6" xr:uid="{DA5C67C9-4C59-AE4B-BEE9-F504118ECC57}"/>
-    <hyperlink ref="K52" r:id="rId7" xr:uid="{B6037CA9-473C-084B-B6AA-934620BE2105}"/>
-    <hyperlink ref="K53:K111" r:id="rId8" display="https://www.bfe.admin.ch/bfe/de/home/versorgung/statistik-und-geodaten/energiestatistiken/gesamtenergiestatistik.html/" xr:uid="{EB6A06A8-3AE4-2641-9CC0-7161E8D21A52}"/>
-    <hyperlink ref="K305" r:id="rId9" xr:uid="{ECE01210-F162-8640-B72C-72CDC6F4DD33}"/>
-    <hyperlink ref="K306:K321" r:id="rId10" display="https://ec.europa.eu/eurostat/web/main/data/database" xr:uid="{B4654278-E585-5544-84B8-E8BAFEE330AA}"/>
+    <hyperlink ref="K39" r:id="rId1" xr:uid="{9280243E-6949-8941-9BA5-0D72F7E0C700}"/>
+    <hyperlink ref="K40" r:id="rId2" xr:uid="{95F27C1E-4658-BE4A-A2B3-46F76ACD4F74}"/>
+    <hyperlink ref="K41" r:id="rId3" xr:uid="{AFAD837F-9233-E540-8A86-E8C50A7683A6}"/>
+    <hyperlink ref="K42" r:id="rId4" xr:uid="{69024611-6EE1-D642-B375-225612CAAEEE}"/>
+    <hyperlink ref="K45" r:id="rId5" xr:uid="{DBF5AFD9-F29D-5C4B-85DD-A886A1AB63C8}"/>
+    <hyperlink ref="K49" r:id="rId6" xr:uid="{DA5C67C9-4C59-AE4B-BEE9-F504118ECC57}"/>
+    <hyperlink ref="K50" r:id="rId7" xr:uid="{B6037CA9-473C-084B-B6AA-934620BE2105}"/>
+    <hyperlink ref="K51:K109" r:id="rId8" display="https://www.bfe.admin.ch/bfe/de/home/versorgung/statistik-und-geodaten/energiestatistiken/gesamtenergiestatistik.html/" xr:uid="{EB6A06A8-3AE4-2641-9CC0-7161E8D21A52}"/>
+    <hyperlink ref="K303" r:id="rId9" xr:uid="{ECE01210-F162-8640-B72C-72CDC6F4DD33}"/>
+    <hyperlink ref="K304:K319" r:id="rId10" display="https://ec.europa.eu/eurostat/web/main/data/database" xr:uid="{B4654278-E585-5544-84B8-E8BAFEE330AA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/zenodo_ivan/trade/CHE_trd_elecsupply.xlsx
+++ b/data/zenodo_ivan/trade/CHE_trd_elecsupply.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/trade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C2BFAB-D7B0-B844-87BB-68B566BD41C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03B37AD-20B3-E54B-B6E6-8DB5A28D1B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$518</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$520</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="184">
   <si>
     <t>Name:</t>
   </si>
@@ -576,6 +576,15 @@
   </si>
   <si>
     <t>flow_out_max_share</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>configuration_fxe</t>
   </si>
 </sst>
 </file>
@@ -997,11 +1006,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L319"/>
+  <dimension ref="A1:L321"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1137,23 +1146,17 @@
         <v>41</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>183</v>
+      </c>
+      <c r="F9" t="s">
+        <v>175</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="H9" t="s">
-        <v>112</v>
-      </c>
-      <c r="J9" t="s">
-        <v>110</v>
-      </c>
-      <c r="L9" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -1162,17 +1165,17 @@
       <c r="B10" t="s">
         <v>41</v>
       </c>
-      <c r="C10" t="s">
-        <v>177</v>
+      <c r="C10" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>183</v>
+      </c>
+      <c r="F10" t="s">
+        <v>175</v>
       </c>
       <c r="G10">
-        <v>1E-3</v>
-      </c>
-      <c r="H10" t="s">
-        <v>178</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1183,22 +1186,22 @@
         <v>41</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="G11">
-        <v>257.61448541000004</v>
+        <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J11" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1208,20 +1211,17 @@
       <c r="B12" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>173</v>
+      <c r="C12" t="s">
+        <v>177</v>
       </c>
       <c r="D12" t="s">
-        <v>176</v>
-      </c>
-      <c r="F12" t="s">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="J12" t="s">
-        <v>110</v>
+        <v>1E-3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1232,16 +1232,22 @@
         <v>41</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
       </c>
       <c r="G13">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I13" t="s">
-        <v>117</v>
+        <v>257.61448541000004</v>
+      </c>
+      <c r="H13" t="s">
+        <v>114</v>
+      </c>
+      <c r="J13" t="s">
+        <v>115</v>
+      </c>
+      <c r="L13" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1252,19 +1258,19 @@
         <v>41</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>176</v>
+      </c>
+      <c r="F14" t="s">
+        <v>175</v>
       </c>
       <c r="G14">
-        <v>30</v>
-      </c>
-      <c r="H14" t="s">
-        <v>118</v>
-      </c>
-      <c r="I14" t="s">
-        <v>117</v>
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1275,11 +1281,17 @@
         <v>41</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
       </c>
+      <c r="G15">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I15" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -1289,22 +1301,19 @@
         <v>41</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="G16">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="H16" t="s">
-        <v>112</v>
-      </c>
-      <c r="J16" t="s">
-        <v>110</v>
-      </c>
-      <c r="L16" t="s">
-        <v>119</v>
+        <v>118</v>
+      </c>
+      <c r="I16" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -1315,20 +1324,11 @@
         <v>41</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>179</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
-      <c r="G17">
-        <v>0.4</v>
-      </c>
-      <c r="J17" t="s">
-        <v>110</v>
-      </c>
-      <c r="L17" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -1338,19 +1338,22 @@
         <v>41</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
       </c>
       <c r="G18">
-        <v>0.4</v>
+        <v>8</v>
+      </c>
+      <c r="H18" t="s">
+        <v>112</v>
       </c>
       <c r="J18" t="s">
         <v>110</v>
       </c>
       <c r="L18" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1361,20 +1364,20 @@
         <v>41</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D19" t="s">
-        <v>176</v>
-      </c>
-      <c r="F19" t="s">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="J19" t="s">
         <v>110</v>
       </c>
+      <c r="L19" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -1383,24 +1386,21 @@
       <c r="B20" t="s">
         <v>41</v>
       </c>
-      <c r="C20" t="s">
-        <v>31</v>
+      <c r="C20" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20">
-        <v>1990</v>
+        <v>22</v>
       </c>
       <c r="G20">
-        <v>6540</v>
-      </c>
-      <c r="H20" t="s">
-        <v>43</v>
+        <v>0.4</v>
       </c>
       <c r="J20" t="s">
         <v>110</v>
       </c>
+      <c r="L20" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -1409,14 +1409,20 @@
       <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="C21" t="s">
-        <v>31</v>
+      <c r="C21" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21">
-        <v>1991</v>
+        <v>176</v>
+      </c>
+      <c r="F21" t="s">
+        <v>175</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -1433,7 +1439,16 @@
         <v>18</v>
       </c>
       <c r="E22">
-        <v>1992</v>
+        <v>1990</v>
+      </c>
+      <c r="G22">
+        <v>6540</v>
+      </c>
+      <c r="H22" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -1450,7 +1465,7 @@
         <v>18</v>
       </c>
       <c r="E23">
-        <v>1993</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -1467,7 +1482,7 @@
         <v>18</v>
       </c>
       <c r="E24">
-        <v>1994</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -1484,7 +1499,7 @@
         <v>18</v>
       </c>
       <c r="E25">
-        <v>1995</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -1501,7 +1516,7 @@
         <v>18</v>
       </c>
       <c r="E26">
-        <v>1996</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -1518,7 +1533,7 @@
         <v>18</v>
       </c>
       <c r="E27">
-        <v>1997</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -1535,7 +1550,7 @@
         <v>18</v>
       </c>
       <c r="E28">
-        <v>1998</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -1552,7 +1567,7 @@
         <v>18</v>
       </c>
       <c r="E29">
-        <v>1999</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -1569,7 +1584,7 @@
         <v>18</v>
       </c>
       <c r="E30">
-        <v>2000</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -1586,7 +1601,7 @@
         <v>18</v>
       </c>
       <c r="E31">
-        <v>2001</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -1603,7 +1618,7 @@
         <v>18</v>
       </c>
       <c r="E32">
-        <v>2002</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -1620,7 +1635,7 @@
         <v>18</v>
       </c>
       <c r="E33">
-        <v>2003</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -1637,7 +1652,7 @@
         <v>18</v>
       </c>
       <c r="E34">
-        <v>2004</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -1654,7 +1669,7 @@
         <v>18</v>
       </c>
       <c r="E35">
-        <v>2005</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -1671,7 +1686,7 @@
         <v>18</v>
       </c>
       <c r="E36">
-        <v>2006</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -1688,7 +1703,7 @@
         <v>18</v>
       </c>
       <c r="E37">
-        <v>2007</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -1705,7 +1720,7 @@
         <v>18</v>
       </c>
       <c r="E38">
-        <v>2008</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -1722,22 +1737,7 @@
         <v>18</v>
       </c>
       <c r="E39">
-        <v>2009</v>
-      </c>
-      <c r="G39">
-        <v>6894</v>
-      </c>
-      <c r="H39" t="s">
-        <v>43</v>
-      </c>
-      <c r="J39" t="s">
-        <v>44</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L39" t="s">
-        <v>46</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -1754,22 +1754,7 @@
         <v>18</v>
       </c>
       <c r="E40">
-        <v>2010</v>
-      </c>
-      <c r="G40">
-        <v>6971</v>
-      </c>
-      <c r="H40" t="s">
-        <v>43</v>
-      </c>
-      <c r="J40" t="s">
-        <v>44</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L40" t="s">
-        <v>46</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -1786,10 +1771,10 @@
         <v>18</v>
       </c>
       <c r="E41">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G41">
-        <v>6977</v>
+        <v>6894</v>
       </c>
       <c r="H41" t="s">
         <v>43</v>
@@ -1818,7 +1803,13 @@
         <v>18</v>
       </c>
       <c r="E42">
-        <v>2012</v>
+        <v>2010</v>
+      </c>
+      <c r="G42">
+        <v>6971</v>
+      </c>
+      <c r="H42" t="s">
+        <v>43</v>
       </c>
       <c r="J42" t="s">
         <v>44</v>
@@ -1844,7 +1835,22 @@
         <v>18</v>
       </c>
       <c r="E43">
-        <v>2013</v>
+        <v>2011</v>
+      </c>
+      <c r="G43">
+        <v>6977</v>
+      </c>
+      <c r="H43" t="s">
+        <v>43</v>
+      </c>
+      <c r="J43" t="s">
+        <v>44</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L43" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -1861,7 +1867,16 @@
         <v>18</v>
       </c>
       <c r="E44">
-        <v>2014</v>
+        <v>2012</v>
+      </c>
+      <c r="J44" t="s">
+        <v>44</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L44" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -1878,22 +1893,7 @@
         <v>18</v>
       </c>
       <c r="E45">
-        <v>2015</v>
-      </c>
-      <c r="G45">
-        <v>7233</v>
-      </c>
-      <c r="H45" t="s">
-        <v>43</v>
-      </c>
-      <c r="J45" t="s">
-        <v>44</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L45" t="s">
-        <v>46</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -1910,7 +1910,7 @@
         <v>18</v>
       </c>
       <c r="E46">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -1927,7 +1927,22 @@
         <v>18</v>
       </c>
       <c r="E47">
-        <v>2017</v>
+        <v>2015</v>
+      </c>
+      <c r="G47">
+        <v>7233</v>
+      </c>
+      <c r="H47" t="s">
+        <v>43</v>
+      </c>
+      <c r="J47" t="s">
+        <v>44</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L47" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -1944,7 +1959,7 @@
         <v>18</v>
       </c>
       <c r="E48">
-        <v>2018</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -1961,22 +1976,7 @@
         <v>18</v>
       </c>
       <c r="E49">
-        <v>2019</v>
-      </c>
-      <c r="G49">
-        <v>8446</v>
-      </c>
-      <c r="H49" t="s">
-        <v>43</v>
-      </c>
-      <c r="J49" t="s">
-        <v>44</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L49" t="s">
-        <v>46</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -1987,28 +1987,13 @@
         <v>41</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D50" t="s">
         <v>18</v>
       </c>
       <c r="E50">
-        <v>1990</v>
-      </c>
-      <c r="G50">
-        <v>89670</v>
-      </c>
-      <c r="H50" t="s">
-        <v>47</v>
-      </c>
-      <c r="J50" t="s">
-        <v>19</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L50" t="s">
-        <v>49</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -2019,28 +2004,28 @@
         <v>41</v>
       </c>
       <c r="C51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D51" t="s">
         <v>18</v>
       </c>
       <c r="E51">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G51">
-        <v>96480</v>
+        <v>8446</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J51" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L51" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -2057,16 +2042,16 @@
         <v>18</v>
       </c>
       <c r="E52">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G52">
-        <v>93770</v>
+        <v>89670</v>
       </c>
       <c r="H52" t="s">
         <v>47</v>
       </c>
       <c r="J52" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>48</v>
@@ -2089,16 +2074,16 @@
         <v>18</v>
       </c>
       <c r="E53">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G53">
-        <v>111790</v>
+        <v>96480</v>
       </c>
       <c r="H53" t="s">
         <v>47</v>
       </c>
       <c r="J53" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>48</v>
@@ -2121,16 +2106,16 @@
         <v>18</v>
       </c>
       <c r="E54">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G54">
-        <v>124440</v>
+        <v>93770</v>
       </c>
       <c r="H54" t="s">
         <v>47</v>
       </c>
       <c r="J54" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>48</v>
@@ -2153,16 +2138,16 @@
         <v>18</v>
       </c>
       <c r="E55">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G55">
-        <v>130390</v>
+        <v>111790</v>
       </c>
       <c r="H55" t="s">
         <v>47</v>
       </c>
       <c r="J55" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>48</v>
@@ -2185,16 +2170,16 @@
         <v>18</v>
       </c>
       <c r="E56">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G56">
-        <v>123950</v>
+        <v>124440</v>
       </c>
       <c r="H56" t="s">
         <v>47</v>
       </c>
       <c r="J56" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>48</v>
@@ -2217,16 +2202,16 @@
         <v>18</v>
       </c>
       <c r="E57">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G57">
-        <v>134670</v>
+        <v>130390</v>
       </c>
       <c r="H57" t="s">
         <v>47</v>
       </c>
       <c r="J57" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>48</v>
@@ -2249,16 +2234,16 @@
         <v>18</v>
       </c>
       <c r="E58">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G58">
-        <v>156140</v>
+        <v>123950</v>
       </c>
       <c r="H58" t="s">
         <v>47</v>
       </c>
       <c r="J58" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>48</v>
@@ -2281,16 +2266,16 @@
         <v>18</v>
       </c>
       <c r="E59">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G59">
-        <v>170250</v>
+        <v>134670</v>
       </c>
       <c r="H59" t="s">
         <v>47</v>
       </c>
       <c r="J59" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>48</v>
@@ -2313,16 +2298,16 @@
         <v>18</v>
       </c>
       <c r="E60">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G60">
-        <v>113040</v>
+        <v>156140</v>
       </c>
       <c r="H60" t="s">
         <v>47</v>
       </c>
       <c r="J60" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>48</v>
@@ -2345,16 +2330,16 @@
         <v>18</v>
       </c>
       <c r="E61">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G61">
-        <v>124340</v>
+        <v>170250</v>
       </c>
       <c r="H61" t="s">
         <v>47</v>
       </c>
       <c r="J61" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>48</v>
@@ -2377,16 +2362,16 @@
         <v>18</v>
       </c>
       <c r="E62">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G62">
-        <v>116310</v>
+        <v>113040</v>
       </c>
       <c r="H62" t="s">
         <v>47</v>
       </c>
       <c r="J62" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>48</v>
@@ -2409,16 +2394,16 @@
         <v>18</v>
       </c>
       <c r="E63">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G63">
-        <v>119510</v>
+        <v>124340</v>
       </c>
       <c r="H63" t="s">
         <v>47</v>
       </c>
       <c r="J63" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>48</v>
@@ -2441,16 +2426,16 @@
         <v>18</v>
       </c>
       <c r="E64">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G64">
-        <v>99930</v>
+        <v>116310</v>
       </c>
       <c r="H64" t="s">
         <v>47</v>
       </c>
       <c r="J64" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>48</v>
@@ -2473,16 +2458,16 @@
         <v>18</v>
       </c>
       <c r="E65">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G65">
-        <v>115190</v>
+        <v>119510</v>
       </c>
       <c r="H65" t="s">
         <v>47</v>
       </c>
       <c r="J65" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>48</v>
@@ -2505,16 +2490,16 @@
         <v>18</v>
       </c>
       <c r="E66">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G66">
-        <v>111960</v>
+        <v>99930</v>
       </c>
       <c r="H66" t="s">
         <v>47</v>
       </c>
       <c r="J66" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>48</v>
@@ -2537,16 +2522,16 @@
         <v>18</v>
       </c>
       <c r="E67">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G67">
-        <v>132770</v>
+        <v>115190</v>
       </c>
       <c r="H67" t="s">
         <v>47</v>
       </c>
       <c r="J67" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>48</v>
@@ -2569,16 +2554,16 @@
         <v>18</v>
       </c>
       <c r="E68">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G68">
-        <v>117850</v>
+        <v>111960</v>
       </c>
       <c r="H68" t="s">
         <v>47</v>
       </c>
       <c r="J68" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>48</v>
@@ -2601,16 +2586,16 @@
         <v>18</v>
       </c>
       <c r="E69">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G69">
-        <v>120690</v>
+        <v>132770</v>
       </c>
       <c r="H69" t="s">
         <v>47</v>
       </c>
       <c r="J69" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>48</v>
@@ -2633,16 +2618,16 @@
         <v>18</v>
       </c>
       <c r="E70">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G70">
-        <v>118370</v>
+        <v>117850</v>
       </c>
       <c r="H70" t="s">
         <v>47</v>
       </c>
       <c r="J70" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>48</v>
@@ -2665,16 +2650,16 @@
         <v>18</v>
       </c>
       <c r="E71">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G71">
-        <v>116050</v>
+        <v>120690</v>
       </c>
       <c r="H71" t="s">
         <v>47</v>
       </c>
       <c r="J71" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K71" s="2" t="s">
         <v>48</v>
@@ -2697,16 +2682,16 @@
         <v>18</v>
       </c>
       <c r="E72">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G72">
-        <v>121500</v>
+        <v>118370</v>
       </c>
       <c r="H72" t="s">
         <v>47</v>
       </c>
       <c r="J72" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K72" s="2" t="s">
         <v>48</v>
@@ -2729,16 +2714,16 @@
         <v>18</v>
       </c>
       <c r="E73">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G73">
-        <v>116170</v>
+        <v>116050</v>
       </c>
       <c r="H73" t="s">
         <v>47</v>
       </c>
       <c r="J73" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>48</v>
@@ -2761,16 +2746,16 @@
         <v>18</v>
       </c>
       <c r="E74">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G74">
-        <v>122480</v>
+        <v>121500</v>
       </c>
       <c r="H74" t="s">
         <v>47</v>
       </c>
       <c r="J74" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K74" s="2" t="s">
         <v>48</v>
@@ -2793,16 +2778,16 @@
         <v>18</v>
       </c>
       <c r="E75">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G75">
-        <v>126240</v>
+        <v>116170</v>
       </c>
       <c r="H75" t="s">
         <v>47</v>
       </c>
       <c r="J75" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>48</v>
@@ -2825,16 +2810,16 @@
         <v>18</v>
       </c>
       <c r="E76">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G76">
-        <v>108620</v>
+        <v>122480</v>
       </c>
       <c r="H76" t="s">
         <v>47</v>
       </c>
       <c r="J76" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>48</v>
@@ -2857,16 +2842,16 @@
         <v>18</v>
       </c>
       <c r="E77">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G77">
-        <v>111410</v>
+        <v>126240</v>
       </c>
       <c r="H77" t="s">
         <v>47</v>
       </c>
       <c r="J77" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K77" s="2" t="s">
         <v>48</v>
@@ -2889,16 +2874,16 @@
         <v>18</v>
       </c>
       <c r="E78">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G78">
-        <v>117390</v>
+        <v>108620</v>
       </c>
       <c r="H78" t="s">
         <v>47</v>
       </c>
       <c r="J78" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>48</v>
@@ -2921,16 +2906,16 @@
         <v>18</v>
       </c>
       <c r="E79">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G79">
-        <v>128750</v>
+        <v>111410</v>
       </c>
       <c r="H79" t="s">
         <v>47</v>
       </c>
       <c r="J79" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>48</v>
@@ -2947,28 +2932,28 @@
         <v>41</v>
       </c>
       <c r="C80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D80" t="s">
         <v>18</v>
       </c>
       <c r="E80">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G80">
-        <v>82080</v>
+        <v>117390</v>
       </c>
       <c r="H80" t="s">
         <v>47</v>
       </c>
       <c r="J80" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>48</v>
       </c>
       <c r="L80" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
@@ -2979,28 +2964,28 @@
         <v>41</v>
       </c>
       <c r="C81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D81" t="s">
         <v>18</v>
       </c>
       <c r="E81">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G81">
-        <v>86420</v>
+        <v>128750</v>
       </c>
       <c r="H81" t="s">
         <v>47</v>
       </c>
       <c r="J81" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K81" s="2" t="s">
         <v>48</v>
       </c>
       <c r="L81" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
@@ -3017,16 +3002,16 @@
         <v>18</v>
       </c>
       <c r="E82">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G82">
-        <v>78330</v>
+        <v>82080</v>
       </c>
       <c r="H82" t="s">
         <v>47</v>
       </c>
       <c r="J82" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>48</v>
@@ -3049,16 +3034,16 @@
         <v>18</v>
       </c>
       <c r="E83">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G83">
-        <v>85870</v>
+        <v>86420</v>
       </c>
       <c r="H83" t="s">
         <v>47</v>
       </c>
       <c r="J83" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>48</v>
@@ -3081,16 +3066,16 @@
         <v>18</v>
       </c>
       <c r="E84">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G84">
-        <v>81800</v>
+        <v>78330</v>
       </c>
       <c r="H84" t="s">
         <v>47</v>
       </c>
       <c r="J84" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K84" s="2" t="s">
         <v>48</v>
@@ -3113,16 +3098,16 @@
         <v>18</v>
       </c>
       <c r="E85">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G85">
-        <v>104210</v>
+        <v>85870</v>
       </c>
       <c r="H85" t="s">
         <v>47</v>
       </c>
       <c r="J85" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K85" s="2" t="s">
         <v>48</v>
@@ -3145,16 +3130,16 @@
         <v>18</v>
       </c>
       <c r="E86">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G86">
-        <v>120550</v>
+        <v>81800</v>
       </c>
       <c r="H86" t="s">
         <v>47</v>
       </c>
       <c r="J86" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K86" s="2" t="s">
         <v>48</v>
@@ -3177,16 +3162,16 @@
         <v>18</v>
       </c>
       <c r="E87">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G87">
-        <v>110360</v>
+        <v>104210</v>
       </c>
       <c r="H87" t="s">
         <v>47</v>
       </c>
       <c r="J87" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K87" s="2" t="s">
         <v>48</v>
@@ -3209,16 +3194,16 @@
         <v>18</v>
       </c>
       <c r="E88">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G88">
-        <v>134710</v>
+        <v>120550</v>
       </c>
       <c r="H88" t="s">
         <v>47</v>
       </c>
       <c r="J88" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K88" s="2" t="s">
         <v>48</v>
@@ -3241,16 +3226,16 @@
         <v>18</v>
       </c>
       <c r="E89">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G89">
-        <v>133430</v>
+        <v>110360</v>
       </c>
       <c r="H89" t="s">
         <v>47</v>
       </c>
       <c r="J89" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K89" s="2" t="s">
         <v>48</v>
@@ -3273,16 +3258,16 @@
         <v>18</v>
       </c>
       <c r="E90">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G90">
-        <v>87590</v>
+        <v>134710</v>
       </c>
       <c r="H90" t="s">
         <v>47</v>
       </c>
       <c r="J90" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K90" s="2" t="s">
         <v>48</v>
@@ -3305,16 +3290,16 @@
         <v>18</v>
       </c>
       <c r="E91">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G91">
-        <v>86750</v>
+        <v>133430</v>
       </c>
       <c r="H91" t="s">
         <v>47</v>
       </c>
       <c r="J91" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K91" s="2" t="s">
         <v>48</v>
@@ -3337,16 +3322,16 @@
         <v>18</v>
       </c>
       <c r="E92">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G92">
-        <v>100080</v>
+        <v>87590</v>
       </c>
       <c r="H92" t="s">
         <v>47</v>
       </c>
       <c r="J92" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K92" s="2" t="s">
         <v>48</v>
@@ -3369,16 +3354,16 @@
         <v>18</v>
       </c>
       <c r="E93">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G93">
-        <v>108300</v>
+        <v>86750</v>
       </c>
       <c r="H93" t="s">
         <v>47</v>
       </c>
       <c r="J93" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K93" s="2" t="s">
         <v>48</v>
@@ -3401,16 +3386,16 @@
         <v>18</v>
       </c>
       <c r="E94">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G94">
-        <v>97400</v>
+        <v>100080</v>
       </c>
       <c r="H94" t="s">
         <v>47</v>
       </c>
       <c r="J94" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K94" s="2" t="s">
         <v>48</v>
@@ -3433,16 +3418,16 @@
         <v>18</v>
       </c>
       <c r="E95">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G95">
-        <v>138050</v>
+        <v>108300</v>
       </c>
       <c r="H95" t="s">
         <v>47</v>
       </c>
       <c r="J95" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K95" s="2" t="s">
         <v>48</v>
@@ -3465,16 +3450,16 @@
         <v>18</v>
       </c>
       <c r="E96">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G96">
-        <v>121690</v>
+        <v>97400</v>
       </c>
       <c r="H96" t="s">
         <v>47</v>
       </c>
       <c r="J96" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K96" s="2" t="s">
         <v>48</v>
@@ -3497,16 +3482,16 @@
         <v>18</v>
       </c>
       <c r="E97">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G97">
-        <v>125340</v>
+        <v>138050</v>
       </c>
       <c r="H97" t="s">
         <v>47</v>
       </c>
       <c r="J97" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K97" s="2" t="s">
         <v>48</v>
@@ -3529,16 +3514,16 @@
         <v>18</v>
       </c>
       <c r="E98">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G98">
-        <v>113760</v>
+        <v>121690</v>
       </c>
       <c r="H98" t="s">
         <v>47</v>
       </c>
       <c r="J98" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K98" s="2" t="s">
         <v>48</v>
@@ -3561,16 +3546,16 @@
         <v>18</v>
       </c>
       <c r="E99">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G99">
-        <v>112920</v>
+        <v>125340</v>
       </c>
       <c r="H99" t="s">
         <v>47</v>
       </c>
       <c r="J99" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K99" s="2" t="s">
         <v>48</v>
@@ -3593,16 +3578,16 @@
         <v>18</v>
       </c>
       <c r="E100">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G100">
-        <v>120240</v>
+        <v>113760</v>
       </c>
       <c r="H100" t="s">
         <v>47</v>
       </c>
       <c r="J100" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K100" s="2" t="s">
         <v>48</v>
@@ -3625,16 +3610,16 @@
         <v>18</v>
       </c>
       <c r="E101">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G101">
-        <v>125370</v>
+        <v>112920</v>
       </c>
       <c r="H101" t="s">
         <v>47</v>
       </c>
       <c r="J101" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K101" s="2" t="s">
         <v>48</v>
@@ -3657,16 +3642,16 @@
         <v>18</v>
       </c>
       <c r="E102">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G102">
-        <v>113580</v>
+        <v>120240</v>
       </c>
       <c r="H102" t="s">
         <v>47</v>
       </c>
       <c r="J102" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K102" s="2" t="s">
         <v>48</v>
@@ -3689,16 +3674,16 @@
         <v>18</v>
       </c>
       <c r="E103">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G103">
-        <v>107550</v>
+        <v>125370</v>
       </c>
       <c r="H103" t="s">
         <v>47</v>
       </c>
       <c r="J103" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K103" s="2" t="s">
         <v>48</v>
@@ -3721,16 +3706,16 @@
         <v>18</v>
       </c>
       <c r="E104">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G104">
-        <v>102710</v>
+        <v>113580</v>
       </c>
       <c r="H104" t="s">
         <v>47</v>
       </c>
       <c r="J104" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K104" s="2" t="s">
         <v>48</v>
@@ -3753,16 +3738,16 @@
         <v>18</v>
       </c>
       <c r="E105">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G105">
-        <v>122520</v>
+        <v>107550</v>
       </c>
       <c r="H105" t="s">
         <v>47</v>
       </c>
       <c r="J105" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K105" s="2" t="s">
         <v>48</v>
@@ -3785,16 +3770,16 @@
         <v>18</v>
       </c>
       <c r="E106">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G106">
-        <v>122750</v>
+        <v>102710</v>
       </c>
       <c r="H106" t="s">
         <v>47</v>
       </c>
       <c r="J106" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K106" s="2" t="s">
         <v>48</v>
@@ -3817,16 +3802,16 @@
         <v>18</v>
       </c>
       <c r="E107">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G107">
-        <v>131390</v>
+        <v>122520</v>
       </c>
       <c r="H107" t="s">
         <v>47</v>
       </c>
       <c r="J107" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K107" s="2" t="s">
         <v>48</v>
@@ -3849,16 +3834,16 @@
         <v>18</v>
       </c>
       <c r="E108">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G108">
-        <v>111670</v>
+        <v>122750</v>
       </c>
       <c r="H108" t="s">
         <v>47</v>
       </c>
       <c r="J108" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K108" s="2" t="s">
         <v>48</v>
@@ -3881,16 +3866,16 @@
         <v>18</v>
       </c>
       <c r="E109">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G109">
-        <v>106220</v>
+        <v>131390</v>
       </c>
       <c r="H109" t="s">
         <v>47</v>
       </c>
       <c r="J109" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K109" s="2" t="s">
         <v>48</v>
@@ -3907,25 +3892,28 @@
         <v>41</v>
       </c>
       <c r="C110" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D110" t="s">
         <v>18</v>
       </c>
       <c r="E110">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>111670</v>
       </c>
       <c r="H110" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J110" t="s">
-        <v>110</v>
+        <v>108</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="L110" t="s">
-        <v>172</v>
+        <v>80</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
@@ -3936,19 +3924,28 @@
         <v>41</v>
       </c>
       <c r="C111" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D111" t="s">
         <v>18</v>
       </c>
       <c r="E111">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>106220</v>
       </c>
       <c r="H111" t="s">
-        <v>43</v>
+        <v>47</v>
+      </c>
+      <c r="J111" t="s">
+        <v>109</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L111" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
@@ -3965,7 +3962,7 @@
         <v>18</v>
       </c>
       <c r="E112">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -3973,6 +3970,12 @@
       <c r="H112" t="s">
         <v>43</v>
       </c>
+      <c r="J112" t="s">
+        <v>110</v>
+      </c>
+      <c r="L112" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
@@ -3988,7 +3991,7 @@
         <v>18</v>
       </c>
       <c r="E113">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -4011,7 +4014,7 @@
         <v>18</v>
       </c>
       <c r="E114">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -4034,7 +4037,7 @@
         <v>18</v>
       </c>
       <c r="E115">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -4057,7 +4060,7 @@
         <v>18</v>
       </c>
       <c r="E116">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -4080,7 +4083,7 @@
         <v>18</v>
       </c>
       <c r="E117">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -4103,7 +4106,7 @@
         <v>18</v>
       </c>
       <c r="E118">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -4126,7 +4129,7 @@
         <v>18</v>
       </c>
       <c r="E119">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -4149,7 +4152,7 @@
         <v>18</v>
       </c>
       <c r="E120">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -4172,7 +4175,7 @@
         <v>18</v>
       </c>
       <c r="E121">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -4195,7 +4198,7 @@
         <v>18</v>
       </c>
       <c r="E122">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -4218,7 +4221,7 @@
         <v>18</v>
       </c>
       <c r="E123">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -4241,7 +4244,7 @@
         <v>18</v>
       </c>
       <c r="E124">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -4264,7 +4267,7 @@
         <v>18</v>
       </c>
       <c r="E125">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -4287,7 +4290,7 @@
         <v>18</v>
       </c>
       <c r="E126">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -4310,7 +4313,7 @@
         <v>18</v>
       </c>
       <c r="E127">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -4333,7 +4336,7 @@
         <v>18</v>
       </c>
       <c r="E128">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -4356,21 +4359,14 @@
         <v>18</v>
       </c>
       <c r="E129">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G129">
-        <v>354</v>
+        <v>0</v>
       </c>
       <c r="H129" t="s">
         <v>43</v>
       </c>
-      <c r="J129" t="s">
-        <v>110</v>
-      </c>
-      <c r="K129" s="2"/>
-      <c r="L129" t="s">
-        <v>171</v>
-      </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
@@ -4386,21 +4382,14 @@
         <v>18</v>
       </c>
       <c r="E130">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G130">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="H130" t="s">
         <v>43</v>
       </c>
-      <c r="J130" t="s">
-        <v>110</v>
-      </c>
-      <c r="K130" s="2"/>
-      <c r="L130" t="s">
-        <v>171</v>
-      </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
@@ -4416,10 +4405,10 @@
         <v>18</v>
       </c>
       <c r="E131">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G131">
-        <v>6</v>
+        <v>354</v>
       </c>
       <c r="H131" t="s">
         <v>43</v>
@@ -4446,10 +4435,10 @@
         <v>18</v>
       </c>
       <c r="E132">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="H132" t="s">
         <v>43</v>
@@ -4476,14 +4465,21 @@
         <v>18</v>
       </c>
       <c r="E133">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G133">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H133" t="s">
         <v>43</v>
       </c>
+      <c r="J133" t="s">
+        <v>110</v>
+      </c>
+      <c r="K133" s="2"/>
+      <c r="L133" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
@@ -4499,7 +4495,7 @@
         <v>18</v>
       </c>
       <c r="E134">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -4507,6 +4503,13 @@
       <c r="H134" t="s">
         <v>43</v>
       </c>
+      <c r="J134" t="s">
+        <v>110</v>
+      </c>
+      <c r="K134" s="2"/>
+      <c r="L134" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
@@ -4522,21 +4525,14 @@
         <v>18</v>
       </c>
       <c r="E135">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G135">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="H135" t="s">
         <v>43</v>
       </c>
-      <c r="J135" t="s">
-        <v>110</v>
-      </c>
-      <c r="K135" s="2"/>
-      <c r="L135" t="s">
-        <v>171</v>
-      </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
@@ -4552,7 +4548,7 @@
         <v>18</v>
       </c>
       <c r="E136">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -4575,14 +4571,21 @@
         <v>18</v>
       </c>
       <c r="E137">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G137">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="H137" t="s">
         <v>43</v>
       </c>
+      <c r="J137" t="s">
+        <v>110</v>
+      </c>
+      <c r="K137" s="2"/>
+      <c r="L137" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
@@ -4598,7 +4601,7 @@
         <v>18</v>
       </c>
       <c r="E138">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -4621,21 +4624,14 @@
         <v>18</v>
       </c>
       <c r="E139">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G139">
-        <v>1213</v>
+        <v>0</v>
       </c>
       <c r="H139" t="s">
         <v>43</v>
       </c>
-      <c r="J139" t="s">
-        <v>110</v>
-      </c>
-      <c r="K139" s="2"/>
-      <c r="L139" t="s">
-        <v>171</v>
-      </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
@@ -4645,13 +4641,19 @@
         <v>41</v>
       </c>
       <c r="C140" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D140" t="s">
         <v>18</v>
       </c>
       <c r="E140">
-        <v>1990</v>
+        <v>2018</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
@@ -4662,13 +4664,26 @@
         <v>41</v>
       </c>
       <c r="C141" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D141" t="s">
         <v>18</v>
       </c>
       <c r="E141">
-        <v>1991</v>
+        <v>2019</v>
+      </c>
+      <c r="G141">
+        <v>1213</v>
+      </c>
+      <c r="H141" t="s">
+        <v>43</v>
+      </c>
+      <c r="J141" t="s">
+        <v>110</v>
+      </c>
+      <c r="K141" s="2"/>
+      <c r="L141" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
@@ -4685,7 +4700,7 @@
         <v>18</v>
       </c>
       <c r="E142">
-        <v>1992</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
@@ -4702,7 +4717,7 @@
         <v>18</v>
       </c>
       <c r="E143">
-        <v>1993</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
@@ -4719,7 +4734,7 @@
         <v>18</v>
       </c>
       <c r="E144">
-        <v>1994</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
@@ -4736,7 +4751,7 @@
         <v>18</v>
       </c>
       <c r="E145">
-        <v>1995</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
@@ -4753,7 +4768,7 @@
         <v>18</v>
       </c>
       <c r="E146">
-        <v>1996</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -4770,7 +4785,7 @@
         <v>18</v>
       </c>
       <c r="E147">
-        <v>1997</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
@@ -4787,7 +4802,7 @@
         <v>18</v>
       </c>
       <c r="E148">
-        <v>1998</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
@@ -4804,7 +4819,7 @@
         <v>18</v>
       </c>
       <c r="E149">
-        <v>1999</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -4821,7 +4836,7 @@
         <v>18</v>
       </c>
       <c r="E150">
-        <v>2000</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
@@ -4838,7 +4853,7 @@
         <v>18</v>
       </c>
       <c r="E151">
-        <v>2001</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -4855,7 +4870,7 @@
         <v>18</v>
       </c>
       <c r="E152">
-        <v>2002</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
@@ -4872,7 +4887,7 @@
         <v>18</v>
       </c>
       <c r="E153">
-        <v>2003</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
@@ -4889,7 +4904,7 @@
         <v>18</v>
       </c>
       <c r="E154">
-        <v>2004</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -4906,7 +4921,7 @@
         <v>18</v>
       </c>
       <c r="E155">
-        <v>2005</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
@@ -4923,7 +4938,7 @@
         <v>18</v>
       </c>
       <c r="E156">
-        <v>2006</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
@@ -4940,7 +4955,7 @@
         <v>18</v>
       </c>
       <c r="E157">
-        <v>2007</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
@@ -4957,7 +4972,7 @@
         <v>18</v>
       </c>
       <c r="E158">
-        <v>2008</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
@@ -4974,7 +4989,7 @@
         <v>18</v>
       </c>
       <c r="E159">
-        <v>2009</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
@@ -4991,7 +5006,7 @@
         <v>18</v>
       </c>
       <c r="E160">
-        <v>2010</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
@@ -5008,7 +5023,7 @@
         <v>18</v>
       </c>
       <c r="E161">
-        <v>2011</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
@@ -5025,7 +5040,7 @@
         <v>18</v>
       </c>
       <c r="E162">
-        <v>2012</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
@@ -5042,16 +5057,7 @@
         <v>18</v>
       </c>
       <c r="E163">
-        <v>2013</v>
-      </c>
-      <c r="G163">
-        <v>3.2</v>
-      </c>
-      <c r="H163" t="s">
-        <v>120</v>
-      </c>
-      <c r="I163" t="s">
-        <v>117</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
@@ -5068,7 +5074,7 @@
         <v>18</v>
       </c>
       <c r="E164">
-        <v>2014</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
@@ -5085,7 +5091,16 @@
         <v>18</v>
       </c>
       <c r="E165">
-        <v>2015</v>
+        <v>2013</v>
+      </c>
+      <c r="G165">
+        <v>3.2</v>
+      </c>
+      <c r="H165" t="s">
+        <v>120</v>
+      </c>
+      <c r="I165" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
@@ -5102,7 +5117,7 @@
         <v>18</v>
       </c>
       <c r="E166">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
@@ -5119,7 +5134,7 @@
         <v>18</v>
       </c>
       <c r="E167">
-        <v>2017</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
@@ -5136,7 +5151,7 @@
         <v>18</v>
       </c>
       <c r="E168">
-        <v>2018</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
@@ -5153,7 +5168,7 @@
         <v>18</v>
       </c>
       <c r="E169">
-        <v>2019</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
@@ -5164,19 +5179,13 @@
         <v>41</v>
       </c>
       <c r="C170" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D170" t="s">
         <v>18</v>
       </c>
       <c r="E170">
-        <v>1990</v>
-      </c>
-      <c r="G170">
-        <v>37.762500000000003</v>
-      </c>
-      <c r="H170" t="s">
-        <v>121</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
@@ -5187,19 +5196,13 @@
         <v>41</v>
       </c>
       <c r="C171" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D171" t="s">
         <v>18</v>
       </c>
       <c r="E171">
-        <v>1991</v>
-      </c>
-      <c r="G171">
-        <v>37.762500000000003</v>
-      </c>
-      <c r="H171" t="s">
-        <v>122</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
@@ -5216,13 +5219,13 @@
         <v>18</v>
       </c>
       <c r="E172">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G172">
-        <v>39.137500000000003</v>
+        <v>37.762500000000003</v>
       </c>
       <c r="H172" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
@@ -5239,13 +5242,13 @@
         <v>18</v>
       </c>
       <c r="E173">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G173">
-        <v>38.424999999999997</v>
+        <v>37.762500000000003</v>
       </c>
       <c r="H173" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
@@ -5262,13 +5265,13 @@
         <v>18</v>
       </c>
       <c r="E174">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G174">
-        <v>38.024999999999999</v>
+        <v>39.137500000000003</v>
       </c>
       <c r="H174" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
@@ -5285,13 +5288,13 @@
         <v>18</v>
       </c>
       <c r="E175">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G175">
-        <v>37.9375</v>
+        <v>38.424999999999997</v>
       </c>
       <c r="H175" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
@@ -5308,13 +5311,13 @@
         <v>18</v>
       </c>
       <c r="E176">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G176">
-        <v>37.6</v>
+        <v>38.024999999999999</v>
       </c>
       <c r="H176" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
@@ -5331,13 +5334,13 @@
         <v>18</v>
       </c>
       <c r="E177">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G177">
-        <v>36.975000000000001</v>
+        <v>37.9375</v>
       </c>
       <c r="H177" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
@@ -5354,13 +5357,13 @@
         <v>18</v>
       </c>
       <c r="E178">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G178">
-        <v>36.274999999999999</v>
+        <v>37.6</v>
       </c>
       <c r="H178" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
@@ -5377,13 +5380,13 @@
         <v>18</v>
       </c>
       <c r="E179">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G179">
-        <v>34.787500000000001</v>
+        <v>36.975000000000001</v>
       </c>
       <c r="H179" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
@@ -5400,13 +5403,13 @@
         <v>18</v>
       </c>
       <c r="E180">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G180">
-        <v>33.200000000000003</v>
+        <v>36.274999999999999</v>
       </c>
       <c r="H180" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
@@ -5423,13 +5426,13 @@
         <v>18</v>
       </c>
       <c r="E181">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G181">
-        <v>35.299999999999997</v>
+        <v>34.787500000000001</v>
       </c>
       <c r="H181" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
@@ -5446,13 +5449,13 @@
         <v>18</v>
       </c>
       <c r="E182">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G182">
-        <v>32.824310609999998</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="H182" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
@@ -5469,13 +5472,13 @@
         <v>18</v>
       </c>
       <c r="E183">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G183">
-        <v>33.427702089999997</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="H183" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
@@ -5492,13 +5495,13 @@
         <v>18</v>
       </c>
       <c r="E184">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G184">
-        <v>35.025917569999997</v>
+        <v>32.824310609999998</v>
       </c>
       <c r="H184" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
@@ -5515,13 +5518,13 @@
         <v>18</v>
       </c>
       <c r="E185">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G185">
-        <v>47.12493869</v>
+        <v>33.427702089999997</v>
       </c>
       <c r="H185" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
@@ -5538,13 +5541,13 @@
         <v>18</v>
       </c>
       <c r="E186">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G186">
-        <v>59.819774850000002</v>
+        <v>35.025917569999997</v>
       </c>
       <c r="H186" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
@@ -5561,13 +5564,13 @@
         <v>18</v>
       </c>
       <c r="E187">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G187">
-        <v>59.752091729999997</v>
+        <v>47.12493869</v>
       </c>
       <c r="H187" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
@@ -5584,13 +5587,13 @@
         <v>18</v>
       </c>
       <c r="E188">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G188">
-        <v>66.958622610000006</v>
+        <v>59.819774850000002</v>
       </c>
       <c r="H188" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
@@ -5607,13 +5610,13 @@
         <v>18</v>
       </c>
       <c r="E189">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G189">
-        <v>61.050466499999999</v>
+        <v>59.752091729999997</v>
       </c>
       <c r="H189" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
@@ -5630,13 +5633,13 @@
         <v>18</v>
       </c>
       <c r="E190">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G190">
-        <v>56.049325670000002</v>
+        <v>66.958622610000006</v>
       </c>
       <c r="H190" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
@@ -5653,13 +5656,13 @@
         <v>18</v>
       </c>
       <c r="E191">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G191">
-        <v>56.165710709999999</v>
+        <v>61.050466499999999</v>
       </c>
       <c r="H191" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
@@ -5676,13 +5679,13 @@
         <v>18</v>
       </c>
       <c r="E192">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G192">
-        <v>60.639359579999997</v>
+        <v>56.049325670000002</v>
       </c>
       <c r="H192" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
@@ -5699,13 +5702,13 @@
         <v>18</v>
       </c>
       <c r="E193">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G193">
-        <v>57.100518540000003</v>
+        <v>56.165710709999999</v>
       </c>
       <c r="H193" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
@@ -5722,13 +5725,13 @@
         <v>18</v>
       </c>
       <c r="E194">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G194">
-        <v>49.003774999999997</v>
+        <v>60.639359579999997</v>
       </c>
       <c r="H194" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
@@ -5745,13 +5748,13 @@
         <v>18</v>
       </c>
       <c r="E195">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G195">
-        <v>42.610874199999998</v>
+        <v>57.100518540000003</v>
       </c>
       <c r="H195" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
@@ -5768,13 +5771,13 @@
         <v>18</v>
       </c>
       <c r="E196">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G196">
-        <v>40.431049049999999</v>
+        <v>49.003774999999997</v>
       </c>
       <c r="H196" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
@@ -5791,13 +5794,13 @@
         <v>18</v>
       </c>
       <c r="E197">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G197">
-        <v>31.887499999999999</v>
+        <v>42.610874199999998</v>
       </c>
       <c r="H197" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
@@ -5814,13 +5817,13 @@
         <v>18</v>
       </c>
       <c r="E198">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G198">
-        <v>32.875</v>
+        <v>40.431049049999999</v>
       </c>
       <c r="H198" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
@@ -5837,13 +5840,13 @@
         <v>18</v>
       </c>
       <c r="E199">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G199">
-        <v>37.75</v>
+        <v>31.887499999999999</v>
       </c>
       <c r="H199" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
@@ -5854,13 +5857,19 @@
         <v>41</v>
       </c>
       <c r="C200" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D200" t="s">
         <v>18</v>
       </c>
       <c r="E200">
-        <v>1990</v>
+        <v>2018</v>
+      </c>
+      <c r="G200">
+        <v>32.875</v>
+      </c>
+      <c r="H200" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
@@ -5871,13 +5880,19 @@
         <v>41</v>
       </c>
       <c r="C201" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D201" t="s">
         <v>18</v>
       </c>
       <c r="E201">
-        <v>1991</v>
+        <v>2019</v>
+      </c>
+      <c r="G201">
+        <v>37.75</v>
+      </c>
+      <c r="H201" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
@@ -5894,7 +5909,7 @@
         <v>18</v>
       </c>
       <c r="E202">
-        <v>1992</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
@@ -5911,7 +5926,7 @@
         <v>18</v>
       </c>
       <c r="E203">
-        <v>1993</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
@@ -5928,7 +5943,7 @@
         <v>18</v>
       </c>
       <c r="E204">
-        <v>1994</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
@@ -5945,7 +5960,7 @@
         <v>18</v>
       </c>
       <c r="E205">
-        <v>1995</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
@@ -5962,16 +5977,7 @@
         <v>18</v>
       </c>
       <c r="E206">
-        <v>1996</v>
-      </c>
-      <c r="G206">
-        <v>300</v>
-      </c>
-      <c r="H206" t="s">
-        <v>151</v>
-      </c>
-      <c r="I206" t="s">
-        <v>117</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
@@ -5988,7 +5994,7 @@
         <v>18</v>
       </c>
       <c r="E207">
-        <v>1997</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
@@ -6005,7 +6011,16 @@
         <v>18</v>
       </c>
       <c r="E208">
-        <v>1998</v>
+        <v>1996</v>
+      </c>
+      <c r="G208">
+        <v>300</v>
+      </c>
+      <c r="H208" t="s">
+        <v>151</v>
+      </c>
+      <c r="I208" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
@@ -6022,7 +6037,7 @@
         <v>18</v>
       </c>
       <c r="E209">
-        <v>1999</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
@@ -6039,7 +6054,7 @@
         <v>18</v>
       </c>
       <c r="E210">
-        <v>2000</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
@@ -6056,7 +6071,7 @@
         <v>18</v>
       </c>
       <c r="E211">
-        <v>2001</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
@@ -6073,7 +6088,7 @@
         <v>18</v>
       </c>
       <c r="E212">
-        <v>2002</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
@@ -6090,7 +6105,7 @@
         <v>18</v>
       </c>
       <c r="E213">
-        <v>2003</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
@@ -6107,7 +6122,7 @@
         <v>18</v>
       </c>
       <c r="E214">
-        <v>2004</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
@@ -6124,7 +6139,7 @@
         <v>18</v>
       </c>
       <c r="E215">
-        <v>2005</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
@@ -6141,7 +6156,7 @@
         <v>18</v>
       </c>
       <c r="E216">
-        <v>2006</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
@@ -6158,7 +6173,7 @@
         <v>18</v>
       </c>
       <c r="E217">
-        <v>2007</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
@@ -6175,7 +6190,7 @@
         <v>18</v>
       </c>
       <c r="E218">
-        <v>2008</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
@@ -6192,7 +6207,7 @@
         <v>18</v>
       </c>
       <c r="E219">
-        <v>2009</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
@@ -6209,7 +6224,7 @@
         <v>18</v>
       </c>
       <c r="E220">
-        <v>2010</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
@@ -6226,7 +6241,7 @@
         <v>18</v>
       </c>
       <c r="E221">
-        <v>2011</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
@@ -6243,7 +6258,7 @@
         <v>18</v>
       </c>
       <c r="E222">
-        <v>2012</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
@@ -6260,7 +6275,7 @@
         <v>18</v>
       </c>
       <c r="E223">
-        <v>2013</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
@@ -6277,7 +6292,7 @@
         <v>18</v>
       </c>
       <c r="E224">
-        <v>2014</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
@@ -6294,7 +6309,7 @@
         <v>18</v>
       </c>
       <c r="E225">
-        <v>2015</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.2">
@@ -6311,7 +6326,7 @@
         <v>18</v>
       </c>
       <c r="E226">
-        <v>2016</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.2">
@@ -6328,7 +6343,7 @@
         <v>18</v>
       </c>
       <c r="E227">
-        <v>2017</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
@@ -6345,7 +6360,7 @@
         <v>18</v>
       </c>
       <c r="E228">
-        <v>2018</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.2">
@@ -6362,7 +6377,7 @@
         <v>18</v>
       </c>
       <c r="E229">
-        <v>2019</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.2">
@@ -6373,19 +6388,13 @@
         <v>41</v>
       </c>
       <c r="C230" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D230" t="s">
         <v>18</v>
       </c>
       <c r="E230">
-        <v>1990</v>
-      </c>
-      <c r="G230">
-        <v>1</v>
-      </c>
-      <c r="I230" t="s">
-        <v>117</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.2">
@@ -6396,19 +6405,13 @@
         <v>41</v>
       </c>
       <c r="C231" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D231" t="s">
         <v>18</v>
       </c>
       <c r="E231">
-        <v>1991</v>
-      </c>
-      <c r="G231">
-        <v>1</v>
-      </c>
-      <c r="I231" t="s">
-        <v>117</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.2">
@@ -6425,7 +6428,7 @@
         <v>18</v>
       </c>
       <c r="E232">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G232">
         <v>1</v>
@@ -6448,7 +6451,7 @@
         <v>18</v>
       </c>
       <c r="E233">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G233">
         <v>1</v>
@@ -6471,7 +6474,7 @@
         <v>18</v>
       </c>
       <c r="E234">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G234">
         <v>1</v>
@@ -6494,7 +6497,7 @@
         <v>18</v>
       </c>
       <c r="E235">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G235">
         <v>1</v>
@@ -6517,7 +6520,7 @@
         <v>18</v>
       </c>
       <c r="E236">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G236">
         <v>1</v>
@@ -6540,7 +6543,7 @@
         <v>18</v>
       </c>
       <c r="E237">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G237">
         <v>1</v>
@@ -6563,7 +6566,7 @@
         <v>18</v>
       </c>
       <c r="E238">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G238">
         <v>1</v>
@@ -6586,7 +6589,7 @@
         <v>18</v>
       </c>
       <c r="E239">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G239">
         <v>1</v>
@@ -6609,7 +6612,7 @@
         <v>18</v>
       </c>
       <c r="E240">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G240">
         <v>1</v>
@@ -6632,7 +6635,7 @@
         <v>18</v>
       </c>
       <c r="E241">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G241">
         <v>1</v>
@@ -6655,7 +6658,7 @@
         <v>18</v>
       </c>
       <c r="E242">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G242">
         <v>1</v>
@@ -6678,7 +6681,7 @@
         <v>18</v>
       </c>
       <c r="E243">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G243">
         <v>1</v>
@@ -6701,7 +6704,7 @@
         <v>18</v>
       </c>
       <c r="E244">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G244">
         <v>1</v>
@@ -6724,7 +6727,7 @@
         <v>18</v>
       </c>
       <c r="E245">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G245">
         <v>1</v>
@@ -6747,7 +6750,7 @@
         <v>18</v>
       </c>
       <c r="E246">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G246">
         <v>1</v>
@@ -6770,7 +6773,7 @@
         <v>18</v>
       </c>
       <c r="E247">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G247">
         <v>1</v>
@@ -6793,7 +6796,7 @@
         <v>18</v>
       </c>
       <c r="E248">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G248">
         <v>1</v>
@@ -6816,7 +6819,7 @@
         <v>18</v>
       </c>
       <c r="E249">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G249">
         <v>1</v>
@@ -6839,7 +6842,7 @@
         <v>18</v>
       </c>
       <c r="E250">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G250">
         <v>1</v>
@@ -6862,7 +6865,7 @@
         <v>18</v>
       </c>
       <c r="E251">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G251">
         <v>1</v>
@@ -6885,7 +6888,7 @@
         <v>18</v>
       </c>
       <c r="E252">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G252">
         <v>1</v>
@@ -6908,7 +6911,7 @@
         <v>18</v>
       </c>
       <c r="E253">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G253">
         <v>1</v>
@@ -6931,7 +6934,7 @@
         <v>18</v>
       </c>
       <c r="E254">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G254">
         <v>1</v>
@@ -6954,7 +6957,7 @@
         <v>18</v>
       </c>
       <c r="E255">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G255">
         <v>1</v>
@@ -6977,7 +6980,7 @@
         <v>18</v>
       </c>
       <c r="E256">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G256">
         <v>1</v>
@@ -7000,7 +7003,7 @@
         <v>18</v>
       </c>
       <c r="E257">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G257">
         <v>1</v>
@@ -7023,7 +7026,7 @@
         <v>18</v>
       </c>
       <c r="E258">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G258">
         <v>1</v>
@@ -7046,7 +7049,7 @@
         <v>18</v>
       </c>
       <c r="E259">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G259">
         <v>1</v>
@@ -7063,16 +7066,16 @@
         <v>41</v>
       </c>
       <c r="C260" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D260" t="s">
         <v>18</v>
       </c>
       <c r="E260">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G260">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I260" t="s">
         <v>117</v>
@@ -7086,16 +7089,16 @@
         <v>41</v>
       </c>
       <c r="C261" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D261" t="s">
         <v>18</v>
       </c>
       <c r="E261">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I261" t="s">
         <v>117</v>
@@ -7115,7 +7118,7 @@
         <v>18</v>
       </c>
       <c r="E262">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G262">
         <v>0</v>
@@ -7138,7 +7141,7 @@
         <v>18</v>
       </c>
       <c r="E263">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G263">
         <v>0</v>
@@ -7161,7 +7164,7 @@
         <v>18</v>
       </c>
       <c r="E264">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G264">
         <v>0</v>
@@ -7184,7 +7187,7 @@
         <v>18</v>
       </c>
       <c r="E265">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G265">
         <v>0</v>
@@ -7207,7 +7210,7 @@
         <v>18</v>
       </c>
       <c r="E266">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G266">
         <v>0</v>
@@ -7230,7 +7233,7 @@
         <v>18</v>
       </c>
       <c r="E267">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G267">
         <v>0</v>
@@ -7253,7 +7256,7 @@
         <v>18</v>
       </c>
       <c r="E268">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G268">
         <v>0</v>
@@ -7276,7 +7279,7 @@
         <v>18</v>
       </c>
       <c r="E269">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G269">
         <v>0</v>
@@ -7299,7 +7302,7 @@
         <v>18</v>
       </c>
       <c r="E270">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G270">
         <v>0</v>
@@ -7322,7 +7325,7 @@
         <v>18</v>
       </c>
       <c r="E271">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G271">
         <v>0</v>
@@ -7345,7 +7348,7 @@
         <v>18</v>
       </c>
       <c r="E272">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G272">
         <v>0</v>
@@ -7368,7 +7371,7 @@
         <v>18</v>
       </c>
       <c r="E273">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G273">
         <v>0</v>
@@ -7391,7 +7394,7 @@
         <v>18</v>
       </c>
       <c r="E274">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G274">
         <v>0</v>
@@ -7414,7 +7417,7 @@
         <v>18</v>
       </c>
       <c r="E275">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G275">
         <v>0</v>
@@ -7437,7 +7440,7 @@
         <v>18</v>
       </c>
       <c r="E276">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G276">
         <v>0</v>
@@ -7460,7 +7463,7 @@
         <v>18</v>
       </c>
       <c r="E277">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G277">
         <v>0</v>
@@ -7483,7 +7486,7 @@
         <v>18</v>
       </c>
       <c r="E278">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G278">
         <v>0</v>
@@ -7506,7 +7509,7 @@
         <v>18</v>
       </c>
       <c r="E279">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G279">
         <v>0</v>
@@ -7529,7 +7532,7 @@
         <v>18</v>
       </c>
       <c r="E280">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G280">
         <v>0</v>
@@ -7552,7 +7555,7 @@
         <v>18</v>
       </c>
       <c r="E281">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G281">
         <v>0</v>
@@ -7575,7 +7578,7 @@
         <v>18</v>
       </c>
       <c r="E282">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G282">
         <v>0</v>
@@ -7598,7 +7601,7 @@
         <v>18</v>
       </c>
       <c r="E283">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G283">
         <v>0</v>
@@ -7621,7 +7624,7 @@
         <v>18</v>
       </c>
       <c r="E284">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G284">
         <v>0</v>
@@ -7644,7 +7647,7 @@
         <v>18</v>
       </c>
       <c r="E285">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G285">
         <v>0</v>
@@ -7667,7 +7670,7 @@
         <v>18</v>
       </c>
       <c r="E286">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G286">
         <v>0</v>
@@ -7690,7 +7693,7 @@
         <v>18</v>
       </c>
       <c r="E287">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G287">
         <v>0</v>
@@ -7713,7 +7716,7 @@
         <v>18</v>
       </c>
       <c r="E288">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G288">
         <v>0</v>
@@ -7736,7 +7739,7 @@
         <v>18</v>
       </c>
       <c r="E289">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G289">
         <v>0</v>
@@ -7753,22 +7756,19 @@
         <v>41</v>
       </c>
       <c r="C290" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D290" t="s">
         <v>18</v>
       </c>
       <c r="E290">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G290">
-        <v>37.450000000000003</v>
-      </c>
-      <c r="H290" t="s">
-        <v>121</v>
-      </c>
-      <c r="L290" t="s">
-        <v>153</v>
+        <v>0</v>
+      </c>
+      <c r="I290" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.2">
@@ -7779,22 +7779,19 @@
         <v>41</v>
       </c>
       <c r="C291" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D291" t="s">
         <v>18</v>
       </c>
       <c r="E291">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G291">
-        <v>37.450000000000003</v>
-      </c>
-      <c r="H291" t="s">
-        <v>122</v>
-      </c>
-      <c r="L291" t="s">
-        <v>153</v>
+        <v>0</v>
+      </c>
+      <c r="I291" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.2">
@@ -7811,13 +7808,13 @@
         <v>18</v>
       </c>
       <c r="E292">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G292">
-        <v>38.85</v>
+        <v>37.450000000000003</v>
       </c>
       <c r="H292" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L292" t="s">
         <v>153</v>
@@ -7837,13 +7834,13 @@
         <v>18</v>
       </c>
       <c r="E293">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G293">
-        <v>37.950000000000003</v>
+        <v>37.450000000000003</v>
       </c>
       <c r="H293" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L293" t="s">
         <v>153</v>
@@ -7863,13 +7860,13 @@
         <v>18</v>
       </c>
       <c r="E294">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G294">
-        <v>37.4</v>
+        <v>38.85</v>
       </c>
       <c r="H294" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L294" t="s">
         <v>153</v>
@@ -7889,13 +7886,13 @@
         <v>18</v>
       </c>
       <c r="E295">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G295">
-        <v>36.049999999999997</v>
+        <v>37.950000000000003</v>
       </c>
       <c r="H295" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L295" t="s">
         <v>153</v>
@@ -7915,13 +7912,13 @@
         <v>18</v>
       </c>
       <c r="E296">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G296">
-        <v>34.450000000000003</v>
+        <v>37.4</v>
       </c>
       <c r="H296" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L296" t="s">
         <v>153</v>
@@ -7941,13 +7938,13 @@
         <v>18</v>
       </c>
       <c r="E297">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G297">
-        <v>33.950000000000003</v>
+        <v>36.049999999999997</v>
       </c>
       <c r="H297" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L297" t="s">
         <v>153</v>
@@ -7967,13 +7964,13 @@
         <v>18</v>
       </c>
       <c r="E298">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G298">
-        <v>33.15</v>
+        <v>34.450000000000003</v>
       </c>
       <c r="H298" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L298" t="s">
         <v>153</v>
@@ -7993,13 +7990,13 @@
         <v>18</v>
       </c>
       <c r="E299">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G299">
-        <v>31.8</v>
+        <v>33.950000000000003</v>
       </c>
       <c r="H299" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L299" t="s">
         <v>153</v>
@@ -8019,13 +8016,13 @@
         <v>18</v>
       </c>
       <c r="E300">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G300">
-        <v>31.25</v>
+        <v>33.15</v>
       </c>
       <c r="H300" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L300" t="s">
         <v>153</v>
@@ -8045,13 +8042,13 @@
         <v>18</v>
       </c>
       <c r="E301">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G301">
-        <v>32.200000000000003</v>
+        <v>31.8</v>
       </c>
       <c r="H301" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L301" t="s">
         <v>153</v>
@@ -8071,13 +8068,13 @@
         <v>18</v>
       </c>
       <c r="E302">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G302">
-        <v>31</v>
+        <v>31.25</v>
       </c>
       <c r="H302" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="L302" t="s">
         <v>153</v>
@@ -8097,22 +8094,16 @@
         <v>18</v>
       </c>
       <c r="E303">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G303">
-        <v>32.4</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="H303" t="s">
-        <v>155</v>
-      </c>
-      <c r="J303" t="s">
-        <v>156</v>
-      </c>
-      <c r="K303" s="2" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="L303" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.2">
@@ -8129,22 +8120,16 @@
         <v>18</v>
       </c>
       <c r="E304">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G304">
-        <v>31.7</v>
+        <v>31</v>
       </c>
       <c r="H304" t="s">
-        <v>159</v>
-      </c>
-      <c r="J304" t="s">
-        <v>156</v>
-      </c>
-      <c r="K304" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L304" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.2">
@@ -8161,13 +8146,13 @@
         <v>18</v>
       </c>
       <c r="E305">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G305">
-        <v>34.1</v>
+        <v>32.4</v>
       </c>
       <c r="H305" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="J305" t="s">
         <v>156</v>
@@ -8193,13 +8178,13 @@
         <v>18</v>
       </c>
       <c r="E306">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G306">
-        <v>38.299999999999997</v>
+        <v>31.7</v>
       </c>
       <c r="H306" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J306" t="s">
         <v>156</v>
@@ -8225,13 +8210,13 @@
         <v>18</v>
       </c>
       <c r="E307">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G307">
-        <v>41.85</v>
+        <v>34.1</v>
       </c>
       <c r="H307" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J307" t="s">
         <v>156</v>
@@ -8257,13 +8242,13 @@
         <v>18</v>
       </c>
       <c r="E308">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G308">
-        <v>37.1</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="H308" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J308" t="s">
         <v>156</v>
@@ -8289,13 +8274,13 @@
         <v>18</v>
       </c>
       <c r="E309">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G309">
-        <v>39.549999999999997</v>
+        <v>41.85</v>
       </c>
       <c r="H309" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J309" t="s">
         <v>156</v>
@@ -8321,13 +8306,13 @@
         <v>18</v>
       </c>
       <c r="E310">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G310">
-        <v>38.5</v>
+        <v>37.1</v>
       </c>
       <c r="H310" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J310" t="s">
         <v>156</v>
@@ -8353,13 +8338,13 @@
         <v>18</v>
       </c>
       <c r="E311">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G311">
-        <v>40.549999999999997</v>
+        <v>39.549999999999997</v>
       </c>
       <c r="H311" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J311" t="s">
         <v>156</v>
@@ -8385,13 +8370,13 @@
         <v>18</v>
       </c>
       <c r="E312">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G312">
-        <v>42.3</v>
+        <v>38.5</v>
       </c>
       <c r="H312" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J312" t="s">
         <v>156</v>
@@ -8417,13 +8402,13 @@
         <v>18</v>
       </c>
       <c r="E313">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G313">
-        <v>40.65</v>
+        <v>40.549999999999997</v>
       </c>
       <c r="H313" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J313" t="s">
         <v>156</v>
@@ -8449,13 +8434,13 @@
         <v>18</v>
       </c>
       <c r="E314">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G314">
-        <v>38.6</v>
+        <v>42.3</v>
       </c>
       <c r="H314" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J314" t="s">
         <v>156</v>
@@ -8481,13 +8466,13 @@
         <v>18</v>
       </c>
       <c r="E315">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G315">
-        <v>36.9</v>
+        <v>40.65</v>
       </c>
       <c r="H315" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="J315" t="s">
         <v>156</v>
@@ -8513,13 +8498,13 @@
         <v>18</v>
       </c>
       <c r="E316">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G316">
-        <v>34.5</v>
+        <v>38.6</v>
       </c>
       <c r="H316" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J316" t="s">
         <v>156</v>
@@ -8545,13 +8530,13 @@
         <v>18</v>
       </c>
       <c r="E317">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G317">
-        <v>33.1</v>
+        <v>36.9</v>
       </c>
       <c r="H317" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="J317" t="s">
         <v>156</v>
@@ -8577,13 +8562,13 @@
         <v>18</v>
       </c>
       <c r="E318">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G318">
-        <v>33.65</v>
+        <v>34.5</v>
       </c>
       <c r="H318" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="J318" t="s">
         <v>156</v>
@@ -8609,13 +8594,13 @@
         <v>18</v>
       </c>
       <c r="E319">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G319">
-        <v>37.299999999999997</v>
+        <v>33.1</v>
       </c>
       <c r="H319" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J319" t="s">
         <v>156</v>
@@ -8627,20 +8612,84 @@
         <v>158</v>
       </c>
     </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>16</v>
+      </c>
+      <c r="B320" t="s">
+        <v>41</v>
+      </c>
+      <c r="C320" t="s">
+        <v>40</v>
+      </c>
+      <c r="D320" t="s">
+        <v>18</v>
+      </c>
+      <c r="E320">
+        <v>2018</v>
+      </c>
+      <c r="G320">
+        <v>33.65</v>
+      </c>
+      <c r="H320" t="s">
+        <v>149</v>
+      </c>
+      <c r="J320" t="s">
+        <v>156</v>
+      </c>
+      <c r="K320" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L320" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>16</v>
+      </c>
+      <c r="B321" t="s">
+        <v>41</v>
+      </c>
+      <c r="C321" t="s">
+        <v>40</v>
+      </c>
+      <c r="D321" t="s">
+        <v>18</v>
+      </c>
+      <c r="E321">
+        <v>2019</v>
+      </c>
+      <c r="G321">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="H321" t="s">
+        <v>150</v>
+      </c>
+      <c r="J321" t="s">
+        <v>156</v>
+      </c>
+      <c r="K321" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L321" t="s">
+        <v>158</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A5:L518" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L520" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K39" r:id="rId1" xr:uid="{9280243E-6949-8941-9BA5-0D72F7E0C700}"/>
-    <hyperlink ref="K40" r:id="rId2" xr:uid="{95F27C1E-4658-BE4A-A2B3-46F76ACD4F74}"/>
-    <hyperlink ref="K41" r:id="rId3" xr:uid="{AFAD837F-9233-E540-8A86-E8C50A7683A6}"/>
-    <hyperlink ref="K42" r:id="rId4" xr:uid="{69024611-6EE1-D642-B375-225612CAAEEE}"/>
-    <hyperlink ref="K45" r:id="rId5" xr:uid="{DBF5AFD9-F29D-5C4B-85DD-A886A1AB63C8}"/>
-    <hyperlink ref="K49" r:id="rId6" xr:uid="{DA5C67C9-4C59-AE4B-BEE9-F504118ECC57}"/>
-    <hyperlink ref="K50" r:id="rId7" xr:uid="{B6037CA9-473C-084B-B6AA-934620BE2105}"/>
-    <hyperlink ref="K51:K109" r:id="rId8" display="https://www.bfe.admin.ch/bfe/de/home/versorgung/statistik-und-geodaten/energiestatistiken/gesamtenergiestatistik.html/" xr:uid="{EB6A06A8-3AE4-2641-9CC0-7161E8D21A52}"/>
-    <hyperlink ref="K303" r:id="rId9" xr:uid="{ECE01210-F162-8640-B72C-72CDC6F4DD33}"/>
-    <hyperlink ref="K304:K319" r:id="rId10" display="https://ec.europa.eu/eurostat/web/main/data/database" xr:uid="{B4654278-E585-5544-84B8-E8BAFEE330AA}"/>
+    <hyperlink ref="K41" r:id="rId1" xr:uid="{9280243E-6949-8941-9BA5-0D72F7E0C700}"/>
+    <hyperlink ref="K42" r:id="rId2" xr:uid="{95F27C1E-4658-BE4A-A2B3-46F76ACD4F74}"/>
+    <hyperlink ref="K43" r:id="rId3" xr:uid="{AFAD837F-9233-E540-8A86-E8C50A7683A6}"/>
+    <hyperlink ref="K44" r:id="rId4" xr:uid="{69024611-6EE1-D642-B375-225612CAAEEE}"/>
+    <hyperlink ref="K47" r:id="rId5" xr:uid="{DBF5AFD9-F29D-5C4B-85DD-A886A1AB63C8}"/>
+    <hyperlink ref="K51" r:id="rId6" xr:uid="{DA5C67C9-4C59-AE4B-BEE9-F504118ECC57}"/>
+    <hyperlink ref="K52" r:id="rId7" xr:uid="{B6037CA9-473C-084B-B6AA-934620BE2105}"/>
+    <hyperlink ref="K53:K111" r:id="rId8" display="https://www.bfe.admin.ch/bfe/de/home/versorgung/statistik-und-geodaten/energiestatistiken/gesamtenergiestatistik.html/" xr:uid="{EB6A06A8-3AE4-2641-9CC0-7161E8D21A52}"/>
+    <hyperlink ref="K305" r:id="rId9" xr:uid="{ECE01210-F162-8640-B72C-72CDC6F4DD33}"/>
+    <hyperlink ref="K306:K321" r:id="rId10" display="https://ec.europa.eu/eurostat/web/main/data/database" xr:uid="{B4654278-E585-5544-84B8-E8BAFEE330AA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/zenodo_ivan/trade/CHE_trd_elecsupply.xlsx
+++ b/data/zenodo_ivan/trade/CHE_trd_elecsupply.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/trade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03B37AD-20B3-E54B-B6E6-8DB5A28D1B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22E5C54-1042-444D-87AD-F7F507FAA2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="-4880" windowWidth="21600" windowHeight="37900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="185">
   <si>
     <t>Name:</t>
   </si>
@@ -569,15 +569,6 @@
     <t>capacity_to_activity</t>
   </si>
   <si>
-    <t>GW/TWh</t>
-  </si>
-  <si>
-    <t>flow_in_max_share</t>
-  </si>
-  <si>
-    <t>flow_out_max_share</t>
-  </si>
-  <si>
     <t>input</t>
   </si>
   <si>
@@ -585,6 +576,18 @@
   </si>
   <si>
     <t>configuration_fxe</t>
+  </si>
+  <si>
+    <t>max_share_at_in_flow</t>
+  </si>
+  <si>
+    <t>max_share_at_out_flow</t>
+  </si>
+  <si>
+    <t>PJ/GW</t>
+  </si>
+  <si>
+    <t>Maximum energy production per capacity unit, per year.</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1013,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1146,10 +1149,10 @@
         <v>41</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F9" t="s">
         <v>175</v>
@@ -1166,10 +1169,10 @@
         <v>41</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D10" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F10" t="s">
         <v>175</v>
@@ -1218,10 +1221,13 @@
         <v>22</v>
       </c>
       <c r="G12">
-        <v>1E-3</v>
+        <v>31.54</v>
       </c>
       <c r="H12" t="s">
-        <v>178</v>
+        <v>183</v>
+      </c>
+      <c r="L12" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1258,19 +1264,16 @@
         <v>41</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>176</v>
-      </c>
-      <c r="F14" t="s">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="J14" t="s">
-        <v>110</v>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I14" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1281,13 +1284,16 @@
         <v>41</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
       </c>
       <c r="G15">
-        <v>8.3000000000000007</v>
+        <v>30</v>
+      </c>
+      <c r="H15" t="s">
+        <v>118</v>
       </c>
       <c r="I15" t="s">
         <v>117</v>
@@ -1301,20 +1307,11 @@
         <v>41</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="G16">
-        <v>30</v>
-      </c>
-      <c r="H16" t="s">
-        <v>118</v>
-      </c>
-      <c r="I16" t="s">
-        <v>117</v>
-      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -1324,11 +1321,23 @@
         <v>41</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
+      <c r="G17">
+        <v>8</v>
+      </c>
+      <c r="H17" t="s">
+        <v>112</v>
+      </c>
+      <c r="J17" t="s">
+        <v>110</v>
+      </c>
+      <c r="L17" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -1338,23 +1347,20 @@
         <v>41</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>30</v>
+        <v>173</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>176</v>
+      </c>
+      <c r="F18" t="s">
+        <v>175</v>
       </c>
       <c r="G18">
-        <v>8</v>
-      </c>
-      <c r="H18" t="s">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
         <v>110</v>
       </c>
-      <c r="L18" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -1364,10 +1370,13 @@
         <v>41</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>176</v>
+      </c>
+      <c r="F19" t="s">
+        <v>175</v>
       </c>
       <c r="G19">
         <v>0.4</v>
@@ -1387,10 +1396,13 @@
         <v>41</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>176</v>
+      </c>
+      <c r="F20" t="s">
+        <v>175</v>
       </c>
       <c r="G20">
         <v>0.4</v>
